--- a/trunk/MMVGB/MMV.xlsx
+++ b/trunk/MMVGB/MMV.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="220">
   <si>
     <t>Notes</t>
   </si>
@@ -711,6 +711,15 @@
   <si>
     <t>Ventuz</t>
   </si>
+  <si>
+    <t>X &gt;= 748</t>
+  </si>
+  <si>
+    <t>Downscroll</t>
+  </si>
+  <si>
+    <t>Upscroll</t>
+  </si>
 </sst>
 </file>
 
@@ -720,10 +729,17 @@
     <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1635,34 +1651,34 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1670,208 +1686,208 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="17" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="18" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="19" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="17" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="18" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="19" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1881,10 +1897,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1905,137 +1921,141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="33" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="33" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -2343,11 +2363,11 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K153"/>
+  <dimension ref="A1:K157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="2"/>
@@ -2363,19 +2383,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="154" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="154" t="s">
+      <c r="B1" s="153"/>
+      <c r="C1" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="156"/>
       <c r="G1" s="140"/>
       <c r="H1" s="141">
-        <f>SUM(G1:G65535)</f>
+        <f>SUM(G1:G65539)</f>
         <v>0</v>
       </c>
       <c r="I1" s="141" t="s">
@@ -2450,10 +2470,10 @@
       <c r="B5" s="147" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="151" t="s">
+      <c r="C5" s="152" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="151"/>
+      <c r="D5" s="152"/>
       <c r="E5" s="147"/>
       <c r="F5" s="143"/>
       <c r="G5" s="140"/>
@@ -2469,10 +2489,10 @@
       <c r="B6" s="147" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="151" t="s">
+      <c r="C6" s="152" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="152"/>
+      <c r="D6" s="153"/>
       <c r="E6" s="147"/>
       <c r="F6" s="143"/>
       <c r="G6" s="140"/>
@@ -2490,7 +2510,7 @@
       <c r="F7" s="93"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A8" s="156" t="s">
+      <c r="A8" s="157" t="s">
         <v>188</v>
       </c>
       <c r="B8" s="95" t="s">
@@ -2510,7 +2530,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A9" s="149"/>
+      <c r="A9" s="150"/>
       <c r="B9" s="98" t="s">
         <v>184</v>
       </c>
@@ -2520,7 +2540,7 @@
       <c r="F9" s="104"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" outlineLevel="1" thickTop="1">
-      <c r="A10" s="149"/>
+      <c r="A10" s="150"/>
       <c r="B10" s="100"/>
       <c r="C10" s="101"/>
       <c r="D10" s="101"/>
@@ -2531,7 +2551,7 @@
       <c r="F10" s="105"/>
     </row>
     <row r="11" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A11" s="149"/>
+      <c r="A11" s="150"/>
       <c r="B11" s="100"/>
       <c r="C11" s="101"/>
       <c r="D11" s="101"/>
@@ -2542,7 +2562,7 @@
       <c r="F11" s="105"/>
     </row>
     <row r="12" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A12" s="149"/>
+      <c r="A12" s="150"/>
       <c r="B12" s="100"/>
       <c r="C12" s="101"/>
       <c r="D12" s="101"/>
@@ -2553,7 +2573,7 @@
       <c r="F12" s="105"/>
     </row>
     <row r="13" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A13" s="149"/>
+      <c r="A13" s="150"/>
       <c r="B13" s="100"/>
       <c r="C13" s="101"/>
       <c r="D13" s="101"/>
@@ -2564,7 +2584,7 @@
       <c r="F13" s="105"/>
     </row>
     <row r="14" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A14" s="149"/>
+      <c r="A14" s="150"/>
       <c r="B14" s="100"/>
       <c r="C14" s="101"/>
       <c r="D14" s="101"/>
@@ -2575,7 +2595,7 @@
       <c r="F14" s="105"/>
     </row>
     <row r="15" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A15" s="149"/>
+      <c r="A15" s="150"/>
       <c r="B15" s="100"/>
       <c r="C15" s="101"/>
       <c r="D15" s="101"/>
@@ -2586,7 +2606,7 @@
       <c r="F15" s="105"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A16" s="149"/>
+      <c r="A16" s="150"/>
       <c r="B16" s="98" t="s">
         <v>187</v>
       </c>
@@ -2629,7 +2649,7 @@
     </row>
     <row r="18" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="19" spans="1:7" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A19" s="150" t="s">
+      <c r="A19" s="151" t="s">
         <v>168</v>
       </c>
       <c r="B19" s="109" t="s">
@@ -2649,20 +2669,20 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A20" s="149"/>
+      <c r="A20" s="150"/>
       <c r="B20" s="98" t="s">
         <v>184</v>
       </c>
       <c r="C20" s="99"/>
       <c r="D20" s="99"/>
       <c r="E20" s="123">
-        <f t="shared" ref="E20:E33" si="1">IF(AND(C20&gt;0,D20&gt;0), D20-C20, 0)</f>
+        <f t="shared" ref="E20:E37" si="1">IF(AND(C20&gt;0,D20&gt;0), D20-C20, 0)</f>
         <v>0</v>
       </c>
       <c r="F20" s="104"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" outlineLevel="1" thickTop="1">
-      <c r="A21" s="149"/>
+      <c r="A21" s="150"/>
       <c r="B21" s="100"/>
       <c r="C21" s="101"/>
       <c r="D21" s="101"/>
@@ -2673,8 +2693,8 @@
       <c r="F21" s="105"/>
     </row>
     <row r="22" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A22" s="149"/>
-      <c r="B22" s="212" t="s">
+      <c r="A22" s="150"/>
+      <c r="B22" s="148" t="s">
         <v>213</v>
       </c>
       <c r="C22" s="101">
@@ -2690,244 +2710,286 @@
       <c r="F22" s="105"/>
     </row>
     <row r="23" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A23" s="149"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
+      <c r="A23" s="150"/>
+      <c r="B23" s="213" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="101">
+        <v>3714</v>
+      </c>
+      <c r="D23" s="101">
+        <v>3808</v>
+      </c>
       <c r="E23" s="123">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F23" s="105"/>
     </row>
     <row r="24" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A24" s="149"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
+      <c r="A24" s="150"/>
+      <c r="B24" s="213" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="214">
+        <v>3897</v>
+      </c>
+      <c r="D24" s="101">
+        <v>4023</v>
+      </c>
       <c r="E24" s="123">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="F24" s="105"/>
     </row>
     <row r="25" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A25" s="149"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
+      <c r="A25" s="150"/>
+      <c r="B25" s="213" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="101">
+        <v>4052</v>
+      </c>
+      <c r="D25" s="101">
+        <v>4179</v>
+      </c>
       <c r="E25" s="123">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="F25" s="105"/>
     </row>
     <row r="26" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A26" s="149"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
+      <c r="A26" s="150"/>
+      <c r="B26" s="213" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="101">
+        <v>4619</v>
+      </c>
+      <c r="D26" s="101">
+        <v>4783</v>
+      </c>
       <c r="E26" s="123">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="F26" s="105"/>
     </row>
     <row r="27" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A27" s="149"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
+      <c r="A27" s="150"/>
+      <c r="B27" s="213" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="101">
+        <v>4793</v>
+      </c>
+      <c r="D27" s="101">
+        <v>4964</v>
+      </c>
       <c r="E27" s="123">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="F27" s="105"/>
     </row>
     <row r="28" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A28" s="149"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
+      <c r="A28" s="150"/>
+      <c r="B28" s="213" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="101">
+        <v>5328</v>
+      </c>
+      <c r="D28" s="101">
+        <v>5527</v>
+      </c>
       <c r="E28" s="123">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="F28" s="105"/>
     </row>
     <row r="29" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A29" s="149"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
+      <c r="A29" s="150"/>
+      <c r="B29" s="213" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="101">
+        <v>5951</v>
+      </c>
+      <c r="D29" s="101">
+        <v>6161</v>
+      </c>
       <c r="E29" s="123">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="F29" s="105"/>
     </row>
     <row r="30" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A30" s="149"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
+      <c r="A30" s="150"/>
+      <c r="B30" s="213" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="101">
+        <v>6519</v>
+      </c>
+      <c r="D30" s="101">
+        <v>6728</v>
+      </c>
       <c r="E30" s="123">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="F30" s="105"/>
     </row>
     <row r="31" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A31" s="149"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
+      <c r="A31" s="150"/>
+      <c r="B31" s="213" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" s="101">
+        <v>6886</v>
+      </c>
+      <c r="D31" s="101">
+        <v>7097</v>
+      </c>
       <c r="E31" s="123">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="F31" s="105"/>
     </row>
     <row r="32" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A32" s="149"/>
-      <c r="B32" s="100"/>
+      <c r="A32" s="150"/>
+      <c r="B32" s="213"/>
       <c r="C32" s="101"/>
       <c r="D32" s="101"/>
-      <c r="E32" s="123">
+      <c r="E32" s="123"/>
+      <c r="F32" s="105"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A33" s="150"/>
+      <c r="B33" s="213"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="105"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A34" s="150"/>
+      <c r="B34" s="213"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="105"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A35" s="150"/>
+      <c r="B35" s="213"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="105"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A36" s="150"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="105"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A33" s="149"/>
-      <c r="B33" s="98" t="s">
+      <c r="F36" s="105"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
+      <c r="A37" s="150"/>
+      <c r="B37" s="98" t="s">
         <v>187</v>
-      </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="104"/>
-    </row>
-    <row r="34" spans="1:7" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A34" s="117">
-        <v>1</v>
-      </c>
-      <c r="B34" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="C34" s="103">
-        <f>C33-C20</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="103">
-        <f>D33-D20</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="126">
-        <f>E33-E20</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="108"/>
-      <c r="G34" s="112">
-        <f>E34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="13.5" thickBot="1"/>
-    <row r="36" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A36" s="148" t="s">
-        <v>170</v>
-      </c>
-      <c r="B36" s="113" t="s">
-        <v>182</v>
-      </c>
-      <c r="C36" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="115" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A37" s="149"/>
-      <c r="B37" s="98" t="s">
-        <v>184</v>
       </c>
       <c r="C37" s="99"/>
       <c r="D37" s="99"/>
-      <c r="E37" s="123">
-        <f t="shared" ref="E37:E50" si="2">IF(AND(C37&gt;0,D37&gt;0), D37-C37, 0)</f>
+      <c r="E37" s="125">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F37" s="104"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A38" s="149"/>
-      <c r="B38" s="100"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="124">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="105"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A39" s="149"/>
-      <c r="B39" s="100"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="105"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A40" s="149"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="105"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A41" s="149"/>
-      <c r="B41" s="100"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
+    <row r="38" spans="1:7" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A38" s="117">
+        <v>1</v>
+      </c>
+      <c r="B38" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="103">
+        <f>C37-C20</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="103">
+        <f>D37-D20</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="126">
+        <f>E37-E20</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="108"/>
+      <c r="G38" s="112">
+        <f>E38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="13.5" thickBot="1"/>
+    <row r="40" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A40" s="149" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="113" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="115" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A41" s="150"/>
+      <c r="B41" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
       <c r="E41" s="123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="105"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A42" s="149"/>
+        <f t="shared" ref="E41:E54" si="2">IF(AND(C41&gt;0,D41&gt;0), D41-C41, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="104"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
+      <c r="A42" s="150"/>
       <c r="B42" s="100"/>
       <c r="C42" s="101"/>
       <c r="D42" s="101"/>
-      <c r="E42" s="123">
+      <c r="E42" s="124">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F42" s="105"/>
     </row>
     <row r="43" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A43" s="149"/>
+      <c r="A43" s="150"/>
       <c r="B43" s="100"/>
       <c r="C43" s="101"/>
       <c r="D43" s="101"/>
@@ -2938,7 +3000,7 @@
       <c r="F43" s="105"/>
     </row>
     <row r="44" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A44" s="149"/>
+      <c r="A44" s="150"/>
       <c r="B44" s="100"/>
       <c r="C44" s="101"/>
       <c r="D44" s="101"/>
@@ -2949,7 +3011,7 @@
       <c r="F44" s="105"/>
     </row>
     <row r="45" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A45" s="149"/>
+      <c r="A45" s="150"/>
       <c r="B45" s="100"/>
       <c r="C45" s="101"/>
       <c r="D45" s="101"/>
@@ -2960,7 +3022,7 @@
       <c r="F45" s="105"/>
     </row>
     <row r="46" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A46" s="149"/>
+      <c r="A46" s="150"/>
       <c r="B46" s="100"/>
       <c r="C46" s="101"/>
       <c r="D46" s="101"/>
@@ -2971,7 +3033,7 @@
       <c r="F46" s="105"/>
     </row>
     <row r="47" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A47" s="149"/>
+      <c r="A47" s="150"/>
       <c r="B47" s="100"/>
       <c r="C47" s="101"/>
       <c r="D47" s="101"/>
@@ -2982,7 +3044,7 @@
       <c r="F47" s="105"/>
     </row>
     <row r="48" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A48" s="149"/>
+      <c r="A48" s="150"/>
       <c r="B48" s="100"/>
       <c r="C48" s="101"/>
       <c r="D48" s="101"/>
@@ -2993,7 +3055,7 @@
       <c r="F48" s="105"/>
     </row>
     <row r="49" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A49" s="149"/>
+      <c r="A49" s="150"/>
       <c r="B49" s="100"/>
       <c r="C49" s="101"/>
       <c r="D49" s="101"/>
@@ -3003,135 +3065,135 @@
       </c>
       <c r="F49" s="105"/>
     </row>
-    <row r="50" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A50" s="149"/>
-      <c r="B50" s="98" t="s">
+    <row r="50" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A50" s="150"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="105"/>
+    </row>
+    <row r="51" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A51" s="150"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="105"/>
+    </row>
+    <row r="52" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A52" s="150"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="105"/>
+    </row>
+    <row r="53" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A53" s="150"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="101"/>
+      <c r="E53" s="123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="105"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A54" s="150"/>
+      <c r="B54" s="98" t="s">
         <v>187</v>
-      </c>
-      <c r="C50" s="99"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="125">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="104"/>
-    </row>
-    <row r="51" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
-      <c r="A51" s="116">
-        <v>2</v>
-      </c>
-      <c r="B51" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="C51" s="103">
-        <f>C50-C37</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="103">
-        <f>D50-D37</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="126">
-        <f>E50-E37</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="107"/>
-      <c r="G51" s="112">
-        <f>E51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="13.5" thickBot="1"/>
-    <row r="53" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A53" s="150" t="s">
-        <v>171</v>
-      </c>
-      <c r="B53" s="109" t="s">
-        <v>182</v>
-      </c>
-      <c r="C53" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="111" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A54" s="149"/>
-      <c r="B54" s="98" t="s">
-        <v>184</v>
       </c>
       <c r="C54" s="99"/>
       <c r="D54" s="99"/>
-      <c r="E54" s="123">
-        <f t="shared" ref="E54:E67" si="3">IF(AND(C54&gt;0,D54&gt;0), D54-C54, 0)</f>
+      <c r="E54" s="125">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F54" s="104"/>
     </row>
-    <row r="55" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A55" s="149"/>
-      <c r="B55" s="100"/>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="124">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="105"/>
-    </row>
-    <row r="56" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A56" s="149"/>
-      <c r="B56" s="100"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="123">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="105"/>
-    </row>
-    <row r="57" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A57" s="149"/>
-      <c r="B57" s="100"/>
-      <c r="C57" s="101"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="123">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="105"/>
-    </row>
-    <row r="58" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A58" s="149"/>
-      <c r="B58" s="100"/>
-      <c r="C58" s="101"/>
-      <c r="D58" s="101"/>
+    <row r="55" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
+      <c r="A55" s="116">
+        <v>2</v>
+      </c>
+      <c r="B55" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" s="103">
+        <f>C54-C41</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="103">
+        <f>D54-D41</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="126">
+        <f>E54-E41</f>
+        <v>0</v>
+      </c>
+      <c r="F55" s="107"/>
+      <c r="G55" s="112">
+        <f>E55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="13.5" thickBot="1"/>
+    <row r="57" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A57" s="151" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="111" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A58" s="150"/>
+      <c r="B58" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" s="99"/>
+      <c r="D58" s="99"/>
       <c r="E58" s="123">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F58" s="105"/>
-    </row>
-    <row r="59" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A59" s="149"/>
+        <f t="shared" ref="E58:E71" si="3">IF(AND(C58&gt;0,D58&gt;0), D58-C58, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="104"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
+      <c r="A59" s="150"/>
       <c r="B59" s="100"/>
       <c r="C59" s="101"/>
       <c r="D59" s="101"/>
-      <c r="E59" s="123">
+      <c r="E59" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F59" s="105"/>
     </row>
     <row r="60" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A60" s="149"/>
+      <c r="A60" s="150"/>
       <c r="B60" s="100"/>
       <c r="C60" s="101"/>
       <c r="D60" s="101"/>
@@ -3142,7 +3204,7 @@
       <c r="F60" s="105"/>
     </row>
     <row r="61" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A61" s="149"/>
+      <c r="A61" s="150"/>
       <c r="B61" s="100"/>
       <c r="C61" s="101"/>
       <c r="D61" s="101"/>
@@ -3153,7 +3215,7 @@
       <c r="F61" s="105"/>
     </row>
     <row r="62" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A62" s="149"/>
+      <c r="A62" s="150"/>
       <c r="B62" s="100"/>
       <c r="C62" s="101"/>
       <c r="D62" s="101"/>
@@ -3164,7 +3226,7 @@
       <c r="F62" s="105"/>
     </row>
     <row r="63" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A63" s="149"/>
+      <c r="A63" s="150"/>
       <c r="B63" s="100"/>
       <c r="C63" s="101"/>
       <c r="D63" s="101"/>
@@ -3175,7 +3237,7 @@
       <c r="F63" s="105"/>
     </row>
     <row r="64" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A64" s="149"/>
+      <c r="A64" s="150"/>
       <c r="B64" s="100"/>
       <c r="C64" s="101"/>
       <c r="D64" s="101"/>
@@ -3186,7 +3248,7 @@
       <c r="F64" s="105"/>
     </row>
     <row r="65" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A65" s="149"/>
+      <c r="A65" s="150"/>
       <c r="B65" s="100"/>
       <c r="C65" s="101"/>
       <c r="D65" s="101"/>
@@ -3197,7 +3259,7 @@
       <c r="F65" s="105"/>
     </row>
     <row r="66" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A66" s="149"/>
+      <c r="A66" s="150"/>
       <c r="B66" s="100"/>
       <c r="C66" s="101"/>
       <c r="D66" s="101"/>
@@ -3207,135 +3269,135 @@
       </c>
       <c r="F66" s="105"/>
     </row>
-    <row r="67" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A67" s="149"/>
-      <c r="B67" s="98" t="s">
+    <row r="67" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A67" s="150"/>
+      <c r="B67" s="100"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F67" s="105"/>
+    </row>
+    <row r="68" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A68" s="150"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F68" s="105"/>
+    </row>
+    <row r="69" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A69" s="150"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="105"/>
+    </row>
+    <row r="70" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A70" s="150"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="105"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A71" s="150"/>
+      <c r="B71" s="98" t="s">
         <v>187</v>
-      </c>
-      <c r="C67" s="99"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="125">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F67" s="104"/>
-    </row>
-    <row r="68" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
-      <c r="A68" s="117">
-        <v>3</v>
-      </c>
-      <c r="B68" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="C68" s="103">
-        <f>C67-C54</f>
-        <v>0</v>
-      </c>
-      <c r="D68" s="103">
-        <f>D67-D54</f>
-        <v>0</v>
-      </c>
-      <c r="E68" s="126">
-        <f>E67-E54</f>
-        <v>0</v>
-      </c>
-      <c r="F68" s="108"/>
-      <c r="G68" s="112">
-        <f>E68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="13.5" thickBot="1"/>
-    <row r="70" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A70" s="148" t="s">
-        <v>172</v>
-      </c>
-      <c r="B70" s="113" t="s">
-        <v>182</v>
-      </c>
-      <c r="C70" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="D70" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E70" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="F70" s="115" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A71" s="149"/>
-      <c r="B71" s="98" t="s">
-        <v>184</v>
       </c>
       <c r="C71" s="99"/>
       <c r="D71" s="99"/>
-      <c r="E71" s="123">
-        <f t="shared" ref="E71:E84" si="4">IF(AND(C71&gt;0,D71&gt;0), D71-C71, 0)</f>
+      <c r="E71" s="125">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F71" s="104"/>
     </row>
-    <row r="72" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A72" s="149"/>
-      <c r="B72" s="100"/>
-      <c r="C72" s="101"/>
-      <c r="D72" s="101"/>
-      <c r="E72" s="124">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F72" s="105"/>
-    </row>
-    <row r="73" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A73" s="149"/>
-      <c r="B73" s="100"/>
-      <c r="C73" s="101"/>
-      <c r="D73" s="101"/>
-      <c r="E73" s="123">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F73" s="105"/>
-    </row>
-    <row r="74" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A74" s="149"/>
-      <c r="B74" s="100"/>
-      <c r="C74" s="101"/>
-      <c r="D74" s="101"/>
-      <c r="E74" s="123">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F74" s="105"/>
-    </row>
-    <row r="75" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A75" s="149"/>
-      <c r="B75" s="100"/>
-      <c r="C75" s="101"/>
-      <c r="D75" s="101"/>
+    <row r="72" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
+      <c r="A72" s="117">
+        <v>3</v>
+      </c>
+      <c r="B72" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" s="103">
+        <f>C71-C58</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="103">
+        <f>D71-D58</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="126">
+        <f>E71-E58</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="108"/>
+      <c r="G72" s="112">
+        <f>E72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="13.5" thickBot="1"/>
+    <row r="74" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A74" s="149" t="s">
+        <v>172</v>
+      </c>
+      <c r="B74" s="113" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" s="115" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A75" s="150"/>
+      <c r="B75" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" s="99"/>
+      <c r="D75" s="99"/>
       <c r="E75" s="123">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F75" s="105"/>
-    </row>
-    <row r="76" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A76" s="149"/>
+        <f t="shared" ref="E75:E88" si="4">IF(AND(C75&gt;0,D75&gt;0), D75-C75, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F75" s="104"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
+      <c r="A76" s="150"/>
       <c r="B76" s="100"/>
       <c r="C76" s="101"/>
       <c r="D76" s="101"/>
-      <c r="E76" s="123">
+      <c r="E76" s="124">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F76" s="105"/>
     </row>
     <row r="77" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A77" s="149"/>
+      <c r="A77" s="150"/>
       <c r="B77" s="100"/>
       <c r="C77" s="101"/>
       <c r="D77" s="101"/>
@@ -3346,7 +3408,7 @@
       <c r="F77" s="105"/>
     </row>
     <row r="78" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A78" s="149"/>
+      <c r="A78" s="150"/>
       <c r="B78" s="100"/>
       <c r="C78" s="101"/>
       <c r="D78" s="101"/>
@@ -3357,7 +3419,7 @@
       <c r="F78" s="105"/>
     </row>
     <row r="79" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A79" s="149"/>
+      <c r="A79" s="150"/>
       <c r="B79" s="100"/>
       <c r="C79" s="101"/>
       <c r="D79" s="101"/>
@@ -3368,7 +3430,7 @@
       <c r="F79" s="105"/>
     </row>
     <row r="80" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A80" s="149"/>
+      <c r="A80" s="150"/>
       <c r="B80" s="100"/>
       <c r="C80" s="101"/>
       <c r="D80" s="101"/>
@@ -3379,7 +3441,7 @@
       <c r="F80" s="105"/>
     </row>
     <row r="81" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A81" s="149"/>
+      <c r="A81" s="150"/>
       <c r="B81" s="100"/>
       <c r="C81" s="101"/>
       <c r="D81" s="101"/>
@@ -3390,7 +3452,7 @@
       <c r="F81" s="105"/>
     </row>
     <row r="82" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A82" s="149"/>
+      <c r="A82" s="150"/>
       <c r="B82" s="100"/>
       <c r="C82" s="101"/>
       <c r="D82" s="101"/>
@@ -3401,7 +3463,7 @@
       <c r="F82" s="105"/>
     </row>
     <row r="83" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A83" s="149"/>
+      <c r="A83" s="150"/>
       <c r="B83" s="100"/>
       <c r="C83" s="101"/>
       <c r="D83" s="101"/>
@@ -3411,135 +3473,135 @@
       </c>
       <c r="F83" s="105"/>
     </row>
-    <row r="84" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A84" s="149"/>
-      <c r="B84" s="98" t="s">
+    <row r="84" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A84" s="150"/>
+      <c r="B84" s="100"/>
+      <c r="C84" s="101"/>
+      <c r="D84" s="101"/>
+      <c r="E84" s="123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="105"/>
+    </row>
+    <row r="85" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A85" s="150"/>
+      <c r="B85" s="100"/>
+      <c r="C85" s="101"/>
+      <c r="D85" s="101"/>
+      <c r="E85" s="123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F85" s="105"/>
+    </row>
+    <row r="86" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A86" s="150"/>
+      <c r="B86" s="100"/>
+      <c r="C86" s="101"/>
+      <c r="D86" s="101"/>
+      <c r="E86" s="123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="105"/>
+    </row>
+    <row r="87" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A87" s="150"/>
+      <c r="B87" s="100"/>
+      <c r="C87" s="101"/>
+      <c r="D87" s="101"/>
+      <c r="E87" s="123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="105"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A88" s="150"/>
+      <c r="B88" s="98" t="s">
         <v>187</v>
-      </c>
-      <c r="C84" s="99"/>
-      <c r="D84" s="99"/>
-      <c r="E84" s="125">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F84" s="104"/>
-    </row>
-    <row r="85" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
-      <c r="A85" s="116">
-        <v>4</v>
-      </c>
-      <c r="B85" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="C85" s="103">
-        <f>C84-C71</f>
-        <v>0</v>
-      </c>
-      <c r="D85" s="103">
-        <f>D84-D71</f>
-        <v>0</v>
-      </c>
-      <c r="E85" s="126">
-        <f>E84-E71</f>
-        <v>0</v>
-      </c>
-      <c r="F85" s="107"/>
-      <c r="G85" s="112">
-        <f>E85</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="13.5" thickBot="1"/>
-    <row r="87" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A87" s="150" t="s">
-        <v>173</v>
-      </c>
-      <c r="B87" s="109" t="s">
-        <v>182</v>
-      </c>
-      <c r="C87" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="D87" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="E87" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="F87" s="111" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A88" s="149"/>
-      <c r="B88" s="98" t="s">
-        <v>184</v>
       </c>
       <c r="C88" s="99"/>
       <c r="D88" s="99"/>
-      <c r="E88" s="123">
-        <f t="shared" ref="E88:E101" si="5">IF(AND(C88&gt;0,D88&gt;0), D88-C88, 0)</f>
+      <c r="E88" s="125">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F88" s="104"/>
     </row>
-    <row r="89" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A89" s="149"/>
-      <c r="B89" s="100"/>
-      <c r="C89" s="101"/>
-      <c r="D89" s="101"/>
-      <c r="E89" s="124">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F89" s="105"/>
-    </row>
-    <row r="90" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A90" s="149"/>
-      <c r="B90" s="100"/>
-      <c r="C90" s="101"/>
-      <c r="D90" s="101"/>
-      <c r="E90" s="123">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F90" s="105"/>
-    </row>
-    <row r="91" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A91" s="149"/>
-      <c r="B91" s="100"/>
-      <c r="C91" s="101"/>
-      <c r="D91" s="101"/>
-      <c r="E91" s="123">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F91" s="105"/>
-    </row>
-    <row r="92" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A92" s="149"/>
-      <c r="B92" s="100"/>
-      <c r="C92" s="101"/>
-      <c r="D92" s="101"/>
+    <row r="89" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
+      <c r="A89" s="116">
+        <v>4</v>
+      </c>
+      <c r="B89" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="103">
+        <f>C88-C75</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="103">
+        <f>D88-D75</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="126">
+        <f>E88-E75</f>
+        <v>0</v>
+      </c>
+      <c r="F89" s="107"/>
+      <c r="G89" s="112">
+        <f>E89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="13.5" thickBot="1"/>
+    <row r="91" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A91" s="151" t="s">
+        <v>173</v>
+      </c>
+      <c r="B91" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="E91" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" s="111" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A92" s="150"/>
+      <c r="B92" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92" s="99"/>
+      <c r="D92" s="99"/>
       <c r="E92" s="123">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F92" s="105"/>
-    </row>
-    <row r="93" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A93" s="149"/>
+        <f t="shared" ref="E92:E105" si="5">IF(AND(C92&gt;0,D92&gt;0), D92-C92, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F92" s="104"/>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
+      <c r="A93" s="150"/>
       <c r="B93" s="100"/>
       <c r="C93" s="101"/>
       <c r="D93" s="101"/>
-      <c r="E93" s="123">
+      <c r="E93" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F93" s="105"/>
     </row>
     <row r="94" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A94" s="149"/>
+      <c r="A94" s="150"/>
       <c r="B94" s="100"/>
       <c r="C94" s="101"/>
       <c r="D94" s="101"/>
@@ -3550,7 +3612,7 @@
       <c r="F94" s="105"/>
     </row>
     <row r="95" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A95" s="149"/>
+      <c r="A95" s="150"/>
       <c r="B95" s="100"/>
       <c r="C95" s="101"/>
       <c r="D95" s="101"/>
@@ -3561,7 +3623,7 @@
       <c r="F95" s="105"/>
     </row>
     <row r="96" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A96" s="149"/>
+      <c r="A96" s="150"/>
       <c r="B96" s="100"/>
       <c r="C96" s="101"/>
       <c r="D96" s="101"/>
@@ -3572,7 +3634,7 @@
       <c r="F96" s="105"/>
     </row>
     <row r="97" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A97" s="149"/>
+      <c r="A97" s="150"/>
       <c r="B97" s="100"/>
       <c r="C97" s="101"/>
       <c r="D97" s="101"/>
@@ -3583,7 +3645,7 @@
       <c r="F97" s="105"/>
     </row>
     <row r="98" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A98" s="149"/>
+      <c r="A98" s="150"/>
       <c r="B98" s="100"/>
       <c r="C98" s="101"/>
       <c r="D98" s="101"/>
@@ -3594,7 +3656,7 @@
       <c r="F98" s="105"/>
     </row>
     <row r="99" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A99" s="149"/>
+      <c r="A99" s="150"/>
       <c r="B99" s="100"/>
       <c r="C99" s="101"/>
       <c r="D99" s="101"/>
@@ -3605,7 +3667,7 @@
       <c r="F99" s="105"/>
     </row>
     <row r="100" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A100" s="149"/>
+      <c r="A100" s="150"/>
       <c r="B100" s="100"/>
       <c r="C100" s="101"/>
       <c r="D100" s="101"/>
@@ -3615,134 +3677,134 @@
       </c>
       <c r="F100" s="105"/>
     </row>
-    <row r="101" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A101" s="149"/>
-      <c r="B101" s="98" t="s">
+    <row r="101" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A101" s="150"/>
+      <c r="B101" s="100"/>
+      <c r="C101" s="101"/>
+      <c r="D101" s="101"/>
+      <c r="E101" s="123">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F101" s="105"/>
+    </row>
+    <row r="102" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A102" s="150"/>
+      <c r="B102" s="100"/>
+      <c r="C102" s="101"/>
+      <c r="D102" s="101"/>
+      <c r="E102" s="123">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="105"/>
+    </row>
+    <row r="103" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A103" s="150"/>
+      <c r="B103" s="100"/>
+      <c r="C103" s="101"/>
+      <c r="D103" s="101"/>
+      <c r="E103" s="123">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F103" s="105"/>
+    </row>
+    <row r="104" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A104" s="150"/>
+      <c r="B104" s="100"/>
+      <c r="C104" s="101"/>
+      <c r="D104" s="101"/>
+      <c r="E104" s="123">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F104" s="105"/>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A105" s="150"/>
+      <c r="B105" s="98" t="s">
         <v>187</v>
-      </c>
-      <c r="C101" s="99"/>
-      <c r="D101" s="99"/>
-      <c r="E101" s="125">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F101" s="104"/>
-    </row>
-    <row r="102" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
-      <c r="A102" s="117">
-        <v>5</v>
-      </c>
-      <c r="B102" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="C102" s="103">
-        <f>C101-C88</f>
-        <v>0</v>
-      </c>
-      <c r="D102" s="103">
-        <f>D101-D88</f>
-        <v>0</v>
-      </c>
-      <c r="E102" s="126">
-        <f>E101-E88</f>
-        <v>0</v>
-      </c>
-      <c r="F102" s="108"/>
-      <c r="G102" s="112">
-        <f>E102</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A104" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="B104" s="113" t="s">
-        <v>182</v>
-      </c>
-      <c r="C104" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="D104" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E104" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="F104" s="115" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A105" s="149"/>
-      <c r="B105" s="98" t="s">
-        <v>184</v>
       </c>
       <c r="C105" s="99"/>
       <c r="D105" s="99"/>
-      <c r="E105" s="123">
-        <f t="shared" ref="E105:E118" si="6">IF(AND(C105&gt;0,D105&gt;0), D105-C105, 0)</f>
+      <c r="E105" s="125">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F105" s="104"/>
     </row>
-    <row r="106" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A106" s="149"/>
-      <c r="B106" s="100"/>
-      <c r="C106" s="101"/>
-      <c r="D106" s="101"/>
-      <c r="E106" s="124">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F106" s="105"/>
-    </row>
-    <row r="107" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A107" s="149"/>
-      <c r="B107" s="100"/>
-      <c r="C107" s="101"/>
-      <c r="D107" s="101"/>
-      <c r="E107" s="123">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F107" s="105"/>
-    </row>
-    <row r="108" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A108" s="149"/>
-      <c r="B108" s="100"/>
-      <c r="C108" s="101"/>
-      <c r="D108" s="101"/>
-      <c r="E108" s="123">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F108" s="105"/>
-    </row>
-    <row r="109" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A109" s="149"/>
-      <c r="B109" s="100"/>
-      <c r="C109" s="101"/>
-      <c r="D109" s="101"/>
+    <row r="106" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
+      <c r="A106" s="117">
+        <v>5</v>
+      </c>
+      <c r="B106" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C106" s="103">
+        <f>C105-C92</f>
+        <v>0</v>
+      </c>
+      <c r="D106" s="103">
+        <f>D105-D92</f>
+        <v>0</v>
+      </c>
+      <c r="E106" s="126">
+        <f>E105-E92</f>
+        <v>0</v>
+      </c>
+      <c r="F106" s="108"/>
+      <c r="G106" s="112">
+        <f>E106</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A108" s="149" t="s">
+        <v>174</v>
+      </c>
+      <c r="B108" s="113" t="s">
+        <v>182</v>
+      </c>
+      <c r="C108" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D108" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E108" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" s="115" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A109" s="150"/>
+      <c r="B109" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C109" s="99"/>
+      <c r="D109" s="99"/>
       <c r="E109" s="123">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F109" s="105"/>
-    </row>
-    <row r="110" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A110" s="149"/>
+        <f t="shared" ref="E109:E122" si="6">IF(AND(C109&gt;0,D109&gt;0), D109-C109, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F109" s="104"/>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
+      <c r="A110" s="150"/>
       <c r="B110" s="100"/>
       <c r="C110" s="101"/>
       <c r="D110" s="101"/>
-      <c r="E110" s="123">
+      <c r="E110" s="124">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F110" s="105"/>
     </row>
     <row r="111" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A111" s="149"/>
+      <c r="A111" s="150"/>
       <c r="B111" s="100"/>
       <c r="C111" s="101"/>
       <c r="D111" s="101"/>
@@ -3753,7 +3815,7 @@
       <c r="F111" s="105"/>
     </row>
     <row r="112" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A112" s="149"/>
+      <c r="A112" s="150"/>
       <c r="B112" s="100"/>
       <c r="C112" s="101"/>
       <c r="D112" s="101"/>
@@ -3764,7 +3826,7 @@
       <c r="F112" s="105"/>
     </row>
     <row r="113" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A113" s="149"/>
+      <c r="A113" s="150"/>
       <c r="B113" s="100"/>
       <c r="C113" s="101"/>
       <c r="D113" s="101"/>
@@ -3775,7 +3837,7 @@
       <c r="F113" s="105"/>
     </row>
     <row r="114" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A114" s="149"/>
+      <c r="A114" s="150"/>
       <c r="B114" s="100"/>
       <c r="C114" s="101"/>
       <c r="D114" s="101"/>
@@ -3786,7 +3848,7 @@
       <c r="F114" s="105"/>
     </row>
     <row r="115" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A115" s="149"/>
+      <c r="A115" s="150"/>
       <c r="B115" s="100"/>
       <c r="C115" s="101"/>
       <c r="D115" s="101"/>
@@ -3797,7 +3859,7 @@
       <c r="F115" s="105"/>
     </row>
     <row r="116" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A116" s="149"/>
+      <c r="A116" s="150"/>
       <c r="B116" s="100"/>
       <c r="C116" s="101"/>
       <c r="D116" s="101"/>
@@ -3808,7 +3870,7 @@
       <c r="F116" s="105"/>
     </row>
     <row r="117" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A117" s="149"/>
+      <c r="A117" s="150"/>
       <c r="B117" s="100"/>
       <c r="C117" s="101"/>
       <c r="D117" s="101"/>
@@ -3818,134 +3880,134 @@
       </c>
       <c r="F117" s="105"/>
     </row>
-    <row r="118" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A118" s="149"/>
-      <c r="B118" s="98" t="s">
+    <row r="118" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A118" s="150"/>
+      <c r="B118" s="100"/>
+      <c r="C118" s="101"/>
+      <c r="D118" s="101"/>
+      <c r="E118" s="123">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F118" s="105"/>
+    </row>
+    <row r="119" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A119" s="150"/>
+      <c r="B119" s="100"/>
+      <c r="C119" s="101"/>
+      <c r="D119" s="101"/>
+      <c r="E119" s="123">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F119" s="105"/>
+    </row>
+    <row r="120" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A120" s="150"/>
+      <c r="B120" s="100"/>
+      <c r="C120" s="101"/>
+      <c r="D120" s="101"/>
+      <c r="E120" s="123">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F120" s="105"/>
+    </row>
+    <row r="121" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A121" s="150"/>
+      <c r="B121" s="100"/>
+      <c r="C121" s="101"/>
+      <c r="D121" s="101"/>
+      <c r="E121" s="123">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F121" s="105"/>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A122" s="150"/>
+      <c r="B122" s="98" t="s">
         <v>187</v>
-      </c>
-      <c r="C118" s="99"/>
-      <c r="D118" s="99"/>
-      <c r="E118" s="125">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F118" s="104"/>
-    </row>
-    <row r="119" spans="1:7" ht="16.5" collapsed="1" thickBot="1">
-      <c r="A119" s="116">
-        <v>6</v>
-      </c>
-      <c r="B119" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="C119" s="103">
-        <f>C118-C105</f>
-        <v>0</v>
-      </c>
-      <c r="D119" s="103">
-        <f>D118-D105</f>
-        <v>0</v>
-      </c>
-      <c r="E119" s="103">
-        <f>E118-E105</f>
-        <v>0</v>
-      </c>
-      <c r="F119" s="107"/>
-      <c r="G119" s="112">
-        <f>E119</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A121" s="150" t="s">
-        <v>175</v>
-      </c>
-      <c r="B121" s="109" t="s">
-        <v>182</v>
-      </c>
-      <c r="C121" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="D121" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="E121" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="F121" s="111" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A122" s="149"/>
-      <c r="B122" s="98" t="s">
-        <v>184</v>
       </c>
       <c r="C122" s="99"/>
       <c r="D122" s="99"/>
-      <c r="E122" s="123">
-        <f t="shared" ref="E122:E135" si="7">IF(AND(C122&gt;0,D122&gt;0), D122-C122, 0)</f>
+      <c r="E122" s="125">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F122" s="104"/>
     </row>
-    <row r="123" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A123" s="149"/>
-      <c r="B123" s="100"/>
-      <c r="C123" s="101"/>
-      <c r="D123" s="101"/>
-      <c r="E123" s="124">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F123" s="105"/>
-    </row>
-    <row r="124" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A124" s="149"/>
-      <c r="B124" s="100"/>
-      <c r="C124" s="101"/>
-      <c r="D124" s="101"/>
-      <c r="E124" s="123">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F124" s="105"/>
+    <row r="123" spans="1:7" ht="16.5" collapsed="1" thickBot="1">
+      <c r="A123" s="116">
+        <v>6</v>
+      </c>
+      <c r="B123" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C123" s="103">
+        <f>C122-C109</f>
+        <v>0</v>
+      </c>
+      <c r="D123" s="103">
+        <f>D122-D109</f>
+        <v>0</v>
+      </c>
+      <c r="E123" s="103">
+        <f>E122-E109</f>
+        <v>0</v>
+      </c>
+      <c r="F123" s="107"/>
+      <c r="G123" s="112">
+        <f>E123</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A125" s="149"/>
-      <c r="B125" s="100"/>
-      <c r="C125" s="101"/>
-      <c r="D125" s="101"/>
-      <c r="E125" s="123">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F125" s="105"/>
-    </row>
-    <row r="126" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A126" s="149"/>
-      <c r="B126" s="100"/>
-      <c r="C126" s="101"/>
-      <c r="D126" s="101"/>
+      <c r="A125" s="151" t="s">
+        <v>175</v>
+      </c>
+      <c r="B125" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="C125" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="D125" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="E125" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="F125" s="111" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A126" s="150"/>
+      <c r="B126" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C126" s="99"/>
+      <c r="D126" s="99"/>
       <c r="E126" s="123">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F126" s="105"/>
-    </row>
-    <row r="127" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A127" s="149"/>
+        <f t="shared" ref="E126:E139" si="7">IF(AND(C126&gt;0,D126&gt;0), D126-C126, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F126" s="104"/>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
+      <c r="A127" s="150"/>
       <c r="B127" s="100"/>
       <c r="C127" s="101"/>
       <c r="D127" s="101"/>
-      <c r="E127" s="123">
+      <c r="E127" s="124">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F127" s="105"/>
     </row>
     <row r="128" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A128" s="149"/>
+      <c r="A128" s="150"/>
       <c r="B128" s="100"/>
       <c r="C128" s="101"/>
       <c r="D128" s="101"/>
@@ -3956,7 +4018,7 @@
       <c r="F128" s="105"/>
     </row>
     <row r="129" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A129" s="149"/>
+      <c r="A129" s="150"/>
       <c r="B129" s="100"/>
       <c r="C129" s="101"/>
       <c r="D129" s="101"/>
@@ -3967,7 +4029,7 @@
       <c r="F129" s="105"/>
     </row>
     <row r="130" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A130" s="149"/>
+      <c r="A130" s="150"/>
       <c r="B130" s="100"/>
       <c r="C130" s="101"/>
       <c r="D130" s="101"/>
@@ -3978,7 +4040,7 @@
       <c r="F130" s="105"/>
     </row>
     <row r="131" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A131" s="149"/>
+      <c r="A131" s="150"/>
       <c r="B131" s="100"/>
       <c r="C131" s="101"/>
       <c r="D131" s="101"/>
@@ -3989,7 +4051,7 @@
       <c r="F131" s="105"/>
     </row>
     <row r="132" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A132" s="149"/>
+      <c r="A132" s="150"/>
       <c r="B132" s="100"/>
       <c r="C132" s="101"/>
       <c r="D132" s="101"/>
@@ -4000,7 +4062,7 @@
       <c r="F132" s="105"/>
     </row>
     <row r="133" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A133" s="149"/>
+      <c r="A133" s="150"/>
       <c r="B133" s="100"/>
       <c r="C133" s="101"/>
       <c r="D133" s="101"/>
@@ -4011,7 +4073,7 @@
       <c r="F133" s="105"/>
     </row>
     <row r="134" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A134" s="149"/>
+      <c r="A134" s="150"/>
       <c r="B134" s="100"/>
       <c r="C134" s="101"/>
       <c r="D134" s="101"/>
@@ -4021,134 +4083,134 @@
       </c>
       <c r="F134" s="105"/>
     </row>
-    <row r="135" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A135" s="149"/>
-      <c r="B135" s="98" t="s">
+    <row r="135" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A135" s="150"/>
+      <c r="B135" s="100"/>
+      <c r="C135" s="101"/>
+      <c r="D135" s="101"/>
+      <c r="E135" s="123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F135" s="105"/>
+    </row>
+    <row r="136" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A136" s="150"/>
+      <c r="B136" s="100"/>
+      <c r="C136" s="101"/>
+      <c r="D136" s="101"/>
+      <c r="E136" s="123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F136" s="105"/>
+    </row>
+    <row r="137" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A137" s="150"/>
+      <c r="B137" s="100"/>
+      <c r="C137" s="101"/>
+      <c r="D137" s="101"/>
+      <c r="E137" s="123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F137" s="105"/>
+    </row>
+    <row r="138" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A138" s="150"/>
+      <c r="B138" s="100"/>
+      <c r="C138" s="101"/>
+      <c r="D138" s="101"/>
+      <c r="E138" s="123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F138" s="105"/>
+    </row>
+    <row r="139" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A139" s="150"/>
+      <c r="B139" s="98" t="s">
         <v>187</v>
-      </c>
-      <c r="C135" s="99"/>
-      <c r="D135" s="99"/>
-      <c r="E135" s="125">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F135" s="104"/>
-    </row>
-    <row r="136" spans="1:7" ht="16.5" collapsed="1" thickBot="1">
-      <c r="A136" s="117">
-        <v>7</v>
-      </c>
-      <c r="B136" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="C136" s="103">
-        <f>C135-C122</f>
-        <v>0</v>
-      </c>
-      <c r="D136" s="103">
-        <f>D135-D122</f>
-        <v>0</v>
-      </c>
-      <c r="E136" s="103">
-        <f>E135-E122</f>
-        <v>0</v>
-      </c>
-      <c r="F136" s="108"/>
-      <c r="G136" s="112">
-        <f>E136</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A138" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="B138" s="113" t="s">
-        <v>182</v>
-      </c>
-      <c r="C138" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="D138" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E138" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="F138" s="115" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickBot="1">
-      <c r="A139" s="149"/>
-      <c r="B139" s="98" t="s">
-        <v>184</v>
       </c>
       <c r="C139" s="99"/>
       <c r="D139" s="99"/>
-      <c r="E139" s="123">
-        <f t="shared" ref="E139:E152" si="8">IF(AND(C139&gt;0,D139&gt;0), D139-C139, 0)</f>
+      <c r="E139" s="125">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F139" s="104"/>
     </row>
-    <row r="140" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickTop="1">
-      <c r="A140" s="149"/>
-      <c r="B140" s="100"/>
-      <c r="C140" s="101"/>
-      <c r="D140" s="101"/>
-      <c r="E140" s="124">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F140" s="105"/>
-    </row>
-    <row r="141" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A141" s="149"/>
-      <c r="B141" s="100"/>
-      <c r="C141" s="101"/>
-      <c r="D141" s="101"/>
-      <c r="E141" s="123">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F141" s="105"/>
+    <row r="140" spans="1:7" ht="16.5" collapsed="1" thickBot="1">
+      <c r="A140" s="117">
+        <v>7</v>
+      </c>
+      <c r="B140" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C140" s="103">
+        <f>C139-C126</f>
+        <v>0</v>
+      </c>
+      <c r="D140" s="103">
+        <f>D139-D126</f>
+        <v>0</v>
+      </c>
+      <c r="E140" s="103">
+        <f>E139-E126</f>
+        <v>0</v>
+      </c>
+      <c r="F140" s="108"/>
+      <c r="G140" s="112">
+        <f>E140</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A142" s="149"/>
-      <c r="B142" s="100"/>
-      <c r="C142" s="101"/>
-      <c r="D142" s="101"/>
-      <c r="E142" s="123">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F142" s="105"/>
-    </row>
-    <row r="143" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A143" s="149"/>
-      <c r="B143" s="100"/>
-      <c r="C143" s="101"/>
-      <c r="D143" s="101"/>
+      <c r="A142" s="149" t="s">
+        <v>176</v>
+      </c>
+      <c r="B142" s="113" t="s">
+        <v>182</v>
+      </c>
+      <c r="C142" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D142" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E142" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="F142" s="115" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickBot="1">
+      <c r="A143" s="150"/>
+      <c r="B143" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C143" s="99"/>
+      <c r="D143" s="99"/>
       <c r="E143" s="123">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F143" s="105"/>
-    </row>
-    <row r="144" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A144" s="149"/>
+        <f t="shared" ref="E143:E156" si="8">IF(AND(C143&gt;0,D143&gt;0), D143-C143, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F143" s="104"/>
+    </row>
+    <row r="144" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickTop="1">
+      <c r="A144" s="150"/>
       <c r="B144" s="100"/>
       <c r="C144" s="101"/>
       <c r="D144" s="101"/>
-      <c r="E144" s="123">
+      <c r="E144" s="124">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F144" s="105"/>
     </row>
     <row r="145" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A145" s="149"/>
+      <c r="A145" s="150"/>
       <c r="B145" s="100"/>
       <c r="C145" s="101"/>
       <c r="D145" s="101"/>
@@ -4159,7 +4221,7 @@
       <c r="F145" s="105"/>
     </row>
     <row r="146" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A146" s="149"/>
+      <c r="A146" s="150"/>
       <c r="B146" s="100"/>
       <c r="C146" s="101"/>
       <c r="D146" s="101"/>
@@ -4170,7 +4232,7 @@
       <c r="F146" s="105"/>
     </row>
     <row r="147" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A147" s="149"/>
+      <c r="A147" s="150"/>
       <c r="B147" s="100"/>
       <c r="C147" s="101"/>
       <c r="D147" s="101"/>
@@ -4181,7 +4243,7 @@
       <c r="F147" s="105"/>
     </row>
     <row r="148" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A148" s="149"/>
+      <c r="A148" s="150"/>
       <c r="B148" s="100"/>
       <c r="C148" s="101"/>
       <c r="D148" s="101"/>
@@ -4192,7 +4254,7 @@
       <c r="F148" s="105"/>
     </row>
     <row r="149" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A149" s="149"/>
+      <c r="A149" s="150"/>
       <c r="B149" s="100"/>
       <c r="C149" s="101"/>
       <c r="D149" s="101"/>
@@ -4203,7 +4265,7 @@
       <c r="F149" s="105"/>
     </row>
     <row r="150" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A150" s="149"/>
+      <c r="A150" s="150"/>
       <c r="B150" s="100"/>
       <c r="C150" s="101"/>
       <c r="D150" s="101"/>
@@ -4214,7 +4276,7 @@
       <c r="F150" s="105"/>
     </row>
     <row r="151" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A151" s="149"/>
+      <c r="A151" s="150"/>
       <c r="B151" s="100"/>
       <c r="C151" s="101"/>
       <c r="D151" s="101"/>
@@ -4224,59 +4286,103 @@
       </c>
       <c r="F151" s="105"/>
     </row>
-    <row r="152" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickBot="1">
-      <c r="A152" s="149"/>
-      <c r="B152" s="98" t="s">
+    <row r="152" spans="1:7" ht="15" hidden="1" outlineLevel="2">
+      <c r="A152" s="150"/>
+      <c r="B152" s="100"/>
+      <c r="C152" s="101"/>
+      <c r="D152" s="101"/>
+      <c r="E152" s="123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F152" s="105"/>
+    </row>
+    <row r="153" spans="1:7" ht="15" hidden="1" outlineLevel="2">
+      <c r="A153" s="150"/>
+      <c r="B153" s="100"/>
+      <c r="C153" s="101"/>
+      <c r="D153" s="101"/>
+      <c r="E153" s="123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F153" s="105"/>
+    </row>
+    <row r="154" spans="1:7" ht="15" hidden="1" outlineLevel="2">
+      <c r="A154" s="150"/>
+      <c r="B154" s="100"/>
+      <c r="C154" s="101"/>
+      <c r="D154" s="101"/>
+      <c r="E154" s="123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F154" s="105"/>
+    </row>
+    <row r="155" spans="1:7" ht="15" hidden="1" outlineLevel="2">
+      <c r="A155" s="150"/>
+      <c r="B155" s="100"/>
+      <c r="C155" s="101"/>
+      <c r="D155" s="101"/>
+      <c r="E155" s="123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F155" s="105"/>
+    </row>
+    <row r="156" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickBot="1">
+      <c r="A156" s="150"/>
+      <c r="B156" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="C152" s="99"/>
-      <c r="D152" s="99"/>
-      <c r="E152" s="125">
+      <c r="C156" s="99"/>
+      <c r="D156" s="99"/>
+      <c r="E156" s="125">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F152" s="104"/>
-    </row>
-    <row r="153" spans="1:7" ht="16.5" collapsed="1" thickBot="1">
-      <c r="A153" s="116">
+      <c r="F156" s="104"/>
+    </row>
+    <row r="157" spans="1:7" ht="16.5" collapsed="1" thickBot="1">
+      <c r="A157" s="116">
         <v>8</v>
       </c>
-      <c r="B153" s="102" t="s">
+      <c r="B157" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="C153" s="103">
-        <f>C152-C139</f>
-        <v>0</v>
-      </c>
-      <c r="D153" s="103">
-        <f>D152-D139</f>
-        <v>0</v>
-      </c>
-      <c r="E153" s="103">
-        <f>E152-E139</f>
-        <v>0</v>
-      </c>
-      <c r="F153" s="107"/>
-      <c r="G153" s="112">
-        <f>E153</f>
+      <c r="C157" s="103">
+        <f>C156-C143</f>
+        <v>0</v>
+      </c>
+      <c r="D157" s="103">
+        <f>D156-D143</f>
+        <v>0</v>
+      </c>
+      <c r="E157" s="103">
+        <f>E156-E143</f>
+        <v>0</v>
+      </c>
+      <c r="F157" s="107"/>
+      <c r="G157" s="112">
+        <f>E157</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A138:A152"/>
-    <mergeCell ref="A104:A118"/>
-    <mergeCell ref="A70:A84"/>
-    <mergeCell ref="A121:A135"/>
-    <mergeCell ref="A87:A101"/>
-    <mergeCell ref="A36:A50"/>
-    <mergeCell ref="A53:A67"/>
+    <mergeCell ref="A40:A54"/>
+    <mergeCell ref="A57:A71"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="A19:A37"/>
+    <mergeCell ref="A142:A156"/>
+    <mergeCell ref="A108:A122"/>
+    <mergeCell ref="A74:A88"/>
+    <mergeCell ref="A125:A139"/>
+    <mergeCell ref="A91:A105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4308,13 +4414,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
       <c r="F1" s="7"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4344,18 +4450,18 @@
         <v>8</v>
       </c>
       <c r="B3" s="36"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
     </row>
     <row r="4" spans="1:8" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A4" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="87"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:8" hidden="1" outlineLevel="2">
@@ -4507,9 +4613,9 @@
         <v>9</v>
       </c>
       <c r="B21" s="90"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
     </row>
     <row r="22" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A22" s="47">
@@ -4660,9 +4766,9 @@
         <v>10</v>
       </c>
       <c r="B38" s="87"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="159"/>
+      <c r="E38" s="159"/>
     </row>
     <row r="39" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A39" s="47">
@@ -4813,9 +4919,9 @@
         <v>11</v>
       </c>
       <c r="B55" s="87"/>
-      <c r="C55" s="160"/>
-      <c r="D55" s="161"/>
-      <c r="E55" s="161"/>
+      <c r="C55" s="158"/>
+      <c r="D55" s="159"/>
+      <c r="E55" s="159"/>
     </row>
     <row r="56" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A56" s="47">
@@ -4966,9 +5072,9 @@
         <v>12</v>
       </c>
       <c r="B72" s="87"/>
-      <c r="C72" s="160"/>
-      <c r="D72" s="161"/>
-      <c r="E72" s="161"/>
+      <c r="C72" s="158"/>
+      <c r="D72" s="159"/>
+      <c r="E72" s="159"/>
     </row>
     <row r="73" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A73" s="47">
@@ -5119,9 +5225,9 @@
         <v>13</v>
       </c>
       <c r="B89" s="87"/>
-      <c r="C89" s="160"/>
-      <c r="D89" s="161"/>
-      <c r="E89" s="161"/>
+      <c r="C89" s="158"/>
+      <c r="D89" s="159"/>
+      <c r="E89" s="159"/>
     </row>
     <row r="90" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A90" s="47">
@@ -5272,9 +5378,9 @@
         <v>14</v>
       </c>
       <c r="B106" s="87"/>
-      <c r="C106" s="160"/>
-      <c r="D106" s="161"/>
-      <c r="E106" s="161"/>
+      <c r="C106" s="158"/>
+      <c r="D106" s="159"/>
+      <c r="E106" s="159"/>
     </row>
     <row r="107" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A107" s="47">
@@ -5425,9 +5531,9 @@
         <v>15</v>
       </c>
       <c r="B123" s="87"/>
-      <c r="C123" s="160"/>
-      <c r="D123" s="161"/>
-      <c r="E123" s="161"/>
+      <c r="C123" s="158"/>
+      <c r="D123" s="159"/>
+      <c r="E123" s="159"/>
     </row>
     <row r="124" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A124" s="47">
@@ -5578,9 +5684,9 @@
         <v>16</v>
       </c>
       <c r="B140" s="87"/>
-      <c r="C140" s="160"/>
-      <c r="D140" s="161"/>
-      <c r="E140" s="161"/>
+      <c r="C140" s="158"/>
+      <c r="D140" s="159"/>
+      <c r="E140" s="159"/>
     </row>
     <row r="141" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A141" s="47">
@@ -5731,9 +5837,9 @@
         <v>17</v>
       </c>
       <c r="B157" s="87"/>
-      <c r="C157" s="160"/>
-      <c r="D157" s="161"/>
-      <c r="E157" s="161"/>
+      <c r="C157" s="158"/>
+      <c r="D157" s="159"/>
+      <c r="E157" s="159"/>
     </row>
     <row r="158" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A158" s="47">
@@ -5884,9 +5990,9 @@
         <v>18</v>
       </c>
       <c r="B174" s="87"/>
-      <c r="C174" s="160"/>
-      <c r="D174" s="161"/>
-      <c r="E174" s="161"/>
+      <c r="C174" s="158"/>
+      <c r="D174" s="159"/>
+      <c r="E174" s="159"/>
     </row>
     <row r="175" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A175" s="47">
@@ -6037,9 +6143,9 @@
         <v>19</v>
       </c>
       <c r="B191" s="87"/>
-      <c r="C191" s="160"/>
-      <c r="D191" s="161"/>
-      <c r="E191" s="161"/>
+      <c r="C191" s="158"/>
+      <c r="D191" s="159"/>
+      <c r="E191" s="159"/>
     </row>
     <row r="192" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A192" s="47">
@@ -6190,9 +6296,9 @@
         <v>20</v>
       </c>
       <c r="B208" s="87"/>
-      <c r="C208" s="160"/>
-      <c r="D208" s="161"/>
-      <c r="E208" s="161"/>
+      <c r="C208" s="158"/>
+      <c r="D208" s="159"/>
+      <c r="E208" s="159"/>
     </row>
     <row r="209" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A209" s="47">
@@ -6343,9 +6449,9 @@
         <v>21</v>
       </c>
       <c r="B225" s="87"/>
-      <c r="C225" s="160"/>
-      <c r="D225" s="161"/>
-      <c r="E225" s="161"/>
+      <c r="C225" s="158"/>
+      <c r="D225" s="159"/>
+      <c r="E225" s="159"/>
     </row>
     <row r="226" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A226" s="47">
@@ -6496,9 +6602,9 @@
         <v>22</v>
       </c>
       <c r="B242" s="87"/>
-      <c r="C242" s="160"/>
-      <c r="D242" s="161"/>
-      <c r="E242" s="161"/>
+      <c r="C242" s="158"/>
+      <c r="D242" s="159"/>
+      <c r="E242" s="159"/>
     </row>
     <row r="243" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A243" s="47">
@@ -6649,9 +6755,9 @@
         <v>23</v>
       </c>
       <c r="B259" s="87"/>
-      <c r="C259" s="160"/>
-      <c r="D259" s="161"/>
-      <c r="E259" s="161"/>
+      <c r="C259" s="158"/>
+      <c r="D259" s="159"/>
+      <c r="E259" s="159"/>
     </row>
     <row r="260" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A260" s="47">
@@ -6802,18 +6908,18 @@
         <v>24</v>
       </c>
       <c r="B276" s="37"/>
-      <c r="C276" s="164"/>
-      <c r="D276" s="165"/>
-      <c r="E276" s="165"/>
+      <c r="C276" s="174"/>
+      <c r="D276" s="175"/>
+      <c r="E276" s="175"/>
     </row>
     <row r="277" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A277" s="51" t="s">
         <v>25</v>
       </c>
       <c r="B277" s="87"/>
-      <c r="C277" s="160"/>
-      <c r="D277" s="161"/>
-      <c r="E277" s="161"/>
+      <c r="C277" s="158"/>
+      <c r="D277" s="159"/>
+      <c r="E277" s="159"/>
     </row>
     <row r="278" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A278" s="52">
@@ -6964,9 +7070,9 @@
         <v>26</v>
       </c>
       <c r="B294" s="90"/>
-      <c r="C294" s="162"/>
-      <c r="D294" s="163"/>
-      <c r="E294" s="163"/>
+      <c r="C294" s="160"/>
+      <c r="D294" s="161"/>
+      <c r="E294" s="161"/>
     </row>
     <row r="295" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A295" s="52">
@@ -7117,9 +7223,9 @@
         <v>27</v>
       </c>
       <c r="B311" s="87"/>
-      <c r="C311" s="160"/>
-      <c r="D311" s="161"/>
-      <c r="E311" s="161"/>
+      <c r="C311" s="158"/>
+      <c r="D311" s="159"/>
+      <c r="E311" s="159"/>
     </row>
     <row r="312" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A312" s="52">
@@ -7270,9 +7376,9 @@
         <v>28</v>
       </c>
       <c r="B328" s="87"/>
-      <c r="C328" s="160"/>
-      <c r="D328" s="161"/>
-      <c r="E328" s="161"/>
+      <c r="C328" s="158"/>
+      <c r="D328" s="159"/>
+      <c r="E328" s="159"/>
     </row>
     <row r="329" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A329" s="52">
@@ -7423,9 +7529,9 @@
         <v>29</v>
       </c>
       <c r="B345" s="87"/>
-      <c r="C345" s="160"/>
-      <c r="D345" s="161"/>
-      <c r="E345" s="161"/>
+      <c r="C345" s="158"/>
+      <c r="D345" s="159"/>
+      <c r="E345" s="159"/>
     </row>
     <row r="346" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A346" s="52">
@@ -7576,9 +7682,9 @@
         <v>30</v>
       </c>
       <c r="B362" s="87"/>
-      <c r="C362" s="160"/>
-      <c r="D362" s="161"/>
-      <c r="E362" s="161"/>
+      <c r="C362" s="158"/>
+      <c r="D362" s="159"/>
+      <c r="E362" s="159"/>
     </row>
     <row r="363" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A363" s="52">
@@ -7729,9 +7835,9 @@
         <v>31</v>
       </c>
       <c r="B379" s="87"/>
-      <c r="C379" s="160"/>
-      <c r="D379" s="161"/>
-      <c r="E379" s="161"/>
+      <c r="C379" s="158"/>
+      <c r="D379" s="159"/>
+      <c r="E379" s="159"/>
     </row>
     <row r="380" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A380" s="52">
@@ -7882,9 +7988,9 @@
         <v>32</v>
       </c>
       <c r="B396" s="87"/>
-      <c r="C396" s="160"/>
-      <c r="D396" s="161"/>
-      <c r="E396" s="161"/>
+      <c r="C396" s="158"/>
+      <c r="D396" s="159"/>
+      <c r="E396" s="159"/>
     </row>
     <row r="397" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A397" s="52">
@@ -8035,9 +8141,9 @@
         <v>33</v>
       </c>
       <c r="B413" s="87"/>
-      <c r="C413" s="160"/>
-      <c r="D413" s="161"/>
-      <c r="E413" s="161"/>
+      <c r="C413" s="158"/>
+      <c r="D413" s="159"/>
+      <c r="E413" s="159"/>
     </row>
     <row r="414" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A414" s="52">
@@ -8188,9 +8294,9 @@
         <v>34</v>
       </c>
       <c r="B430" s="87"/>
-      <c r="C430" s="160"/>
-      <c r="D430" s="161"/>
-      <c r="E430" s="161"/>
+      <c r="C430" s="158"/>
+      <c r="D430" s="159"/>
+      <c r="E430" s="159"/>
     </row>
     <row r="431" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A431" s="52">
@@ -8341,9 +8447,9 @@
         <v>35</v>
       </c>
       <c r="B447" s="87"/>
-      <c r="C447" s="160"/>
-      <c r="D447" s="161"/>
-      <c r="E447" s="161"/>
+      <c r="C447" s="158"/>
+      <c r="D447" s="159"/>
+      <c r="E447" s="159"/>
     </row>
     <row r="448" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A448" s="52">
@@ -8494,9 +8600,9 @@
         <v>36</v>
       </c>
       <c r="B464" s="87"/>
-      <c r="C464" s="160"/>
-      <c r="D464" s="161"/>
-      <c r="E464" s="161"/>
+      <c r="C464" s="158"/>
+      <c r="D464" s="159"/>
+      <c r="E464" s="159"/>
     </row>
     <row r="465" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A465" s="52">
@@ -8647,9 +8753,9 @@
         <v>37</v>
       </c>
       <c r="B481" s="87"/>
-      <c r="C481" s="160"/>
-      <c r="D481" s="161"/>
-      <c r="E481" s="161"/>
+      <c r="C481" s="158"/>
+      <c r="D481" s="159"/>
+      <c r="E481" s="159"/>
     </row>
     <row r="482" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A482" s="52">
@@ -8800,9 +8906,9 @@
         <v>38</v>
       </c>
       <c r="B498" s="87"/>
-      <c r="C498" s="160"/>
-      <c r="D498" s="161"/>
-      <c r="E498" s="161"/>
+      <c r="C498" s="158"/>
+      <c r="D498" s="159"/>
+      <c r="E498" s="159"/>
     </row>
     <row r="499" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A499" s="52">
@@ -8953,9 +9059,9 @@
         <v>39</v>
       </c>
       <c r="B515" s="87"/>
-      <c r="C515" s="160"/>
-      <c r="D515" s="161"/>
-      <c r="E515" s="161"/>
+      <c r="C515" s="158"/>
+      <c r="D515" s="159"/>
+      <c r="E515" s="159"/>
     </row>
     <row r="516" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A516" s="52">
@@ -9106,9 +9212,9 @@
         <v>40</v>
       </c>
       <c r="B532" s="87"/>
-      <c r="C532" s="160"/>
-      <c r="D532" s="161"/>
-      <c r="E532" s="161"/>
+      <c r="C532" s="158"/>
+      <c r="D532" s="159"/>
+      <c r="E532" s="159"/>
     </row>
     <row r="533" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A533" s="55">
@@ -9259,18 +9365,18 @@
         <v>50</v>
       </c>
       <c r="B549" s="38"/>
-      <c r="C549" s="166"/>
-      <c r="D549" s="167"/>
-      <c r="E549" s="167"/>
+      <c r="C549" s="172"/>
+      <c r="D549" s="173"/>
+      <c r="E549" s="173"/>
     </row>
     <row r="550" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A550" s="58" t="s">
         <v>51</v>
       </c>
       <c r="B550" s="87"/>
-      <c r="C550" s="160"/>
-      <c r="D550" s="161"/>
-      <c r="E550" s="161"/>
+      <c r="C550" s="158"/>
+      <c r="D550" s="159"/>
+      <c r="E550" s="159"/>
     </row>
     <row r="551" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A551" s="59">
@@ -9421,9 +9527,9 @@
         <v>52</v>
       </c>
       <c r="B567" s="90"/>
-      <c r="C567" s="162"/>
-      <c r="D567" s="163"/>
-      <c r="E567" s="163"/>
+      <c r="C567" s="160"/>
+      <c r="D567" s="161"/>
+      <c r="E567" s="161"/>
     </row>
     <row r="568" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A568" s="59">
@@ -9574,9 +9680,9 @@
         <v>53</v>
       </c>
       <c r="B584" s="87"/>
-      <c r="C584" s="160"/>
-      <c r="D584" s="161"/>
-      <c r="E584" s="161"/>
+      <c r="C584" s="158"/>
+      <c r="D584" s="159"/>
+      <c r="E584" s="159"/>
     </row>
     <row r="585" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A585" s="59">
@@ -9727,9 +9833,9 @@
         <v>54</v>
       </c>
       <c r="B601" s="87"/>
-      <c r="C601" s="160"/>
-      <c r="D601" s="161"/>
-      <c r="E601" s="161"/>
+      <c r="C601" s="158"/>
+      <c r="D601" s="159"/>
+      <c r="E601" s="159"/>
     </row>
     <row r="602" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A602" s="59">
@@ -9880,9 +9986,9 @@
         <v>55</v>
       </c>
       <c r="B618" s="87"/>
-      <c r="C618" s="160"/>
-      <c r="D618" s="161"/>
-      <c r="E618" s="161"/>
+      <c r="C618" s="158"/>
+      <c r="D618" s="159"/>
+      <c r="E618" s="159"/>
     </row>
     <row r="619" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A619" s="59">
@@ -10033,9 +10139,9 @@
         <v>56</v>
       </c>
       <c r="B635" s="87"/>
-      <c r="C635" s="160"/>
-      <c r="D635" s="161"/>
-      <c r="E635" s="161"/>
+      <c r="C635" s="158"/>
+      <c r="D635" s="159"/>
+      <c r="E635" s="159"/>
     </row>
     <row r="636" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A636" s="59">
@@ -10186,9 +10292,9 @@
         <v>57</v>
       </c>
       <c r="B652" s="87"/>
-      <c r="C652" s="160"/>
-      <c r="D652" s="161"/>
-      <c r="E652" s="161"/>
+      <c r="C652" s="158"/>
+      <c r="D652" s="159"/>
+      <c r="E652" s="159"/>
     </row>
     <row r="653" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A653" s="59">
@@ -10339,9 +10445,9 @@
         <v>58</v>
       </c>
       <c r="B669" s="87"/>
-      <c r="C669" s="160"/>
-      <c r="D669" s="161"/>
-      <c r="E669" s="161"/>
+      <c r="C669" s="158"/>
+      <c r="D669" s="159"/>
+      <c r="E669" s="159"/>
     </row>
     <row r="670" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A670" s="59">
@@ -10492,9 +10598,9 @@
         <v>59</v>
       </c>
       <c r="B686" s="87"/>
-      <c r="C686" s="160"/>
-      <c r="D686" s="161"/>
-      <c r="E686" s="161"/>
+      <c r="C686" s="158"/>
+      <c r="D686" s="159"/>
+      <c r="E686" s="159"/>
     </row>
     <row r="687" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A687" s="59">
@@ -10645,9 +10751,9 @@
         <v>60</v>
       </c>
       <c r="B703" s="87"/>
-      <c r="C703" s="160"/>
-      <c r="D703" s="161"/>
-      <c r="E703" s="161"/>
+      <c r="C703" s="158"/>
+      <c r="D703" s="159"/>
+      <c r="E703" s="159"/>
     </row>
     <row r="704" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A704" s="59">
@@ -10798,9 +10904,9 @@
         <v>61</v>
       </c>
       <c r="B720" s="87"/>
-      <c r="C720" s="160"/>
-      <c r="D720" s="161"/>
-      <c r="E720" s="161"/>
+      <c r="C720" s="158"/>
+      <c r="D720" s="159"/>
+      <c r="E720" s="159"/>
     </row>
     <row r="721" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A721" s="59">
@@ -10951,9 +11057,9 @@
         <v>62</v>
       </c>
       <c r="B737" s="87"/>
-      <c r="C737" s="160"/>
-      <c r="D737" s="161"/>
-      <c r="E737" s="161"/>
+      <c r="C737" s="158"/>
+      <c r="D737" s="159"/>
+      <c r="E737" s="159"/>
     </row>
     <row r="738" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A738" s="59">
@@ -11104,9 +11210,9 @@
         <v>63</v>
       </c>
       <c r="B754" s="87"/>
-      <c r="C754" s="160"/>
-      <c r="D754" s="161"/>
-      <c r="E754" s="161"/>
+      <c r="C754" s="158"/>
+      <c r="D754" s="159"/>
+      <c r="E754" s="159"/>
     </row>
     <row r="755" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A755" s="59">
@@ -11257,9 +11363,9 @@
         <v>64</v>
       </c>
       <c r="B771" s="87"/>
-      <c r="C771" s="160"/>
-      <c r="D771" s="161"/>
-      <c r="E771" s="161"/>
+      <c r="C771" s="158"/>
+      <c r="D771" s="159"/>
+      <c r="E771" s="159"/>
     </row>
     <row r="772" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A772" s="59">
@@ -11410,9 +11516,9 @@
         <v>65</v>
       </c>
       <c r="B788" s="87"/>
-      <c r="C788" s="160"/>
-      <c r="D788" s="161"/>
-      <c r="E788" s="161"/>
+      <c r="C788" s="158"/>
+      <c r="D788" s="159"/>
+      <c r="E788" s="159"/>
     </row>
     <row r="789" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A789" s="59">
@@ -11563,9 +11669,9 @@
         <v>66</v>
       </c>
       <c r="B805" s="87"/>
-      <c r="C805" s="160"/>
-      <c r="D805" s="161"/>
-      <c r="E805" s="161"/>
+      <c r="C805" s="158"/>
+      <c r="D805" s="159"/>
+      <c r="E805" s="159"/>
     </row>
     <row r="806" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A806" s="59">
@@ -11716,18 +11822,18 @@
         <v>67</v>
       </c>
       <c r="B822" s="39"/>
-      <c r="C822" s="168"/>
-      <c r="D822" s="169"/>
-      <c r="E822" s="169"/>
+      <c r="C822" s="170"/>
+      <c r="D822" s="171"/>
+      <c r="E822" s="171"/>
     </row>
     <row r="823" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A823" s="63" t="s">
         <v>68</v>
       </c>
       <c r="B823" s="87"/>
-      <c r="C823" s="160"/>
-      <c r="D823" s="161"/>
-      <c r="E823" s="161"/>
+      <c r="C823" s="158"/>
+      <c r="D823" s="159"/>
+      <c r="E823" s="159"/>
     </row>
     <row r="824" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A824" s="64">
@@ -11878,9 +11984,9 @@
         <v>69</v>
       </c>
       <c r="B840" s="90"/>
-      <c r="C840" s="162"/>
-      <c r="D840" s="163"/>
-      <c r="E840" s="163"/>
+      <c r="C840" s="160"/>
+      <c r="D840" s="161"/>
+      <c r="E840" s="161"/>
     </row>
     <row r="841" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A841" s="64">
@@ -12031,9 +12137,9 @@
         <v>70</v>
       </c>
       <c r="B857" s="87"/>
-      <c r="C857" s="160"/>
-      <c r="D857" s="161"/>
-      <c r="E857" s="161"/>
+      <c r="C857" s="158"/>
+      <c r="D857" s="159"/>
+      <c r="E857" s="159"/>
     </row>
     <row r="858" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A858" s="64">
@@ -12184,9 +12290,9 @@
         <v>71</v>
       </c>
       <c r="B874" s="87"/>
-      <c r="C874" s="160"/>
-      <c r="D874" s="161"/>
-      <c r="E874" s="161"/>
+      <c r="C874" s="158"/>
+      <c r="D874" s="159"/>
+      <c r="E874" s="159"/>
     </row>
     <row r="875" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A875" s="64">
@@ -12337,9 +12443,9 @@
         <v>72</v>
       </c>
       <c r="B891" s="87"/>
-      <c r="C891" s="160"/>
-      <c r="D891" s="161"/>
-      <c r="E891" s="161"/>
+      <c r="C891" s="158"/>
+      <c r="D891" s="159"/>
+      <c r="E891" s="159"/>
     </row>
     <row r="892" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A892" s="64">
@@ -12490,9 +12596,9 @@
         <v>73</v>
       </c>
       <c r="B908" s="87"/>
-      <c r="C908" s="160"/>
-      <c r="D908" s="161"/>
-      <c r="E908" s="161"/>
+      <c r="C908" s="158"/>
+      <c r="D908" s="159"/>
+      <c r="E908" s="159"/>
     </row>
     <row r="909" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A909" s="64">
@@ -12643,9 +12749,9 @@
         <v>74</v>
       </c>
       <c r="B925" s="87"/>
-      <c r="C925" s="160"/>
-      <c r="D925" s="161"/>
-      <c r="E925" s="161"/>
+      <c r="C925" s="158"/>
+      <c r="D925" s="159"/>
+      <c r="E925" s="159"/>
     </row>
     <row r="926" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A926" s="64">
@@ -12796,9 +12902,9 @@
         <v>75</v>
       </c>
       <c r="B942" s="87"/>
-      <c r="C942" s="160"/>
-      <c r="D942" s="161"/>
-      <c r="E942" s="161"/>
+      <c r="C942" s="158"/>
+      <c r="D942" s="159"/>
+      <c r="E942" s="159"/>
     </row>
     <row r="943" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A943" s="64">
@@ -12949,9 +13055,9 @@
         <v>76</v>
       </c>
       <c r="B959" s="87"/>
-      <c r="C959" s="160"/>
-      <c r="D959" s="161"/>
-      <c r="E959" s="161"/>
+      <c r="C959" s="158"/>
+      <c r="D959" s="159"/>
+      <c r="E959" s="159"/>
     </row>
     <row r="960" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A960" s="64">
@@ -13102,9 +13208,9 @@
         <v>77</v>
       </c>
       <c r="B976" s="87"/>
-      <c r="C976" s="160"/>
-      <c r="D976" s="161"/>
-      <c r="E976" s="161"/>
+      <c r="C976" s="158"/>
+      <c r="D976" s="159"/>
+      <c r="E976" s="159"/>
     </row>
     <row r="977" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A977" s="64">
@@ -13255,9 +13361,9 @@
         <v>78</v>
       </c>
       <c r="B993" s="87"/>
-      <c r="C993" s="160"/>
-      <c r="D993" s="161"/>
-      <c r="E993" s="161"/>
+      <c r="C993" s="158"/>
+      <c r="D993" s="159"/>
+      <c r="E993" s="159"/>
     </row>
     <row r="994" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A994" s="64">
@@ -13408,9 +13514,9 @@
         <v>79</v>
       </c>
       <c r="B1010" s="87"/>
-      <c r="C1010" s="160"/>
-      <c r="D1010" s="161"/>
-      <c r="E1010" s="161"/>
+      <c r="C1010" s="158"/>
+      <c r="D1010" s="159"/>
+      <c r="E1010" s="159"/>
     </row>
     <row r="1011" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1011" s="64">
@@ -13561,9 +13667,9 @@
         <v>80</v>
       </c>
       <c r="B1027" s="87"/>
-      <c r="C1027" s="160"/>
-      <c r="D1027" s="161"/>
-      <c r="E1027" s="161"/>
+      <c r="C1027" s="158"/>
+      <c r="D1027" s="159"/>
+      <c r="E1027" s="159"/>
     </row>
     <row r="1028" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1028" s="64">
@@ -13714,9 +13820,9 @@
         <v>83</v>
       </c>
       <c r="B1044" s="87"/>
-      <c r="C1044" s="160"/>
-      <c r="D1044" s="161"/>
-      <c r="E1044" s="161"/>
+      <c r="C1044" s="158"/>
+      <c r="D1044" s="159"/>
+      <c r="E1044" s="159"/>
     </row>
     <row r="1045" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1045" s="64">
@@ -13867,9 +13973,9 @@
         <v>82</v>
       </c>
       <c r="B1061" s="87"/>
-      <c r="C1061" s="160"/>
-      <c r="D1061" s="161"/>
-      <c r="E1061" s="161"/>
+      <c r="C1061" s="158"/>
+      <c r="D1061" s="159"/>
+      <c r="E1061" s="159"/>
     </row>
     <row r="1062" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1062" s="64">
@@ -14020,9 +14126,9 @@
         <v>84</v>
       </c>
       <c r="B1078" s="87"/>
-      <c r="C1078" s="160"/>
-      <c r="D1078" s="161"/>
-      <c r="E1078" s="161"/>
+      <c r="C1078" s="158"/>
+      <c r="D1078" s="159"/>
+      <c r="E1078" s="159"/>
     </row>
     <row r="1079" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1079" s="64">
@@ -14173,18 +14279,18 @@
         <v>104</v>
       </c>
       <c r="B1095" s="40"/>
-      <c r="C1095" s="170"/>
-      <c r="D1095" s="171"/>
-      <c r="E1095" s="171"/>
+      <c r="C1095" s="168"/>
+      <c r="D1095" s="169"/>
+      <c r="E1095" s="169"/>
     </row>
     <row r="1096" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1096" s="68" t="s">
         <v>85</v>
       </c>
       <c r="B1096" s="87"/>
-      <c r="C1096" s="160"/>
-      <c r="D1096" s="161"/>
-      <c r="E1096" s="161"/>
+      <c r="C1096" s="158"/>
+      <c r="D1096" s="159"/>
+      <c r="E1096" s="159"/>
     </row>
     <row r="1097" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1097" s="69">
@@ -14335,9 +14441,9 @@
         <v>86</v>
       </c>
       <c r="B1113" s="90"/>
-      <c r="C1113" s="162"/>
-      <c r="D1113" s="163"/>
-      <c r="E1113" s="163"/>
+      <c r="C1113" s="160"/>
+      <c r="D1113" s="161"/>
+      <c r="E1113" s="161"/>
     </row>
     <row r="1114" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1114" s="69">
@@ -14488,9 +14594,9 @@
         <v>87</v>
       </c>
       <c r="B1130" s="87"/>
-      <c r="C1130" s="160"/>
-      <c r="D1130" s="161"/>
-      <c r="E1130" s="161"/>
+      <c r="C1130" s="158"/>
+      <c r="D1130" s="159"/>
+      <c r="E1130" s="159"/>
     </row>
     <row r="1131" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1131" s="69">
@@ -14641,9 +14747,9 @@
         <v>88</v>
       </c>
       <c r="B1147" s="87"/>
-      <c r="C1147" s="160"/>
-      <c r="D1147" s="161"/>
-      <c r="E1147" s="161"/>
+      <c r="C1147" s="158"/>
+      <c r="D1147" s="159"/>
+      <c r="E1147" s="159"/>
     </row>
     <row r="1148" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1148" s="69">
@@ -14794,9 +14900,9 @@
         <v>89</v>
       </c>
       <c r="B1164" s="87"/>
-      <c r="C1164" s="160"/>
-      <c r="D1164" s="161"/>
-      <c r="E1164" s="161"/>
+      <c r="C1164" s="158"/>
+      <c r="D1164" s="159"/>
+      <c r="E1164" s="159"/>
     </row>
     <row r="1165" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1165" s="69">
@@ -14947,9 +15053,9 @@
         <v>90</v>
       </c>
       <c r="B1181" s="87"/>
-      <c r="C1181" s="160"/>
-      <c r="D1181" s="161"/>
-      <c r="E1181" s="161"/>
+      <c r="C1181" s="158"/>
+      <c r="D1181" s="159"/>
+      <c r="E1181" s="159"/>
     </row>
     <row r="1182" spans="1:5" hidden="1" outlineLevel="3">
       <c r="A1182" s="69">
@@ -15100,9 +15206,9 @@
         <v>91</v>
       </c>
       <c r="B1198" s="87"/>
-      <c r="C1198" s="160"/>
-      <c r="D1198" s="161"/>
-      <c r="E1198" s="161"/>
+      <c r="C1198" s="158"/>
+      <c r="D1198" s="159"/>
+      <c r="E1198" s="159"/>
     </row>
     <row r="1199" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1199" s="69">
@@ -15253,9 +15359,9 @@
         <v>92</v>
       </c>
       <c r="B1215" s="87"/>
-      <c r="C1215" s="160"/>
-      <c r="D1215" s="161"/>
-      <c r="E1215" s="161"/>
+      <c r="C1215" s="158"/>
+      <c r="D1215" s="159"/>
+      <c r="E1215" s="159"/>
     </row>
     <row r="1216" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1216" s="69">
@@ -15406,9 +15512,9 @@
         <v>93</v>
       </c>
       <c r="B1232" s="87"/>
-      <c r="C1232" s="160"/>
-      <c r="D1232" s="161"/>
-      <c r="E1232" s="161"/>
+      <c r="C1232" s="158"/>
+      <c r="D1232" s="159"/>
+      <c r="E1232" s="159"/>
     </row>
     <row r="1233" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1233" s="69">
@@ -15559,9 +15665,9 @@
         <v>94</v>
       </c>
       <c r="B1249" s="87"/>
-      <c r="C1249" s="160"/>
-      <c r="D1249" s="161"/>
-      <c r="E1249" s="161"/>
+      <c r="C1249" s="158"/>
+      <c r="D1249" s="159"/>
+      <c r="E1249" s="159"/>
     </row>
     <row r="1250" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1250" s="69">
@@ -15712,9 +15818,9 @@
         <v>99</v>
       </c>
       <c r="B1266" s="87"/>
-      <c r="C1266" s="160"/>
-      <c r="D1266" s="161"/>
-      <c r="E1266" s="161"/>
+      <c r="C1266" s="158"/>
+      <c r="D1266" s="159"/>
+      <c r="E1266" s="159"/>
     </row>
     <row r="1267" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1267" s="69">
@@ -15865,9 +15971,9 @@
         <v>100</v>
       </c>
       <c r="B1283" s="87"/>
-      <c r="C1283" s="160"/>
-      <c r="D1283" s="161"/>
-      <c r="E1283" s="161"/>
+      <c r="C1283" s="158"/>
+      <c r="D1283" s="159"/>
+      <c r="E1283" s="159"/>
     </row>
     <row r="1284" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1284" s="69">
@@ -16018,9 +16124,9 @@
         <v>101</v>
       </c>
       <c r="B1300" s="87"/>
-      <c r="C1300" s="160"/>
-      <c r="D1300" s="161"/>
-      <c r="E1300" s="161"/>
+      <c r="C1300" s="158"/>
+      <c r="D1300" s="159"/>
+      <c r="E1300" s="159"/>
     </row>
     <row r="1301" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1301" s="69">
@@ -16171,9 +16277,9 @@
         <v>81</v>
       </c>
       <c r="B1317" s="87"/>
-      <c r="C1317" s="160"/>
-      <c r="D1317" s="161"/>
-      <c r="E1317" s="161"/>
+      <c r="C1317" s="158"/>
+      <c r="D1317" s="159"/>
+      <c r="E1317" s="159"/>
     </row>
     <row r="1318" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1318" s="69">
@@ -16324,9 +16430,9 @@
         <v>102</v>
       </c>
       <c r="B1334" s="87"/>
-      <c r="C1334" s="160"/>
-      <c r="D1334" s="161"/>
-      <c r="E1334" s="161"/>
+      <c r="C1334" s="158"/>
+      <c r="D1334" s="159"/>
+      <c r="E1334" s="159"/>
     </row>
     <row r="1335" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1335" s="69">
@@ -16477,9 +16583,9 @@
         <v>98</v>
       </c>
       <c r="B1351" s="87"/>
-      <c r="C1351" s="160"/>
-      <c r="D1351" s="161"/>
-      <c r="E1351" s="161"/>
+      <c r="C1351" s="158"/>
+      <c r="D1351" s="159"/>
+      <c r="E1351" s="159"/>
     </row>
     <row r="1352" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1352" s="69">
@@ -16630,18 +16736,18 @@
         <v>103</v>
       </c>
       <c r="B1368" s="41"/>
-      <c r="C1368" s="172"/>
-      <c r="D1368" s="173"/>
-      <c r="E1368" s="173"/>
+      <c r="C1368" s="166"/>
+      <c r="D1368" s="167"/>
+      <c r="E1368" s="167"/>
     </row>
     <row r="1369" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1369" s="73" t="s">
         <v>105</v>
       </c>
       <c r="B1369" s="87"/>
-      <c r="C1369" s="160"/>
-      <c r="D1369" s="161"/>
-      <c r="E1369" s="161"/>
+      <c r="C1369" s="158"/>
+      <c r="D1369" s="159"/>
+      <c r="E1369" s="159"/>
     </row>
     <row r="1370" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1370" s="74">
@@ -16792,9 +16898,9 @@
         <v>106</v>
       </c>
       <c r="B1386" s="90"/>
-      <c r="C1386" s="162"/>
-      <c r="D1386" s="163"/>
-      <c r="E1386" s="163"/>
+      <c r="C1386" s="160"/>
+      <c r="D1386" s="161"/>
+      <c r="E1386" s="161"/>
     </row>
     <row r="1387" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1387" s="74">
@@ -16945,9 +17051,9 @@
         <v>107</v>
       </c>
       <c r="B1403" s="87"/>
-      <c r="C1403" s="160"/>
-      <c r="D1403" s="161"/>
-      <c r="E1403" s="161"/>
+      <c r="C1403" s="158"/>
+      <c r="D1403" s="159"/>
+      <c r="E1403" s="159"/>
     </row>
     <row r="1404" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1404" s="74">
@@ -17098,9 +17204,9 @@
         <v>108</v>
       </c>
       <c r="B1420" s="87"/>
-      <c r="C1420" s="160"/>
-      <c r="D1420" s="161"/>
-      <c r="E1420" s="161"/>
+      <c r="C1420" s="158"/>
+      <c r="D1420" s="159"/>
+      <c r="E1420" s="159"/>
     </row>
     <row r="1421" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1421" s="74">
@@ -17251,9 +17357,9 @@
         <v>109</v>
       </c>
       <c r="B1437" s="87"/>
-      <c r="C1437" s="160"/>
-      <c r="D1437" s="161"/>
-      <c r="E1437" s="161"/>
+      <c r="C1437" s="158"/>
+      <c r="D1437" s="159"/>
+      <c r="E1437" s="159"/>
     </row>
     <row r="1438" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1438" s="74">
@@ -17404,9 +17510,9 @@
         <v>110</v>
       </c>
       <c r="B1454" s="87"/>
-      <c r="C1454" s="160"/>
-      <c r="D1454" s="161"/>
-      <c r="E1454" s="161"/>
+      <c r="C1454" s="158"/>
+      <c r="D1454" s="159"/>
+      <c r="E1454" s="159"/>
     </row>
     <row r="1455" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1455" s="74">
@@ -17557,9 +17663,9 @@
         <v>111</v>
       </c>
       <c r="B1471" s="87"/>
-      <c r="C1471" s="160"/>
-      <c r="D1471" s="161"/>
-      <c r="E1471" s="161"/>
+      <c r="C1471" s="158"/>
+      <c r="D1471" s="159"/>
+      <c r="E1471" s="159"/>
     </row>
     <row r="1472" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1472" s="74">
@@ -17710,9 +17816,9 @@
         <v>112</v>
       </c>
       <c r="B1488" s="87"/>
-      <c r="C1488" s="160"/>
-      <c r="D1488" s="161"/>
-      <c r="E1488" s="161"/>
+      <c r="C1488" s="158"/>
+      <c r="D1488" s="159"/>
+      <c r="E1488" s="159"/>
     </row>
     <row r="1489" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1489" s="74">
@@ -17863,9 +17969,9 @@
         <v>113</v>
       </c>
       <c r="B1505" s="87"/>
-      <c r="C1505" s="160"/>
-      <c r="D1505" s="161"/>
-      <c r="E1505" s="161"/>
+      <c r="C1505" s="158"/>
+      <c r="D1505" s="159"/>
+      <c r="E1505" s="159"/>
     </row>
     <row r="1506" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1506" s="74">
@@ -18016,9 +18122,9 @@
         <v>114</v>
       </c>
       <c r="B1522" s="87"/>
-      <c r="C1522" s="160"/>
-      <c r="D1522" s="161"/>
-      <c r="E1522" s="161"/>
+      <c r="C1522" s="158"/>
+      <c r="D1522" s="159"/>
+      <c r="E1522" s="159"/>
     </row>
     <row r="1523" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1523" s="74">
@@ -18169,9 +18275,9 @@
         <v>95</v>
       </c>
       <c r="B1539" s="87"/>
-      <c r="C1539" s="160"/>
-      <c r="D1539" s="161"/>
-      <c r="E1539" s="161"/>
+      <c r="C1539" s="158"/>
+      <c r="D1539" s="159"/>
+      <c r="E1539" s="159"/>
     </row>
     <row r="1540" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1540" s="74">
@@ -18322,9 +18428,9 @@
         <v>115</v>
       </c>
       <c r="B1556" s="87"/>
-      <c r="C1556" s="160"/>
-      <c r="D1556" s="161"/>
-      <c r="E1556" s="161"/>
+      <c r="C1556" s="158"/>
+      <c r="D1556" s="159"/>
+      <c r="E1556" s="159"/>
     </row>
     <row r="1557" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1557" s="74">
@@ -18475,9 +18581,9 @@
         <v>116</v>
       </c>
       <c r="B1573" s="87"/>
-      <c r="C1573" s="160"/>
-      <c r="D1573" s="161"/>
-      <c r="E1573" s="161"/>
+      <c r="C1573" s="158"/>
+      <c r="D1573" s="159"/>
+      <c r="E1573" s="159"/>
     </row>
     <row r="1574" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1574" s="74">
@@ -18628,9 +18734,9 @@
         <v>117</v>
       </c>
       <c r="B1590" s="87"/>
-      <c r="C1590" s="160"/>
-      <c r="D1590" s="161"/>
-      <c r="E1590" s="161"/>
+      <c r="C1590" s="158"/>
+      <c r="D1590" s="159"/>
+      <c r="E1590" s="159"/>
     </row>
     <row r="1591" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1591" s="74">
@@ -18781,9 +18887,9 @@
         <v>118</v>
       </c>
       <c r="B1607" s="87"/>
-      <c r="C1607" s="160"/>
-      <c r="D1607" s="161"/>
-      <c r="E1607" s="161"/>
+      <c r="C1607" s="158"/>
+      <c r="D1607" s="159"/>
+      <c r="E1607" s="159"/>
     </row>
     <row r="1608" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1608" s="74">
@@ -18934,9 +19040,9 @@
         <v>119</v>
       </c>
       <c r="B1624" s="87"/>
-      <c r="C1624" s="160"/>
-      <c r="D1624" s="161"/>
-      <c r="E1624" s="161"/>
+      <c r="C1624" s="158"/>
+      <c r="D1624" s="159"/>
+      <c r="E1624" s="159"/>
     </row>
     <row r="1625" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1625" s="74">
@@ -19087,18 +19193,18 @@
         <v>120</v>
       </c>
       <c r="B1641" s="42"/>
-      <c r="C1641" s="174"/>
-      <c r="D1641" s="175"/>
-      <c r="E1641" s="175"/>
+      <c r="C1641" s="164"/>
+      <c r="D1641" s="165"/>
+      <c r="E1641" s="165"/>
     </row>
     <row r="1642" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1642" s="78" t="s">
         <v>121</v>
       </c>
       <c r="B1642" s="87"/>
-      <c r="C1642" s="160"/>
-      <c r="D1642" s="161"/>
-      <c r="E1642" s="161"/>
+      <c r="C1642" s="158"/>
+      <c r="D1642" s="159"/>
+      <c r="E1642" s="159"/>
     </row>
     <row r="1643" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1643" s="79">
@@ -19249,9 +19355,9 @@
         <v>122</v>
       </c>
       <c r="B1659" s="90"/>
-      <c r="C1659" s="162"/>
-      <c r="D1659" s="163"/>
-      <c r="E1659" s="163"/>
+      <c r="C1659" s="160"/>
+      <c r="D1659" s="161"/>
+      <c r="E1659" s="161"/>
     </row>
     <row r="1660" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1660" s="79">
@@ -19402,9 +19508,9 @@
         <v>123</v>
       </c>
       <c r="B1676" s="87"/>
-      <c r="C1676" s="160"/>
-      <c r="D1676" s="161"/>
-      <c r="E1676" s="161"/>
+      <c r="C1676" s="158"/>
+      <c r="D1676" s="159"/>
+      <c r="E1676" s="159"/>
     </row>
     <row r="1677" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1677" s="79">
@@ -19555,9 +19661,9 @@
         <v>124</v>
       </c>
       <c r="B1693" s="87"/>
-      <c r="C1693" s="160"/>
-      <c r="D1693" s="161"/>
-      <c r="E1693" s="161"/>
+      <c r="C1693" s="158"/>
+      <c r="D1693" s="159"/>
+      <c r="E1693" s="159"/>
     </row>
     <row r="1694" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1694" s="79">
@@ -19708,9 +19814,9 @@
         <v>125</v>
       </c>
       <c r="B1710" s="87"/>
-      <c r="C1710" s="160"/>
-      <c r="D1710" s="161"/>
-      <c r="E1710" s="161"/>
+      <c r="C1710" s="158"/>
+      <c r="D1710" s="159"/>
+      <c r="E1710" s="159"/>
     </row>
     <row r="1711" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1711" s="79">
@@ -19861,9 +19967,9 @@
         <v>126</v>
       </c>
       <c r="B1727" s="87"/>
-      <c r="C1727" s="160"/>
-      <c r="D1727" s="161"/>
-      <c r="E1727" s="161"/>
+      <c r="C1727" s="158"/>
+      <c r="D1727" s="159"/>
+      <c r="E1727" s="159"/>
     </row>
     <row r="1728" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1728" s="79">
@@ -20014,9 +20120,9 @@
         <v>127</v>
       </c>
       <c r="B1744" s="87"/>
-      <c r="C1744" s="160"/>
-      <c r="D1744" s="161"/>
-      <c r="E1744" s="161"/>
+      <c r="C1744" s="158"/>
+      <c r="D1744" s="159"/>
+      <c r="E1744" s="159"/>
     </row>
     <row r="1745" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1745" s="79">
@@ -20167,9 +20273,9 @@
         <v>128</v>
       </c>
       <c r="B1761" s="87"/>
-      <c r="C1761" s="160"/>
-      <c r="D1761" s="161"/>
-      <c r="E1761" s="161"/>
+      <c r="C1761" s="158"/>
+      <c r="D1761" s="159"/>
+      <c r="E1761" s="159"/>
     </row>
     <row r="1762" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1762" s="79">
@@ -20320,9 +20426,9 @@
         <v>129</v>
       </c>
       <c r="B1778" s="87"/>
-      <c r="C1778" s="160"/>
-      <c r="D1778" s="161"/>
-      <c r="E1778" s="161"/>
+      <c r="C1778" s="158"/>
+      <c r="D1778" s="159"/>
+      <c r="E1778" s="159"/>
     </row>
     <row r="1779" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1779" s="79">
@@ -20473,9 +20579,9 @@
         <v>130</v>
       </c>
       <c r="B1795" s="87"/>
-      <c r="C1795" s="160"/>
-      <c r="D1795" s="161"/>
-      <c r="E1795" s="161"/>
+      <c r="C1795" s="158"/>
+      <c r="D1795" s="159"/>
+      <c r="E1795" s="159"/>
     </row>
     <row r="1796" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1796" s="79">
@@ -20626,9 +20732,9 @@
         <v>131</v>
       </c>
       <c r="B1812" s="87"/>
-      <c r="C1812" s="160"/>
-      <c r="D1812" s="161"/>
-      <c r="E1812" s="161"/>
+      <c r="C1812" s="158"/>
+      <c r="D1812" s="159"/>
+      <c r="E1812" s="159"/>
     </row>
     <row r="1813" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1813" s="79">
@@ -20779,9 +20885,9 @@
         <v>96</v>
       </c>
       <c r="B1829" s="87"/>
-      <c r="C1829" s="160"/>
-      <c r="D1829" s="161"/>
-      <c r="E1829" s="161"/>
+      <c r="C1829" s="158"/>
+      <c r="D1829" s="159"/>
+      <c r="E1829" s="159"/>
     </row>
     <row r="1830" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1830" s="79">
@@ -20932,9 +21038,9 @@
         <v>132</v>
       </c>
       <c r="B1846" s="87"/>
-      <c r="C1846" s="160"/>
-      <c r="D1846" s="161"/>
-      <c r="E1846" s="161"/>
+      <c r="C1846" s="158"/>
+      <c r="D1846" s="159"/>
+      <c r="E1846" s="159"/>
     </row>
     <row r="1847" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1847" s="79">
@@ -21085,9 +21191,9 @@
         <v>133</v>
       </c>
       <c r="B1863" s="87"/>
-      <c r="C1863" s="160"/>
-      <c r="D1863" s="161"/>
-      <c r="E1863" s="161"/>
+      <c r="C1863" s="158"/>
+      <c r="D1863" s="159"/>
+      <c r="E1863" s="159"/>
     </row>
     <row r="1864" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1864" s="79">
@@ -21238,9 +21344,9 @@
         <v>134</v>
       </c>
       <c r="B1880" s="87"/>
-      <c r="C1880" s="160"/>
-      <c r="D1880" s="161"/>
-      <c r="E1880" s="161"/>
+      <c r="C1880" s="158"/>
+      <c r="D1880" s="159"/>
+      <c r="E1880" s="159"/>
     </row>
     <row r="1881" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1881" s="79">
@@ -21391,9 +21497,9 @@
         <v>135</v>
       </c>
       <c r="B1897" s="87"/>
-      <c r="C1897" s="160"/>
-      <c r="D1897" s="161"/>
-      <c r="E1897" s="161"/>
+      <c r="C1897" s="158"/>
+      <c r="D1897" s="159"/>
+      <c r="E1897" s="159"/>
     </row>
     <row r="1898" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1898" s="79">
@@ -21544,18 +21650,18 @@
         <v>136</v>
       </c>
       <c r="B1914" s="43"/>
-      <c r="C1914" s="176"/>
-      <c r="D1914" s="177"/>
-      <c r="E1914" s="177"/>
+      <c r="C1914" s="162"/>
+      <c r="D1914" s="163"/>
+      <c r="E1914" s="163"/>
     </row>
     <row r="1915" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1915" s="83" t="s">
         <v>137</v>
       </c>
       <c r="B1915" s="87"/>
-      <c r="C1915" s="160"/>
-      <c r="D1915" s="161"/>
-      <c r="E1915" s="161"/>
+      <c r="C1915" s="158"/>
+      <c r="D1915" s="159"/>
+      <c r="E1915" s="159"/>
     </row>
     <row r="1916" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1916" s="84">
@@ -21706,9 +21812,9 @@
         <v>138</v>
       </c>
       <c r="B1932" s="90"/>
-      <c r="C1932" s="162"/>
-      <c r="D1932" s="163"/>
-      <c r="E1932" s="163"/>
+      <c r="C1932" s="160"/>
+      <c r="D1932" s="161"/>
+      <c r="E1932" s="161"/>
     </row>
     <row r="1933" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1933" s="84">
@@ -21859,9 +21965,9 @@
         <v>139</v>
       </c>
       <c r="B1949" s="87"/>
-      <c r="C1949" s="160"/>
-      <c r="D1949" s="161"/>
-      <c r="E1949" s="161"/>
+      <c r="C1949" s="158"/>
+      <c r="D1949" s="159"/>
+      <c r="E1949" s="159"/>
     </row>
     <row r="1950" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1950" s="84">
@@ -22012,9 +22118,9 @@
         <v>140</v>
       </c>
       <c r="B1966" s="87"/>
-      <c r="C1966" s="160"/>
-      <c r="D1966" s="161"/>
-      <c r="E1966" s="161"/>
+      <c r="C1966" s="158"/>
+      <c r="D1966" s="159"/>
+      <c r="E1966" s="159"/>
     </row>
     <row r="1967" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1967" s="84">
@@ -22165,9 +22271,9 @@
         <v>141</v>
       </c>
       <c r="B1983" s="87"/>
-      <c r="C1983" s="160"/>
-      <c r="D1983" s="161"/>
-      <c r="E1983" s="161"/>
+      <c r="C1983" s="158"/>
+      <c r="D1983" s="159"/>
+      <c r="E1983" s="159"/>
     </row>
     <row r="1984" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1984" s="84">
@@ -22318,9 +22424,9 @@
         <v>142</v>
       </c>
       <c r="B2000" s="87"/>
-      <c r="C2000" s="160"/>
-      <c r="D2000" s="161"/>
-      <c r="E2000" s="161"/>
+      <c r="C2000" s="158"/>
+      <c r="D2000" s="159"/>
+      <c r="E2000" s="159"/>
     </row>
     <row r="2001" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2001" s="84">
@@ -22471,9 +22577,9 @@
         <v>143</v>
       </c>
       <c r="B2017" s="87"/>
-      <c r="C2017" s="160"/>
-      <c r="D2017" s="161"/>
-      <c r="E2017" s="161"/>
+      <c r="C2017" s="158"/>
+      <c r="D2017" s="159"/>
+      <c r="E2017" s="159"/>
     </row>
     <row r="2018" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2018" s="84">
@@ -22624,9 +22730,9 @@
         <v>144</v>
       </c>
       <c r="B2034" s="87"/>
-      <c r="C2034" s="160"/>
-      <c r="D2034" s="161"/>
-      <c r="E2034" s="161"/>
+      <c r="C2034" s="158"/>
+      <c r="D2034" s="159"/>
+      <c r="E2034" s="159"/>
     </row>
     <row r="2035" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2035" s="84">
@@ -22777,9 +22883,9 @@
         <v>145</v>
       </c>
       <c r="B2051" s="87"/>
-      <c r="C2051" s="160"/>
-      <c r="D2051" s="161"/>
-      <c r="E2051" s="161"/>
+      <c r="C2051" s="158"/>
+      <c r="D2051" s="159"/>
+      <c r="E2051" s="159"/>
     </row>
     <row r="2052" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2052" s="84">
@@ -22930,9 +23036,9 @@
         <v>146</v>
       </c>
       <c r="B2068" s="87"/>
-      <c r="C2068" s="160"/>
-      <c r="D2068" s="161"/>
-      <c r="E2068" s="161"/>
+      <c r="C2068" s="158"/>
+      <c r="D2068" s="159"/>
+      <c r="E2068" s="159"/>
     </row>
     <row r="2069" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2069" s="84">
@@ -23083,9 +23189,9 @@
         <v>147</v>
       </c>
       <c r="B2085" s="87"/>
-      <c r="C2085" s="160"/>
-      <c r="D2085" s="161"/>
-      <c r="E2085" s="161"/>
+      <c r="C2085" s="158"/>
+      <c r="D2085" s="159"/>
+      <c r="E2085" s="159"/>
     </row>
     <row r="2086" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2086" s="84">
@@ -23236,9 +23342,9 @@
         <v>148</v>
       </c>
       <c r="B2102" s="87"/>
-      <c r="C2102" s="160"/>
-      <c r="D2102" s="161"/>
-      <c r="E2102" s="161"/>
+      <c r="C2102" s="158"/>
+      <c r="D2102" s="159"/>
+      <c r="E2102" s="159"/>
     </row>
     <row r="2103" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2103" s="84">
@@ -23389,9 +23495,9 @@
         <v>97</v>
       </c>
       <c r="B2119" s="87"/>
-      <c r="C2119" s="160"/>
-      <c r="D2119" s="161"/>
-      <c r="E2119" s="161"/>
+      <c r="C2119" s="158"/>
+      <c r="D2119" s="159"/>
+      <c r="E2119" s="159"/>
     </row>
     <row r="2120" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2120" s="84">
@@ -23542,9 +23648,9 @@
         <v>149</v>
       </c>
       <c r="B2136" s="87"/>
-      <c r="C2136" s="160"/>
-      <c r="D2136" s="161"/>
-      <c r="E2136" s="161"/>
+      <c r="C2136" s="158"/>
+      <c r="D2136" s="159"/>
+      <c r="E2136" s="159"/>
     </row>
     <row r="2137" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2137" s="84">
@@ -23695,9 +23801,9 @@
         <v>150</v>
       </c>
       <c r="B2153" s="87"/>
-      <c r="C2153" s="160"/>
-      <c r="D2153" s="161"/>
-      <c r="E2153" s="161"/>
+      <c r="C2153" s="158"/>
+      <c r="D2153" s="159"/>
+      <c r="E2153" s="159"/>
     </row>
     <row r="2154" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2154" s="84">
@@ -23848,9 +23954,9 @@
         <v>151</v>
       </c>
       <c r="B2170" s="87"/>
-      <c r="C2170" s="160"/>
-      <c r="D2170" s="161"/>
-      <c r="E2170" s="161"/>
+      <c r="C2170" s="158"/>
+      <c r="D2170" s="159"/>
+      <c r="E2170" s="159"/>
     </row>
     <row r="2171" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2171" s="84">
@@ -23998,15 +24104,122 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="C2034:E2034"/>
-    <mergeCell ref="C2051:E2051"/>
-    <mergeCell ref="C2068:E2068"/>
-    <mergeCell ref="C2085:E2085"/>
-    <mergeCell ref="C2170:E2170"/>
-    <mergeCell ref="C2102:E2102"/>
-    <mergeCell ref="C2119:E2119"/>
-    <mergeCell ref="C2136:E2136"/>
-    <mergeCell ref="C2153:E2153"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="C242:E242"/>
+    <mergeCell ref="C259:E259"/>
+    <mergeCell ref="C276:E276"/>
+    <mergeCell ref="C277:E277"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="C396:E396"/>
+    <mergeCell ref="C413:E413"/>
+    <mergeCell ref="C430:E430"/>
+    <mergeCell ref="C447:E447"/>
+    <mergeCell ref="C464:E464"/>
+    <mergeCell ref="C481:E481"/>
+    <mergeCell ref="C294:E294"/>
+    <mergeCell ref="C311:E311"/>
+    <mergeCell ref="C328:E328"/>
+    <mergeCell ref="C345:E345"/>
+    <mergeCell ref="C362:E362"/>
+    <mergeCell ref="C379:E379"/>
+    <mergeCell ref="C584:E584"/>
+    <mergeCell ref="C601:E601"/>
+    <mergeCell ref="C618:E618"/>
+    <mergeCell ref="C635:E635"/>
+    <mergeCell ref="C652:E652"/>
+    <mergeCell ref="C669:E669"/>
+    <mergeCell ref="C498:E498"/>
+    <mergeCell ref="C515:E515"/>
+    <mergeCell ref="C532:E532"/>
+    <mergeCell ref="C549:E549"/>
+    <mergeCell ref="C550:E550"/>
+    <mergeCell ref="C567:E567"/>
+    <mergeCell ref="C788:E788"/>
+    <mergeCell ref="C805:E805"/>
+    <mergeCell ref="C822:E822"/>
+    <mergeCell ref="C823:E823"/>
+    <mergeCell ref="C840:E840"/>
+    <mergeCell ref="C857:E857"/>
+    <mergeCell ref="C686:E686"/>
+    <mergeCell ref="C703:E703"/>
+    <mergeCell ref="C720:E720"/>
+    <mergeCell ref="C737:E737"/>
+    <mergeCell ref="C754:E754"/>
+    <mergeCell ref="C771:E771"/>
+    <mergeCell ref="C976:E976"/>
+    <mergeCell ref="C993:E993"/>
+    <mergeCell ref="C1010:E1010"/>
+    <mergeCell ref="C1027:E1027"/>
+    <mergeCell ref="C1044:E1044"/>
+    <mergeCell ref="C1061:E1061"/>
+    <mergeCell ref="C874:E874"/>
+    <mergeCell ref="C891:E891"/>
+    <mergeCell ref="C908:E908"/>
+    <mergeCell ref="C925:E925"/>
+    <mergeCell ref="C942:E942"/>
+    <mergeCell ref="C959:E959"/>
+    <mergeCell ref="C1164:E1164"/>
+    <mergeCell ref="C1181:E1181"/>
+    <mergeCell ref="C1198:E1198"/>
+    <mergeCell ref="C1215:E1215"/>
+    <mergeCell ref="C1232:E1232"/>
+    <mergeCell ref="C1249:E1249"/>
+    <mergeCell ref="C1078:E1078"/>
+    <mergeCell ref="C1095:E1095"/>
+    <mergeCell ref="C1096:E1096"/>
+    <mergeCell ref="C1113:E1113"/>
+    <mergeCell ref="C1130:E1130"/>
+    <mergeCell ref="C1147:E1147"/>
+    <mergeCell ref="C1368:E1368"/>
+    <mergeCell ref="C1369:E1369"/>
+    <mergeCell ref="C1386:E1386"/>
+    <mergeCell ref="C1403:E1403"/>
+    <mergeCell ref="C1420:E1420"/>
+    <mergeCell ref="C1437:E1437"/>
+    <mergeCell ref="C1266:E1266"/>
+    <mergeCell ref="C1283:E1283"/>
+    <mergeCell ref="C1300:E1300"/>
+    <mergeCell ref="C1317:E1317"/>
+    <mergeCell ref="C1334:E1334"/>
+    <mergeCell ref="C1351:E1351"/>
+    <mergeCell ref="C1556:E1556"/>
+    <mergeCell ref="C1573:E1573"/>
+    <mergeCell ref="C1590:E1590"/>
+    <mergeCell ref="C1607:E1607"/>
+    <mergeCell ref="C1624:E1624"/>
+    <mergeCell ref="C1641:E1641"/>
+    <mergeCell ref="C1454:E1454"/>
+    <mergeCell ref="C1471:E1471"/>
+    <mergeCell ref="C1488:E1488"/>
+    <mergeCell ref="C1505:E1505"/>
+    <mergeCell ref="C1522:E1522"/>
+    <mergeCell ref="C1539:E1539"/>
+    <mergeCell ref="C1744:E1744"/>
+    <mergeCell ref="C1761:E1761"/>
+    <mergeCell ref="C1778:E1778"/>
+    <mergeCell ref="C1795:E1795"/>
+    <mergeCell ref="C1812:E1812"/>
+    <mergeCell ref="C1829:E1829"/>
+    <mergeCell ref="C1642:E1642"/>
+    <mergeCell ref="C1659:E1659"/>
+    <mergeCell ref="C1676:E1676"/>
+    <mergeCell ref="C1693:E1693"/>
+    <mergeCell ref="C1710:E1710"/>
+    <mergeCell ref="C1727:E1727"/>
     <mergeCell ref="C1932:E1932"/>
     <mergeCell ref="C1949:E1949"/>
     <mergeCell ref="C1966:E1966"/>
@@ -24019,124 +24232,17 @@
     <mergeCell ref="C1897:E1897"/>
     <mergeCell ref="C1914:E1914"/>
     <mergeCell ref="C1915:E1915"/>
-    <mergeCell ref="C1744:E1744"/>
-    <mergeCell ref="C1761:E1761"/>
-    <mergeCell ref="C1778:E1778"/>
-    <mergeCell ref="C1795:E1795"/>
-    <mergeCell ref="C1812:E1812"/>
-    <mergeCell ref="C1829:E1829"/>
-    <mergeCell ref="C1642:E1642"/>
-    <mergeCell ref="C1659:E1659"/>
-    <mergeCell ref="C1676:E1676"/>
-    <mergeCell ref="C1693:E1693"/>
-    <mergeCell ref="C1710:E1710"/>
-    <mergeCell ref="C1727:E1727"/>
-    <mergeCell ref="C1556:E1556"/>
-    <mergeCell ref="C1573:E1573"/>
-    <mergeCell ref="C1590:E1590"/>
-    <mergeCell ref="C1607:E1607"/>
-    <mergeCell ref="C1624:E1624"/>
-    <mergeCell ref="C1641:E1641"/>
-    <mergeCell ref="C1454:E1454"/>
-    <mergeCell ref="C1471:E1471"/>
-    <mergeCell ref="C1488:E1488"/>
-    <mergeCell ref="C1505:E1505"/>
-    <mergeCell ref="C1522:E1522"/>
-    <mergeCell ref="C1539:E1539"/>
-    <mergeCell ref="C1368:E1368"/>
-    <mergeCell ref="C1369:E1369"/>
-    <mergeCell ref="C1386:E1386"/>
-    <mergeCell ref="C1403:E1403"/>
-    <mergeCell ref="C1420:E1420"/>
-    <mergeCell ref="C1437:E1437"/>
-    <mergeCell ref="C1266:E1266"/>
-    <mergeCell ref="C1283:E1283"/>
-    <mergeCell ref="C1300:E1300"/>
-    <mergeCell ref="C1317:E1317"/>
-    <mergeCell ref="C1334:E1334"/>
-    <mergeCell ref="C1351:E1351"/>
-    <mergeCell ref="C1164:E1164"/>
-    <mergeCell ref="C1181:E1181"/>
-    <mergeCell ref="C1198:E1198"/>
-    <mergeCell ref="C1215:E1215"/>
-    <mergeCell ref="C1232:E1232"/>
-    <mergeCell ref="C1249:E1249"/>
-    <mergeCell ref="C1078:E1078"/>
-    <mergeCell ref="C1095:E1095"/>
-    <mergeCell ref="C1096:E1096"/>
-    <mergeCell ref="C1113:E1113"/>
-    <mergeCell ref="C1130:E1130"/>
-    <mergeCell ref="C1147:E1147"/>
-    <mergeCell ref="C976:E976"/>
-    <mergeCell ref="C993:E993"/>
-    <mergeCell ref="C1010:E1010"/>
-    <mergeCell ref="C1027:E1027"/>
-    <mergeCell ref="C1044:E1044"/>
-    <mergeCell ref="C1061:E1061"/>
-    <mergeCell ref="C874:E874"/>
-    <mergeCell ref="C891:E891"/>
-    <mergeCell ref="C908:E908"/>
-    <mergeCell ref="C925:E925"/>
-    <mergeCell ref="C942:E942"/>
-    <mergeCell ref="C959:E959"/>
-    <mergeCell ref="C788:E788"/>
-    <mergeCell ref="C805:E805"/>
-    <mergeCell ref="C822:E822"/>
-    <mergeCell ref="C823:E823"/>
-    <mergeCell ref="C840:E840"/>
-    <mergeCell ref="C857:E857"/>
-    <mergeCell ref="C686:E686"/>
-    <mergeCell ref="C703:E703"/>
-    <mergeCell ref="C720:E720"/>
-    <mergeCell ref="C737:E737"/>
-    <mergeCell ref="C754:E754"/>
-    <mergeCell ref="C771:E771"/>
-    <mergeCell ref="C584:E584"/>
-    <mergeCell ref="C601:E601"/>
-    <mergeCell ref="C618:E618"/>
-    <mergeCell ref="C635:E635"/>
-    <mergeCell ref="C652:E652"/>
-    <mergeCell ref="C669:E669"/>
-    <mergeCell ref="C498:E498"/>
-    <mergeCell ref="C515:E515"/>
-    <mergeCell ref="C532:E532"/>
-    <mergeCell ref="C549:E549"/>
-    <mergeCell ref="C550:E550"/>
-    <mergeCell ref="C567:E567"/>
-    <mergeCell ref="C396:E396"/>
-    <mergeCell ref="C413:E413"/>
-    <mergeCell ref="C430:E430"/>
-    <mergeCell ref="C447:E447"/>
-    <mergeCell ref="C464:E464"/>
-    <mergeCell ref="C481:E481"/>
-    <mergeCell ref="C294:E294"/>
-    <mergeCell ref="C311:E311"/>
-    <mergeCell ref="C328:E328"/>
-    <mergeCell ref="C345:E345"/>
-    <mergeCell ref="C362:E362"/>
-    <mergeCell ref="C379:E379"/>
-    <mergeCell ref="C225:E225"/>
-    <mergeCell ref="C242:E242"/>
-    <mergeCell ref="C259:E259"/>
-    <mergeCell ref="C276:E276"/>
-    <mergeCell ref="C277:E277"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="C174:E174"/>
-    <mergeCell ref="C191:E191"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C2034:E2034"/>
+    <mergeCell ref="C2051:E2051"/>
+    <mergeCell ref="C2068:E2068"/>
+    <mergeCell ref="C2085:E2085"/>
+    <mergeCell ref="C2170:E2170"/>
+    <mergeCell ref="C2102:E2102"/>
+    <mergeCell ref="C2119:E2119"/>
+    <mergeCell ref="C2136:E2136"/>
+    <mergeCell ref="C2153:E2153"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -24161,51 +24267,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" thickBot="1">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" thickBot="1">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="182" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="183"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="184"/>
     </row>
     <row r="3" spans="1:12" s="31" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="179" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="180"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="181"/>
     </row>
     <row r="4" spans="1:12" s="27" customFormat="1">
       <c r="A4" s="28" t="s">
@@ -24422,19 +24528,19 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="178" t="s">
+      <c r="A20" s="179" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="180"/>
+      <c r="B20" s="180"/>
+      <c r="C20" s="180"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="180"/>
+      <c r="K20" s="181"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="28" t="s">
@@ -24651,19 +24757,19 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A37" s="178" t="s">
+      <c r="A37" s="179" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="179"/>
-      <c r="C37" s="179"/>
-      <c r="D37" s="179"/>
-      <c r="E37" s="179"/>
-      <c r="F37" s="179"/>
-      <c r="G37" s="179"/>
-      <c r="H37" s="179"/>
-      <c r="I37" s="179"/>
-      <c r="J37" s="179"/>
-      <c r="K37" s="180"/>
+      <c r="B37" s="180"/>
+      <c r="C37" s="180"/>
+      <c r="D37" s="180"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="180"/>
+      <c r="G37" s="180"/>
+      <c r="H37" s="180"/>
+      <c r="I37" s="180"/>
+      <c r="J37" s="180"/>
+      <c r="K37" s="181"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="28" t="s">
@@ -24887,7 +24993,7 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A20:K20"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -24921,28 +25027,28 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="185"/>
+      <c r="A3" s="186"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="186"/>
+      <c r="A4" s="187"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="186"/>
+      <c r="A5" s="187"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="186"/>
+      <c r="A6" s="187"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="186"/>
+      <c r="A7" s="187"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="186"/>
+      <c r="A8" s="187"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="186"/>
+      <c r="A9" s="187"/>
     </row>
     <row r="10" spans="1:1" ht="13.5" thickBot="1">
-      <c r="A10" s="187"/>
+      <c r="A10" s="188"/>
     </row>
     <row r="11" spans="1:1" ht="27" customHeight="1">
       <c r="A11" s="22" t="s">
@@ -25098,7 +25204,7 @@
   <mergeCells count="1">
     <mergeCell ref="A3:A10"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -25125,10 +25231,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="189" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="189"/>
+      <c r="C1" s="190"/>
       <c r="D1" s="92"/>
       <c r="E1" s="32"/>
     </row>
@@ -25139,7 +25245,7 @@
       <c r="E2" s="119"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="191" t="s">
         <v>210</v>
       </c>
       <c r="B3" s="131" t="s">
@@ -25153,7 +25259,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="191"/>
+      <c r="A4" s="192"/>
       <c r="B4" s="128" t="s">
         <v>159</v>
       </c>
@@ -25165,7 +25271,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="191"/>
+      <c r="A5" s="192"/>
       <c r="B5" s="128" t="s">
         <v>160</v>
       </c>
@@ -25174,7 +25280,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="191"/>
+      <c r="A6" s="192"/>
       <c r="B6" s="139" t="s">
         <v>212</v>
       </c>
@@ -25186,7 +25292,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="191"/>
+      <c r="A7" s="192"/>
       <c r="B7" s="128" t="s">
         <v>178</v>
       </c>
@@ -25198,7 +25304,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="191"/>
+      <c r="A8" s="192"/>
       <c r="B8" s="128" t="s">
         <v>179</v>
       </c>
@@ -25207,7 +25313,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A9" s="192"/>
+      <c r="A9" s="193"/>
       <c r="B9" s="136" t="s">
         <v>161</v>
       </c>
@@ -25222,7 +25328,7 @@
       <c r="E10" s="94"/>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A11" s="190" t="s">
+      <c r="A11" s="191" t="s">
         <v>211</v>
       </c>
       <c r="B11" s="131" t="s">
@@ -25236,7 +25342,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="191"/>
+      <c r="A12" s="192"/>
       <c r="B12" s="128" t="s">
         <v>159</v>
       </c>
@@ -25248,7 +25354,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="191"/>
+      <c r="A13" s="192"/>
       <c r="B13" s="128" t="s">
         <v>160</v>
       </c>
@@ -25257,7 +25363,7 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="191"/>
+      <c r="A14" s="192"/>
       <c r="B14" s="139" t="s">
         <v>212</v>
       </c>
@@ -25269,7 +25375,7 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="191"/>
+      <c r="A15" s="192"/>
       <c r="B15" s="128" t="s">
         <v>178</v>
       </c>
@@ -25281,7 +25387,7 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="191"/>
+      <c r="A16" s="192"/>
       <c r="B16" s="128" t="s">
         <v>179</v>
       </c>
@@ -25290,7 +25396,7 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A17" s="192"/>
+      <c r="A17" s="193"/>
       <c r="B17" s="136" t="s">
         <v>161</v>
       </c>
@@ -25305,7 +25411,7 @@
       <c r="E18" s="94"/>
     </row>
     <row r="19" spans="1:5" collapsed="1">
-      <c r="A19" s="190" t="s">
+      <c r="A19" s="191" t="s">
         <v>211</v>
       </c>
       <c r="B19" s="131" t="s">
@@ -25314,7 +25420,7 @@
       <c r="C19" s="130"/>
     </row>
     <row r="20" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A20" s="191"/>
+      <c r="A20" s="192"/>
       <c r="B20" s="128" t="s">
         <v>159</v>
       </c>
@@ -25324,14 +25430,14 @@
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A21" s="191"/>
+      <c r="A21" s="192"/>
       <c r="B21" s="128" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="133"/>
     </row>
     <row r="22" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A22" s="191"/>
+      <c r="A22" s="192"/>
       <c r="B22" s="139" t="s">
         <v>212</v>
       </c>
@@ -25341,7 +25447,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A23" s="191"/>
+      <c r="A23" s="192"/>
       <c r="B23" s="128" t="s">
         <v>178</v>
       </c>
@@ -25351,14 +25457,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A24" s="191"/>
+      <c r="A24" s="192"/>
       <c r="B24" s="128" t="s">
         <v>179</v>
       </c>
       <c r="C24" s="132"/>
     </row>
     <row r="25" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A25" s="192"/>
+      <c r="A25" s="193"/>
       <c r="B25" s="136" t="s">
         <v>161</v>
       </c>
@@ -25371,7 +25477,7 @@
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="A19:A25"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -25402,17 +25508,17 @@
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="200" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="210"/>
+      <c r="B2" s="201"/>
       <c r="C2" s="120"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="202" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="210"/>
+      <c r="B3" s="201"/>
       <c r="C3" s="120"/>
     </row>
     <row r="4" spans="1:5">
@@ -25428,115 +25534,128 @@
       <c r="C5" s="120"/>
     </row>
     <row r="7" spans="1:5" ht="18.75">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="211" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="198"/>
+      <c r="B7" s="212"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="120"/>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="39" customHeight="1">
-      <c r="A9" s="199" t="s">
+      <c r="A9" s="209" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="200"/>
+      <c r="B9" s="210"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="201"/>
-      <c r="B10" s="202"/>
+      <c r="A10" s="196"/>
+      <c r="B10" s="197"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="193" t="s">
+      <c r="A11" s="198" t="s">
         <v>196</v>
       </c>
-      <c r="B11" s="194"/>
+      <c r="B11" s="199"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="193" t="s">
+      <c r="A12" s="198" t="s">
         <v>197</v>
       </c>
-      <c r="B12" s="194"/>
+      <c r="B12" s="199"/>
     </row>
     <row r="13" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A13" s="193" t="s">
+      <c r="A13" s="198" t="s">
         <v>198</v>
       </c>
-      <c r="B13" s="194"/>
+      <c r="B13" s="199"/>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A14" s="193" t="s">
+      <c r="A14" s="198" t="s">
         <v>199</v>
       </c>
-      <c r="B14" s="194"/>
+      <c r="B14" s="199"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
-      <c r="A15" s="193" t="s">
+      <c r="A15" s="198" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="194"/>
+      <c r="B15" s="199"/>
     </row>
     <row r="16" spans="1:5" ht="21" customHeight="1">
-      <c r="A16" s="193" t="s">
+      <c r="A16" s="198" t="s">
         <v>201</v>
       </c>
-      <c r="B16" s="194"/>
+      <c r="B16" s="199"/>
     </row>
     <row r="17" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A17" s="195" t="s">
+      <c r="A17" s="194" t="s">
         <v>203</v>
       </c>
-      <c r="B17" s="196"/>
+      <c r="B17" s="195"/>
     </row>
     <row r="19" spans="1:2" ht="18.75">
-      <c r="A19" s="197" t="s">
+      <c r="A19" s="211" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="198"/>
+      <c r="B19" s="212"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="120"/>
       <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="199" t="s">
+      <c r="A21" s="209" t="s">
         <v>206</v>
       </c>
-      <c r="B21" s="200"/>
+      <c r="B21" s="210"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="201"/>
-      <c r="B22" s="202"/>
+      <c r="A22" s="196"/>
+      <c r="B22" s="197"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="193" t="s">
+      <c r="A23" s="198" t="s">
         <v>207</v>
       </c>
-      <c r="B23" s="194"/>
+      <c r="B23" s="199"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="193"/>
-      <c r="B24" s="194"/>
+      <c r="A24" s="198"/>
+      <c r="B24" s="199"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="193" t="s">
+      <c r="A25" s="198" t="s">
         <v>208</v>
       </c>
-      <c r="B25" s="194"/>
+      <c r="B25" s="199"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="193" t="s">
+      <c r="A26" s="198" t="s">
         <v>209</v>
       </c>
-      <c r="B26" s="194"/>
+      <c r="B26" s="199"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="195"/>
-      <c r="B27" s="196"/>
+      <c r="A27" s="194"/>
+      <c r="B27" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -25547,19 +25666,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/trunk/MMVGB/MMV.xlsx
+++ b/trunk/MMVGB/MMV.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="223">
   <si>
     <t>Notes</t>
   </si>
@@ -720,6 +720,15 @@
   <si>
     <t>Upscroll</t>
   </si>
+  <si>
+    <t>Begin slide</t>
+  </si>
+  <si>
+    <t>Down ladder</t>
+  </si>
+  <si>
+    <t>Downladder</t>
+  </si>
 </sst>
 </file>
 
@@ -729,10 +738,17 @@
     <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="47">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1651,34 +1667,34 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1686,208 +1702,208 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="17" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="18" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="19" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="17" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="18" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="19" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1897,10 +1913,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1921,141 +1937,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="33" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -2363,11 +2382,11 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K157"/>
+  <dimension ref="A1:K161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="2"/>
@@ -2383,19 +2402,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="156" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="155" t="s">
+      <c r="B1" s="155"/>
+      <c r="C1" s="157" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="156"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="158"/>
       <c r="G1" s="140"/>
       <c r="H1" s="141">
-        <f>SUM(G1:G65539)</f>
+        <f>SUM(G1:G65543)</f>
         <v>0</v>
       </c>
       <c r="I1" s="141" t="s">
@@ -2470,10 +2489,10 @@
       <c r="B5" s="147" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="154" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="152"/>
+      <c r="D5" s="154"/>
       <c r="E5" s="147"/>
       <c r="F5" s="143"/>
       <c r="G5" s="140"/>
@@ -2489,10 +2508,10 @@
       <c r="B6" s="147" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="154" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="153"/>
+      <c r="D6" s="155"/>
       <c r="E6" s="147"/>
       <c r="F6" s="143"/>
       <c r="G6" s="140"/>
@@ -2510,7 +2529,7 @@
       <c r="F7" s="93"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="159" t="s">
         <v>188</v>
       </c>
       <c r="B8" s="95" t="s">
@@ -2530,7 +2549,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A9" s="150"/>
+      <c r="A9" s="152"/>
       <c r="B9" s="98" t="s">
         <v>184</v>
       </c>
@@ -2540,7 +2559,7 @@
       <c r="F9" s="104"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" outlineLevel="1" thickTop="1">
-      <c r="A10" s="150"/>
+      <c r="A10" s="152"/>
       <c r="B10" s="100"/>
       <c r="C10" s="101"/>
       <c r="D10" s="101"/>
@@ -2551,7 +2570,7 @@
       <c r="F10" s="105"/>
     </row>
     <row r="11" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A11" s="150"/>
+      <c r="A11" s="152"/>
       <c r="B11" s="100"/>
       <c r="C11" s="101"/>
       <c r="D11" s="101"/>
@@ -2562,7 +2581,7 @@
       <c r="F11" s="105"/>
     </row>
     <row r="12" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A12" s="150"/>
+      <c r="A12" s="152"/>
       <c r="B12" s="100"/>
       <c r="C12" s="101"/>
       <c r="D12" s="101"/>
@@ -2573,7 +2592,7 @@
       <c r="F12" s="105"/>
     </row>
     <row r="13" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A13" s="150"/>
+      <c r="A13" s="152"/>
       <c r="B13" s="100"/>
       <c r="C13" s="101"/>
       <c r="D13" s="101"/>
@@ -2584,7 +2603,7 @@
       <c r="F13" s="105"/>
     </row>
     <row r="14" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A14" s="150"/>
+      <c r="A14" s="152"/>
       <c r="B14" s="100"/>
       <c r="C14" s="101"/>
       <c r="D14" s="101"/>
@@ -2595,7 +2614,7 @@
       <c r="F14" s="105"/>
     </row>
     <row r="15" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A15" s="150"/>
+      <c r="A15" s="152"/>
       <c r="B15" s="100"/>
       <c r="C15" s="101"/>
       <c r="D15" s="101"/>
@@ -2606,7 +2625,7 @@
       <c r="F15" s="105"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A16" s="150"/>
+      <c r="A16" s="152"/>
       <c r="B16" s="98" t="s">
         <v>187</v>
       </c>
@@ -2649,7 +2668,7 @@
     </row>
     <row r="18" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="19" spans="1:7" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A19" s="151" t="s">
+      <c r="A19" s="153" t="s">
         <v>168</v>
       </c>
       <c r="B19" s="109" t="s">
@@ -2669,20 +2688,20 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A20" s="150"/>
+      <c r="A20" s="152"/>
       <c r="B20" s="98" t="s">
         <v>184</v>
       </c>
       <c r="C20" s="99"/>
       <c r="D20" s="99"/>
       <c r="E20" s="123">
-        <f t="shared" ref="E20:E37" si="1">IF(AND(C20&gt;0,D20&gt;0), D20-C20, 0)</f>
+        <f t="shared" ref="E20:E41" si="1">IF(AND(C20&gt;0,D20&gt;0), D20-C20, 0)</f>
         <v>0</v>
       </c>
       <c r="F20" s="104"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" outlineLevel="1" thickTop="1">
-      <c r="A21" s="150"/>
+      <c r="A21" s="152"/>
       <c r="B21" s="100"/>
       <c r="C21" s="101"/>
       <c r="D21" s="101"/>
@@ -2693,7 +2712,7 @@
       <c r="F21" s="105"/>
     </row>
     <row r="22" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A22" s="150"/>
+      <c r="A22" s="152"/>
       <c r="B22" s="148" t="s">
         <v>213</v>
       </c>
@@ -2710,8 +2729,8 @@
       <c r="F22" s="105"/>
     </row>
     <row r="23" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A23" s="150"/>
-      <c r="B23" s="213" t="s">
+      <c r="A23" s="152"/>
+      <c r="B23" s="149" t="s">
         <v>217</v>
       </c>
       <c r="C23" s="101">
@@ -2727,11 +2746,11 @@
       <c r="F23" s="105"/>
     </row>
     <row r="24" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A24" s="150"/>
-      <c r="B24" s="213" t="s">
+      <c r="A24" s="152"/>
+      <c r="B24" s="149" t="s">
         <v>218</v>
       </c>
-      <c r="C24" s="214">
+      <c r="C24" s="150">
         <v>3897</v>
       </c>
       <c r="D24" s="101">
@@ -2744,8 +2763,8 @@
       <c r="F24" s="105"/>
     </row>
     <row r="25" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A25" s="150"/>
-      <c r="B25" s="213" t="s">
+      <c r="A25" s="152"/>
+      <c r="B25" s="149" t="s">
         <v>218</v>
       </c>
       <c r="C25" s="101">
@@ -2761,8 +2780,8 @@
       <c r="F25" s="105"/>
     </row>
     <row r="26" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A26" s="150"/>
-      <c r="B26" s="213" t="s">
+      <c r="A26" s="152"/>
+      <c r="B26" s="149" t="s">
         <v>218</v>
       </c>
       <c r="C26" s="101">
@@ -2778,8 +2797,8 @@
       <c r="F26" s="105"/>
     </row>
     <row r="27" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A27" s="150"/>
-      <c r="B27" s="213" t="s">
+      <c r="A27" s="152"/>
+      <c r="B27" s="149" t="s">
         <v>218</v>
       </c>
       <c r="C27" s="101">
@@ -2795,8 +2814,8 @@
       <c r="F27" s="105"/>
     </row>
     <row r="28" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A28" s="150"/>
-      <c r="B28" s="213" t="s">
+      <c r="A28" s="152"/>
+      <c r="B28" s="149" t="s">
         <v>219</v>
       </c>
       <c r="C28" s="101">
@@ -2812,8 +2831,8 @@
       <c r="F28" s="105"/>
     </row>
     <row r="29" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A29" s="150"/>
-      <c r="B29" s="213" t="s">
+      <c r="A29" s="152"/>
+      <c r="B29" s="149" t="s">
         <v>219</v>
       </c>
       <c r="C29" s="101">
@@ -2829,8 +2848,8 @@
       <c r="F29" s="105"/>
     </row>
     <row r="30" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A30" s="150"/>
-      <c r="B30" s="213" t="s">
+      <c r="A30" s="152"/>
+      <c r="B30" s="149" t="s">
         <v>219</v>
       </c>
       <c r="C30" s="101">
@@ -2846,8 +2865,8 @@
       <c r="F30" s="105"/>
     </row>
     <row r="31" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A31" s="150"/>
-      <c r="B31" s="213" t="s">
+      <c r="A31" s="152"/>
+      <c r="B31" s="149" t="s">
         <v>219</v>
       </c>
       <c r="C31" s="101">
@@ -2863,177 +2882,224 @@
       <c r="F31" s="105"/>
     </row>
     <row r="32" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A32" s="150"/>
-      <c r="B32" s="213"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="123"/>
+      <c r="A32" s="152"/>
+      <c r="B32" s="215" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32" s="101">
+        <v>24222</v>
+      </c>
+      <c r="D32" s="101">
+        <v>24973</v>
+      </c>
+      <c r="E32" s="123">
+        <f t="shared" si="1"/>
+        <v>751</v>
+      </c>
       <c r="F32" s="105"/>
     </row>
     <row r="33" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A33" s="150"/>
-      <c r="B33" s="213"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="123"/>
+      <c r="A33" s="152"/>
+      <c r="B33" s="215" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" s="101">
+        <v>24324</v>
+      </c>
+      <c r="D33" s="101">
+        <v>25075</v>
+      </c>
+      <c r="E33" s="123">
+        <f t="shared" si="1"/>
+        <v>751</v>
+      </c>
       <c r="F33" s="105"/>
     </row>
     <row r="34" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A34" s="150"/>
-      <c r="B34" s="213"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="123"/>
+      <c r="A34" s="152"/>
+      <c r="B34" s="215" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="101">
+        <v>24344</v>
+      </c>
+      <c r="D34" s="101">
+        <v>25096</v>
+      </c>
+      <c r="E34" s="123">
+        <f t="shared" si="1"/>
+        <v>752</v>
+      </c>
       <c r="F34" s="105"/>
     </row>
     <row r="35" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A35" s="150"/>
-      <c r="B35" s="213"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="123"/>
+      <c r="A35" s="152"/>
+      <c r="B35" s="215"/>
+      <c r="C35" s="101">
+        <v>24411</v>
+      </c>
+      <c r="D35" s="101">
+        <v>25163</v>
+      </c>
+      <c r="E35" s="123">
+        <f t="shared" si="1"/>
+        <v>752</v>
+      </c>
       <c r="F35" s="105"/>
     </row>
     <row r="36" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A36" s="150"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
+      <c r="A36" s="152"/>
+      <c r="B36" s="215"/>
+      <c r="C36" s="101">
+        <v>24444</v>
+      </c>
+      <c r="D36" s="101">
+        <v>25197</v>
+      </c>
       <c r="E36" s="123">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>753</v>
       </c>
       <c r="F36" s="105"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A37" s="150"/>
-      <c r="B37" s="98" t="s">
+    <row r="37" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A37" s="152"/>
+      <c r="B37" s="215" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" s="101">
+        <v>24503</v>
+      </c>
+      <c r="D37" s="101">
+        <v>25251</v>
+      </c>
+      <c r="E37" s="123">
+        <f t="shared" si="1"/>
+        <v>748</v>
+      </c>
+      <c r="F37" s="105"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A38" s="152"/>
+      <c r="B38" s="215" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="101">
+        <v>24523</v>
+      </c>
+      <c r="D38" s="101">
+        <v>25271</v>
+      </c>
+      <c r="E38" s="123">
+        <f t="shared" si="1"/>
+        <v>748</v>
+      </c>
+      <c r="F38" s="105"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A39" s="152"/>
+      <c r="B39" s="149"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="105"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A40" s="152"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="105"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
+      <c r="A41" s="152"/>
+      <c r="B41" s="98" t="s">
         <v>187</v>
-      </c>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="104"/>
-    </row>
-    <row r="38" spans="1:7" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A38" s="117">
-        <v>1</v>
-      </c>
-      <c r="B38" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="C38" s="103">
-        <f>C37-C20</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="103">
-        <f>D37-D20</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="126">
-        <f>E37-E20</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="108"/>
-      <c r="G38" s="112">
-        <f>E38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="13.5" thickBot="1"/>
-    <row r="40" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A40" s="149" t="s">
-        <v>170</v>
-      </c>
-      <c r="B40" s="113" t="s">
-        <v>182</v>
-      </c>
-      <c r="C40" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" s="115" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A41" s="150"/>
-      <c r="B41" s="98" t="s">
-        <v>184</v>
       </c>
       <c r="C41" s="99"/>
       <c r="D41" s="99"/>
-      <c r="E41" s="123">
-        <f t="shared" ref="E41:E54" si="2">IF(AND(C41&gt;0,D41&gt;0), D41-C41, 0)</f>
+      <c r="E41" s="125">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F41" s="104"/>
     </row>
-    <row r="42" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A42" s="150"/>
-      <c r="B42" s="100"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="124">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="105"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A43" s="150"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="105"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A44" s="150"/>
-      <c r="B44" s="100"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="105"/>
-    </row>
-    <row r="45" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A45" s="150"/>
-      <c r="B45" s="100"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
+    <row r="42" spans="1:7" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A42" s="117">
+        <v>1</v>
+      </c>
+      <c r="B42" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="103">
+        <f>C41-C20</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="103">
+        <f>D41-D20</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="126">
+        <f>E41-E20</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="108"/>
+      <c r="G42" s="112">
+        <f>E42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="13.5" thickBot="1"/>
+    <row r="44" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A44" s="151" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="113" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="115" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A45" s="152"/>
+      <c r="B45" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
       <c r="E45" s="123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="105"/>
-    </row>
-    <row r="46" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A46" s="150"/>
+        <f t="shared" ref="E45:E58" si="2">IF(AND(C45&gt;0,D45&gt;0), D45-C45, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="104"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
+      <c r="A46" s="152"/>
       <c r="B46" s="100"/>
       <c r="C46" s="101"/>
       <c r="D46" s="101"/>
-      <c r="E46" s="123">
+      <c r="E46" s="124">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F46" s="105"/>
     </row>
     <row r="47" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A47" s="150"/>
+      <c r="A47" s="152"/>
       <c r="B47" s="100"/>
       <c r="C47" s="101"/>
       <c r="D47" s="101"/>
@@ -3044,7 +3110,7 @@
       <c r="F47" s="105"/>
     </row>
     <row r="48" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A48" s="150"/>
+      <c r="A48" s="152"/>
       <c r="B48" s="100"/>
       <c r="C48" s="101"/>
       <c r="D48" s="101"/>
@@ -3055,7 +3121,7 @@
       <c r="F48" s="105"/>
     </row>
     <row r="49" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A49" s="150"/>
+      <c r="A49" s="152"/>
       <c r="B49" s="100"/>
       <c r="C49" s="101"/>
       <c r="D49" s="101"/>
@@ -3066,7 +3132,7 @@
       <c r="F49" s="105"/>
     </row>
     <row r="50" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A50" s="150"/>
+      <c r="A50" s="152"/>
       <c r="B50" s="100"/>
       <c r="C50" s="101"/>
       <c r="D50" s="101"/>
@@ -3077,7 +3143,7 @@
       <c r="F50" s="105"/>
     </row>
     <row r="51" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A51" s="150"/>
+      <c r="A51" s="152"/>
       <c r="B51" s="100"/>
       <c r="C51" s="101"/>
       <c r="D51" s="101"/>
@@ -3088,7 +3154,7 @@
       <c r="F51" s="105"/>
     </row>
     <row r="52" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A52" s="150"/>
+      <c r="A52" s="152"/>
       <c r="B52" s="100"/>
       <c r="C52" s="101"/>
       <c r="D52" s="101"/>
@@ -3099,7 +3165,7 @@
       <c r="F52" s="105"/>
     </row>
     <row r="53" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A53" s="150"/>
+      <c r="A53" s="152"/>
       <c r="B53" s="100"/>
       <c r="C53" s="101"/>
       <c r="D53" s="101"/>
@@ -3109,135 +3175,135 @@
       </c>
       <c r="F53" s="105"/>
     </row>
-    <row r="54" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A54" s="150"/>
-      <c r="B54" s="98" t="s">
+    <row r="54" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A54" s="152"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="101"/>
+      <c r="E54" s="123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="105"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A55" s="152"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="105"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A56" s="152"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="105"/>
+    </row>
+    <row r="57" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A57" s="152"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="105"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A58" s="152"/>
+      <c r="B58" s="98" t="s">
         <v>187</v>
-      </c>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="125">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="104"/>
-    </row>
-    <row r="55" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
-      <c r="A55" s="116">
-        <v>2</v>
-      </c>
-      <c r="B55" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="C55" s="103">
-        <f>C54-C41</f>
-        <v>0</v>
-      </c>
-      <c r="D55" s="103">
-        <f>D54-D41</f>
-        <v>0</v>
-      </c>
-      <c r="E55" s="126">
-        <f>E54-E41</f>
-        <v>0</v>
-      </c>
-      <c r="F55" s="107"/>
-      <c r="G55" s="112">
-        <f>E55</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="13.5" thickBot="1"/>
-    <row r="57" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A57" s="151" t="s">
-        <v>171</v>
-      </c>
-      <c r="B57" s="109" t="s">
-        <v>182</v>
-      </c>
-      <c r="C57" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="E57" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" s="111" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A58" s="150"/>
-      <c r="B58" s="98" t="s">
-        <v>184</v>
       </c>
       <c r="C58" s="99"/>
       <c r="D58" s="99"/>
-      <c r="E58" s="123">
-        <f t="shared" ref="E58:E71" si="3">IF(AND(C58&gt;0,D58&gt;0), D58-C58, 0)</f>
+      <c r="E58" s="125">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F58" s="104"/>
     </row>
-    <row r="59" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A59" s="150"/>
-      <c r="B59" s="100"/>
-      <c r="C59" s="101"/>
-      <c r="D59" s="101"/>
-      <c r="E59" s="124">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F59" s="105"/>
-    </row>
-    <row r="60" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A60" s="150"/>
-      <c r="B60" s="100"/>
-      <c r="C60" s="101"/>
-      <c r="D60" s="101"/>
-      <c r="E60" s="123">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F60" s="105"/>
-    </row>
-    <row r="61" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A61" s="150"/>
-      <c r="B61" s="100"/>
-      <c r="C61" s="101"/>
-      <c r="D61" s="101"/>
-      <c r="E61" s="123">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F61" s="105"/>
-    </row>
-    <row r="62" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A62" s="150"/>
-      <c r="B62" s="100"/>
-      <c r="C62" s="101"/>
-      <c r="D62" s="101"/>
+    <row r="59" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
+      <c r="A59" s="116">
+        <v>2</v>
+      </c>
+      <c r="B59" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" s="103">
+        <f>C58-C45</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="103">
+        <f>D58-D45</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="126">
+        <f>E58-E45</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="107"/>
+      <c r="G59" s="112">
+        <f>E59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="13.5" thickBot="1"/>
+    <row r="61" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A61" s="153" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" s="111" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A62" s="152"/>
+      <c r="B62" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="99"/>
+      <c r="D62" s="99"/>
       <c r="E62" s="123">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="105"/>
-    </row>
-    <row r="63" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A63" s="150"/>
+        <f t="shared" ref="E62:E75" si="3">IF(AND(C62&gt;0,D62&gt;0), D62-C62, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="104"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
+      <c r="A63" s="152"/>
       <c r="B63" s="100"/>
       <c r="C63" s="101"/>
       <c r="D63" s="101"/>
-      <c r="E63" s="123">
+      <c r="E63" s="124">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F63" s="105"/>
     </row>
     <row r="64" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A64" s="150"/>
+      <c r="A64" s="152"/>
       <c r="B64" s="100"/>
       <c r="C64" s="101"/>
       <c r="D64" s="101"/>
@@ -3248,7 +3314,7 @@
       <c r="F64" s="105"/>
     </row>
     <row r="65" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A65" s="150"/>
+      <c r="A65" s="152"/>
       <c r="B65" s="100"/>
       <c r="C65" s="101"/>
       <c r="D65" s="101"/>
@@ -3259,7 +3325,7 @@
       <c r="F65" s="105"/>
     </row>
     <row r="66" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A66" s="150"/>
+      <c r="A66" s="152"/>
       <c r="B66" s="100"/>
       <c r="C66" s="101"/>
       <c r="D66" s="101"/>
@@ -3270,7 +3336,7 @@
       <c r="F66" s="105"/>
     </row>
     <row r="67" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A67" s="150"/>
+      <c r="A67" s="152"/>
       <c r="B67" s="100"/>
       <c r="C67" s="101"/>
       <c r="D67" s="101"/>
@@ -3281,7 +3347,7 @@
       <c r="F67" s="105"/>
     </row>
     <row r="68" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A68" s="150"/>
+      <c r="A68" s="152"/>
       <c r="B68" s="100"/>
       <c r="C68" s="101"/>
       <c r="D68" s="101"/>
@@ -3292,7 +3358,7 @@
       <c r="F68" s="105"/>
     </row>
     <row r="69" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A69" s="150"/>
+      <c r="A69" s="152"/>
       <c r="B69" s="100"/>
       <c r="C69" s="101"/>
       <c r="D69" s="101"/>
@@ -3303,7 +3369,7 @@
       <c r="F69" s="105"/>
     </row>
     <row r="70" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A70" s="150"/>
+      <c r="A70" s="152"/>
       <c r="B70" s="100"/>
       <c r="C70" s="101"/>
       <c r="D70" s="101"/>
@@ -3313,135 +3379,135 @@
       </c>
       <c r="F70" s="105"/>
     </row>
-    <row r="71" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A71" s="150"/>
-      <c r="B71" s="98" t="s">
+    <row r="71" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A71" s="152"/>
+      <c r="B71" s="100"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="105"/>
+    </row>
+    <row r="72" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A72" s="152"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="101"/>
+      <c r="D72" s="101"/>
+      <c r="E72" s="123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="105"/>
+    </row>
+    <row r="73" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A73" s="152"/>
+      <c r="B73" s="100"/>
+      <c r="C73" s="101"/>
+      <c r="D73" s="101"/>
+      <c r="E73" s="123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="105"/>
+    </row>
+    <row r="74" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A74" s="152"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="101"/>
+      <c r="D74" s="101"/>
+      <c r="E74" s="123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F74" s="105"/>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A75" s="152"/>
+      <c r="B75" s="98" t="s">
         <v>187</v>
-      </c>
-      <c r="C71" s="99"/>
-      <c r="D71" s="99"/>
-      <c r="E71" s="125">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F71" s="104"/>
-    </row>
-    <row r="72" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
-      <c r="A72" s="117">
-        <v>3</v>
-      </c>
-      <c r="B72" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="C72" s="103">
-        <f>C71-C58</f>
-        <v>0</v>
-      </c>
-      <c r="D72" s="103">
-        <f>D71-D58</f>
-        <v>0</v>
-      </c>
-      <c r="E72" s="126">
-        <f>E71-E58</f>
-        <v>0</v>
-      </c>
-      <c r="F72" s="108"/>
-      <c r="G72" s="112">
-        <f>E72</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="13.5" thickBot="1"/>
-    <row r="74" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A74" s="149" t="s">
-        <v>172</v>
-      </c>
-      <c r="B74" s="113" t="s">
-        <v>182</v>
-      </c>
-      <c r="C74" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="D74" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E74" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="F74" s="115" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A75" s="150"/>
-      <c r="B75" s="98" t="s">
-        <v>184</v>
       </c>
       <c r="C75" s="99"/>
       <c r="D75" s="99"/>
-      <c r="E75" s="123">
-        <f t="shared" ref="E75:E88" si="4">IF(AND(C75&gt;0,D75&gt;0), D75-C75, 0)</f>
+      <c r="E75" s="125">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F75" s="104"/>
     </row>
-    <row r="76" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A76" s="150"/>
-      <c r="B76" s="100"/>
-      <c r="C76" s="101"/>
-      <c r="D76" s="101"/>
-      <c r="E76" s="124">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F76" s="105"/>
-    </row>
-    <row r="77" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A77" s="150"/>
-      <c r="B77" s="100"/>
-      <c r="C77" s="101"/>
-      <c r="D77" s="101"/>
-      <c r="E77" s="123">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F77" s="105"/>
-    </row>
-    <row r="78" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A78" s="150"/>
-      <c r="B78" s="100"/>
-      <c r="C78" s="101"/>
-      <c r="D78" s="101"/>
-      <c r="E78" s="123">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F78" s="105"/>
-    </row>
-    <row r="79" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A79" s="150"/>
-      <c r="B79" s="100"/>
-      <c r="C79" s="101"/>
-      <c r="D79" s="101"/>
+    <row r="76" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
+      <c r="A76" s="117">
+        <v>3</v>
+      </c>
+      <c r="B76" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" s="103">
+        <f>C75-C62</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="103">
+        <f>D75-D62</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="126">
+        <f>E75-E62</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="108"/>
+      <c r="G76" s="112">
+        <f>E76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="13.5" thickBot="1"/>
+    <row r="78" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A78" s="151" t="s">
+        <v>172</v>
+      </c>
+      <c r="B78" s="113" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D78" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" s="115" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A79" s="152"/>
+      <c r="B79" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C79" s="99"/>
+      <c r="D79" s="99"/>
       <c r="E79" s="123">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F79" s="105"/>
-    </row>
-    <row r="80" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A80" s="150"/>
+        <f t="shared" ref="E79:E92" si="4">IF(AND(C79&gt;0,D79&gt;0), D79-C79, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="104"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
+      <c r="A80" s="152"/>
       <c r="B80" s="100"/>
       <c r="C80" s="101"/>
       <c r="D80" s="101"/>
-      <c r="E80" s="123">
+      <c r="E80" s="124">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F80" s="105"/>
     </row>
     <row r="81" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A81" s="150"/>
+      <c r="A81" s="152"/>
       <c r="B81" s="100"/>
       <c r="C81" s="101"/>
       <c r="D81" s="101"/>
@@ -3452,7 +3518,7 @@
       <c r="F81" s="105"/>
     </row>
     <row r="82" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A82" s="150"/>
+      <c r="A82" s="152"/>
       <c r="B82" s="100"/>
       <c r="C82" s="101"/>
       <c r="D82" s="101"/>
@@ -3463,7 +3529,7 @@
       <c r="F82" s="105"/>
     </row>
     <row r="83" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A83" s="150"/>
+      <c r="A83" s="152"/>
       <c r="B83" s="100"/>
       <c r="C83" s="101"/>
       <c r="D83" s="101"/>
@@ -3474,7 +3540,7 @@
       <c r="F83" s="105"/>
     </row>
     <row r="84" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A84" s="150"/>
+      <c r="A84" s="152"/>
       <c r="B84" s="100"/>
       <c r="C84" s="101"/>
       <c r="D84" s="101"/>
@@ -3485,7 +3551,7 @@
       <c r="F84" s="105"/>
     </row>
     <row r="85" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A85" s="150"/>
+      <c r="A85" s="152"/>
       <c r="B85" s="100"/>
       <c r="C85" s="101"/>
       <c r="D85" s="101"/>
@@ -3496,7 +3562,7 @@
       <c r="F85" s="105"/>
     </row>
     <row r="86" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A86" s="150"/>
+      <c r="A86" s="152"/>
       <c r="B86" s="100"/>
       <c r="C86" s="101"/>
       <c r="D86" s="101"/>
@@ -3507,7 +3573,7 @@
       <c r="F86" s="105"/>
     </row>
     <row r="87" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A87" s="150"/>
+      <c r="A87" s="152"/>
       <c r="B87" s="100"/>
       <c r="C87" s="101"/>
       <c r="D87" s="101"/>
@@ -3517,135 +3583,135 @@
       </c>
       <c r="F87" s="105"/>
     </row>
-    <row r="88" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A88" s="150"/>
-      <c r="B88" s="98" t="s">
+    <row r="88" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A88" s="152"/>
+      <c r="B88" s="100"/>
+      <c r="C88" s="101"/>
+      <c r="D88" s="101"/>
+      <c r="E88" s="123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F88" s="105"/>
+    </row>
+    <row r="89" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A89" s="152"/>
+      <c r="B89" s="100"/>
+      <c r="C89" s="101"/>
+      <c r="D89" s="101"/>
+      <c r="E89" s="123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="105"/>
+    </row>
+    <row r="90" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A90" s="152"/>
+      <c r="B90" s="100"/>
+      <c r="C90" s="101"/>
+      <c r="D90" s="101"/>
+      <c r="E90" s="123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="105"/>
+    </row>
+    <row r="91" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A91" s="152"/>
+      <c r="B91" s="100"/>
+      <c r="C91" s="101"/>
+      <c r="D91" s="101"/>
+      <c r="E91" s="123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="105"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A92" s="152"/>
+      <c r="B92" s="98" t="s">
         <v>187</v>
-      </c>
-      <c r="C88" s="99"/>
-      <c r="D88" s="99"/>
-      <c r="E88" s="125">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F88" s="104"/>
-    </row>
-    <row r="89" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
-      <c r="A89" s="116">
-        <v>4</v>
-      </c>
-      <c r="B89" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" s="103">
-        <f>C88-C75</f>
-        <v>0</v>
-      </c>
-      <c r="D89" s="103">
-        <f>D88-D75</f>
-        <v>0</v>
-      </c>
-      <c r="E89" s="126">
-        <f>E88-E75</f>
-        <v>0</v>
-      </c>
-      <c r="F89" s="107"/>
-      <c r="G89" s="112">
-        <f>E89</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="13.5" thickBot="1"/>
-    <row r="91" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A91" s="151" t="s">
-        <v>173</v>
-      </c>
-      <c r="B91" s="109" t="s">
-        <v>182</v>
-      </c>
-      <c r="C91" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="D91" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="E91" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="F91" s="111" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A92" s="150"/>
-      <c r="B92" s="98" t="s">
-        <v>184</v>
       </c>
       <c r="C92" s="99"/>
       <c r="D92" s="99"/>
-      <c r="E92" s="123">
-        <f t="shared" ref="E92:E105" si="5">IF(AND(C92&gt;0,D92&gt;0), D92-C92, 0)</f>
+      <c r="E92" s="125">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F92" s="104"/>
     </row>
-    <row r="93" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A93" s="150"/>
-      <c r="B93" s="100"/>
-      <c r="C93" s="101"/>
-      <c r="D93" s="101"/>
-      <c r="E93" s="124">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F93" s="105"/>
-    </row>
-    <row r="94" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A94" s="150"/>
-      <c r="B94" s="100"/>
-      <c r="C94" s="101"/>
-      <c r="D94" s="101"/>
-      <c r="E94" s="123">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F94" s="105"/>
-    </row>
-    <row r="95" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A95" s="150"/>
-      <c r="B95" s="100"/>
-      <c r="C95" s="101"/>
-      <c r="D95" s="101"/>
-      <c r="E95" s="123">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F95" s="105"/>
-    </row>
-    <row r="96" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A96" s="150"/>
-      <c r="B96" s="100"/>
-      <c r="C96" s="101"/>
-      <c r="D96" s="101"/>
+    <row r="93" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
+      <c r="A93" s="116">
+        <v>4</v>
+      </c>
+      <c r="B93" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" s="103">
+        <f>C92-C79</f>
+        <v>0</v>
+      </c>
+      <c r="D93" s="103">
+        <f>D92-D79</f>
+        <v>0</v>
+      </c>
+      <c r="E93" s="126">
+        <f>E92-E79</f>
+        <v>0</v>
+      </c>
+      <c r="F93" s="107"/>
+      <c r="G93" s="112">
+        <f>E93</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="13.5" thickBot="1"/>
+    <row r="95" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A95" s="153" t="s">
+        <v>173</v>
+      </c>
+      <c r="B95" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="E95" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" s="111" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A96" s="152"/>
+      <c r="B96" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C96" s="99"/>
+      <c r="D96" s="99"/>
       <c r="E96" s="123">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F96" s="105"/>
-    </row>
-    <row r="97" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A97" s="150"/>
+        <f t="shared" ref="E96:E109" si="5">IF(AND(C96&gt;0,D96&gt;0), D96-C96, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F96" s="104"/>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
+      <c r="A97" s="152"/>
       <c r="B97" s="100"/>
       <c r="C97" s="101"/>
       <c r="D97" s="101"/>
-      <c r="E97" s="123">
+      <c r="E97" s="124">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F97" s="105"/>
     </row>
     <row r="98" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A98" s="150"/>
+      <c r="A98" s="152"/>
       <c r="B98" s="100"/>
       <c r="C98" s="101"/>
       <c r="D98" s="101"/>
@@ -3656,7 +3722,7 @@
       <c r="F98" s="105"/>
     </row>
     <row r="99" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A99" s="150"/>
+      <c r="A99" s="152"/>
       <c r="B99" s="100"/>
       <c r="C99" s="101"/>
       <c r="D99" s="101"/>
@@ -3667,7 +3733,7 @@
       <c r="F99" s="105"/>
     </row>
     <row r="100" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A100" s="150"/>
+      <c r="A100" s="152"/>
       <c r="B100" s="100"/>
       <c r="C100" s="101"/>
       <c r="D100" s="101"/>
@@ -3678,7 +3744,7 @@
       <c r="F100" s="105"/>
     </row>
     <row r="101" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A101" s="150"/>
+      <c r="A101" s="152"/>
       <c r="B101" s="100"/>
       <c r="C101" s="101"/>
       <c r="D101" s="101"/>
@@ -3689,7 +3755,7 @@
       <c r="F101" s="105"/>
     </row>
     <row r="102" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A102" s="150"/>
+      <c r="A102" s="152"/>
       <c r="B102" s="100"/>
       <c r="C102" s="101"/>
       <c r="D102" s="101"/>
@@ -3700,7 +3766,7 @@
       <c r="F102" s="105"/>
     </row>
     <row r="103" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A103" s="150"/>
+      <c r="A103" s="152"/>
       <c r="B103" s="100"/>
       <c r="C103" s="101"/>
       <c r="D103" s="101"/>
@@ -3711,7 +3777,7 @@
       <c r="F103" s="105"/>
     </row>
     <row r="104" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A104" s="150"/>
+      <c r="A104" s="152"/>
       <c r="B104" s="100"/>
       <c r="C104" s="101"/>
       <c r="D104" s="101"/>
@@ -3721,134 +3787,134 @@
       </c>
       <c r="F104" s="105"/>
     </row>
-    <row r="105" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A105" s="150"/>
-      <c r="B105" s="98" t="s">
+    <row r="105" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A105" s="152"/>
+      <c r="B105" s="100"/>
+      <c r="C105" s="101"/>
+      <c r="D105" s="101"/>
+      <c r="E105" s="123">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F105" s="105"/>
+    </row>
+    <row r="106" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A106" s="152"/>
+      <c r="B106" s="100"/>
+      <c r="C106" s="101"/>
+      <c r="D106" s="101"/>
+      <c r="E106" s="123">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F106" s="105"/>
+    </row>
+    <row r="107" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A107" s="152"/>
+      <c r="B107" s="100"/>
+      <c r="C107" s="101"/>
+      <c r="D107" s="101"/>
+      <c r="E107" s="123">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F107" s="105"/>
+    </row>
+    <row r="108" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A108" s="152"/>
+      <c r="B108" s="100"/>
+      <c r="C108" s="101"/>
+      <c r="D108" s="101"/>
+      <c r="E108" s="123">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F108" s="105"/>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A109" s="152"/>
+      <c r="B109" s="98" t="s">
         <v>187</v>
-      </c>
-      <c r="C105" s="99"/>
-      <c r="D105" s="99"/>
-      <c r="E105" s="125">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F105" s="104"/>
-    </row>
-    <row r="106" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
-      <c r="A106" s="117">
-        <v>5</v>
-      </c>
-      <c r="B106" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="C106" s="103">
-        <f>C105-C92</f>
-        <v>0</v>
-      </c>
-      <c r="D106" s="103">
-        <f>D105-D92</f>
-        <v>0</v>
-      </c>
-      <c r="E106" s="126">
-        <f>E105-E92</f>
-        <v>0</v>
-      </c>
-      <c r="F106" s="108"/>
-      <c r="G106" s="112">
-        <f>E106</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A108" s="149" t="s">
-        <v>174</v>
-      </c>
-      <c r="B108" s="113" t="s">
-        <v>182</v>
-      </c>
-      <c r="C108" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="D108" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E108" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="F108" s="115" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A109" s="150"/>
-      <c r="B109" s="98" t="s">
-        <v>184</v>
       </c>
       <c r="C109" s="99"/>
       <c r="D109" s="99"/>
-      <c r="E109" s="123">
-        <f t="shared" ref="E109:E122" si="6">IF(AND(C109&gt;0,D109&gt;0), D109-C109, 0)</f>
+      <c r="E109" s="125">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F109" s="104"/>
     </row>
-    <row r="110" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A110" s="150"/>
-      <c r="B110" s="100"/>
-      <c r="C110" s="101"/>
-      <c r="D110" s="101"/>
-      <c r="E110" s="124">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F110" s="105"/>
-    </row>
-    <row r="111" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A111" s="150"/>
-      <c r="B111" s="100"/>
-      <c r="C111" s="101"/>
-      <c r="D111" s="101"/>
-      <c r="E111" s="123">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F111" s="105"/>
-    </row>
-    <row r="112" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A112" s="150"/>
-      <c r="B112" s="100"/>
-      <c r="C112" s="101"/>
-      <c r="D112" s="101"/>
-      <c r="E112" s="123">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F112" s="105"/>
-    </row>
-    <row r="113" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A113" s="150"/>
-      <c r="B113" s="100"/>
-      <c r="C113" s="101"/>
-      <c r="D113" s="101"/>
+    <row r="110" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
+      <c r="A110" s="117">
+        <v>5</v>
+      </c>
+      <c r="B110" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C110" s="103">
+        <f>C109-C96</f>
+        <v>0</v>
+      </c>
+      <c r="D110" s="103">
+        <f>D109-D96</f>
+        <v>0</v>
+      </c>
+      <c r="E110" s="126">
+        <f>E109-E96</f>
+        <v>0</v>
+      </c>
+      <c r="F110" s="108"/>
+      <c r="G110" s="112">
+        <f>E110</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A112" s="151" t="s">
+        <v>174</v>
+      </c>
+      <c r="B112" s="113" t="s">
+        <v>182</v>
+      </c>
+      <c r="C112" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D112" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E112" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="F112" s="115" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A113" s="152"/>
+      <c r="B113" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C113" s="99"/>
+      <c r="D113" s="99"/>
       <c r="E113" s="123">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F113" s="105"/>
-    </row>
-    <row r="114" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A114" s="150"/>
+        <f t="shared" ref="E113:E126" si="6">IF(AND(C113&gt;0,D113&gt;0), D113-C113, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F113" s="104"/>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
+      <c r="A114" s="152"/>
       <c r="B114" s="100"/>
       <c r="C114" s="101"/>
       <c r="D114" s="101"/>
-      <c r="E114" s="123">
+      <c r="E114" s="124">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F114" s="105"/>
     </row>
     <row r="115" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A115" s="150"/>
+      <c r="A115" s="152"/>
       <c r="B115" s="100"/>
       <c r="C115" s="101"/>
       <c r="D115" s="101"/>
@@ -3859,7 +3925,7 @@
       <c r="F115" s="105"/>
     </row>
     <row r="116" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A116" s="150"/>
+      <c r="A116" s="152"/>
       <c r="B116" s="100"/>
       <c r="C116" s="101"/>
       <c r="D116" s="101"/>
@@ -3870,7 +3936,7 @@
       <c r="F116" s="105"/>
     </row>
     <row r="117" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A117" s="150"/>
+      <c r="A117" s="152"/>
       <c r="B117" s="100"/>
       <c r="C117" s="101"/>
       <c r="D117" s="101"/>
@@ -3881,7 +3947,7 @@
       <c r="F117" s="105"/>
     </row>
     <row r="118" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A118" s="150"/>
+      <c r="A118" s="152"/>
       <c r="B118" s="100"/>
       <c r="C118" s="101"/>
       <c r="D118" s="101"/>
@@ -3892,7 +3958,7 @@
       <c r="F118" s="105"/>
     </row>
     <row r="119" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A119" s="150"/>
+      <c r="A119" s="152"/>
       <c r="B119" s="100"/>
       <c r="C119" s="101"/>
       <c r="D119" s="101"/>
@@ -3903,7 +3969,7 @@
       <c r="F119" s="105"/>
     </row>
     <row r="120" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A120" s="150"/>
+      <c r="A120" s="152"/>
       <c r="B120" s="100"/>
       <c r="C120" s="101"/>
       <c r="D120" s="101"/>
@@ -3914,7 +3980,7 @@
       <c r="F120" s="105"/>
     </row>
     <row r="121" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A121" s="150"/>
+      <c r="A121" s="152"/>
       <c r="B121" s="100"/>
       <c r="C121" s="101"/>
       <c r="D121" s="101"/>
@@ -3924,134 +3990,134 @@
       </c>
       <c r="F121" s="105"/>
     </row>
-    <row r="122" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A122" s="150"/>
-      <c r="B122" s="98" t="s">
+    <row r="122" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A122" s="152"/>
+      <c r="B122" s="100"/>
+      <c r="C122" s="101"/>
+      <c r="D122" s="101"/>
+      <c r="E122" s="123">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F122" s="105"/>
+    </row>
+    <row r="123" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A123" s="152"/>
+      <c r="B123" s="100"/>
+      <c r="C123" s="101"/>
+      <c r="D123" s="101"/>
+      <c r="E123" s="123">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F123" s="105"/>
+    </row>
+    <row r="124" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A124" s="152"/>
+      <c r="B124" s="100"/>
+      <c r="C124" s="101"/>
+      <c r="D124" s="101"/>
+      <c r="E124" s="123">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F124" s="105"/>
+    </row>
+    <row r="125" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A125" s="152"/>
+      <c r="B125" s="100"/>
+      <c r="C125" s="101"/>
+      <c r="D125" s="101"/>
+      <c r="E125" s="123">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F125" s="105"/>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A126" s="152"/>
+      <c r="B126" s="98" t="s">
         <v>187</v>
-      </c>
-      <c r="C122" s="99"/>
-      <c r="D122" s="99"/>
-      <c r="E122" s="125">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F122" s="104"/>
-    </row>
-    <row r="123" spans="1:7" ht="16.5" collapsed="1" thickBot="1">
-      <c r="A123" s="116">
-        <v>6</v>
-      </c>
-      <c r="B123" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="C123" s="103">
-        <f>C122-C109</f>
-        <v>0</v>
-      </c>
-      <c r="D123" s="103">
-        <f>D122-D109</f>
-        <v>0</v>
-      </c>
-      <c r="E123" s="103">
-        <f>E122-E109</f>
-        <v>0</v>
-      </c>
-      <c r="F123" s="107"/>
-      <c r="G123" s="112">
-        <f>E123</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A125" s="151" t="s">
-        <v>175</v>
-      </c>
-      <c r="B125" s="109" t="s">
-        <v>182</v>
-      </c>
-      <c r="C125" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="D125" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="E125" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="F125" s="111" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A126" s="150"/>
-      <c r="B126" s="98" t="s">
-        <v>184</v>
       </c>
       <c r="C126" s="99"/>
       <c r="D126" s="99"/>
-      <c r="E126" s="123">
-        <f t="shared" ref="E126:E139" si="7">IF(AND(C126&gt;0,D126&gt;0), D126-C126, 0)</f>
+      <c r="E126" s="125">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F126" s="104"/>
     </row>
-    <row r="127" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A127" s="150"/>
-      <c r="B127" s="100"/>
-      <c r="C127" s="101"/>
-      <c r="D127" s="101"/>
-      <c r="E127" s="124">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F127" s="105"/>
-    </row>
-    <row r="128" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A128" s="150"/>
-      <c r="B128" s="100"/>
-      <c r="C128" s="101"/>
-      <c r="D128" s="101"/>
-      <c r="E128" s="123">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F128" s="105"/>
+    <row r="127" spans="1:7" ht="16.5" collapsed="1" thickBot="1">
+      <c r="A127" s="116">
+        <v>6</v>
+      </c>
+      <c r="B127" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C127" s="103">
+        <f>C126-C113</f>
+        <v>0</v>
+      </c>
+      <c r="D127" s="103">
+        <f>D126-D113</f>
+        <v>0</v>
+      </c>
+      <c r="E127" s="103">
+        <f>E126-E113</f>
+        <v>0</v>
+      </c>
+      <c r="F127" s="107"/>
+      <c r="G127" s="112">
+        <f>E127</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A129" s="150"/>
-      <c r="B129" s="100"/>
-      <c r="C129" s="101"/>
-      <c r="D129" s="101"/>
-      <c r="E129" s="123">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F129" s="105"/>
-    </row>
-    <row r="130" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A130" s="150"/>
-      <c r="B130" s="100"/>
-      <c r="C130" s="101"/>
-      <c r="D130" s="101"/>
+      <c r="A129" s="153" t="s">
+        <v>175</v>
+      </c>
+      <c r="B129" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="C129" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="D129" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="E129" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="F129" s="111" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A130" s="152"/>
+      <c r="B130" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C130" s="99"/>
+      <c r="D130" s="99"/>
       <c r="E130" s="123">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F130" s="105"/>
-    </row>
-    <row r="131" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A131" s="150"/>
+        <f t="shared" ref="E130:E143" si="7">IF(AND(C130&gt;0,D130&gt;0), D130-C130, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F130" s="104"/>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
+      <c r="A131" s="152"/>
       <c r="B131" s="100"/>
       <c r="C131" s="101"/>
       <c r="D131" s="101"/>
-      <c r="E131" s="123">
+      <c r="E131" s="124">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F131" s="105"/>
     </row>
     <row r="132" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A132" s="150"/>
+      <c r="A132" s="152"/>
       <c r="B132" s="100"/>
       <c r="C132" s="101"/>
       <c r="D132" s="101"/>
@@ -4062,7 +4128,7 @@
       <c r="F132" s="105"/>
     </row>
     <row r="133" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A133" s="150"/>
+      <c r="A133" s="152"/>
       <c r="B133" s="100"/>
       <c r="C133" s="101"/>
       <c r="D133" s="101"/>
@@ -4073,7 +4139,7 @@
       <c r="F133" s="105"/>
     </row>
     <row r="134" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A134" s="150"/>
+      <c r="A134" s="152"/>
       <c r="B134" s="100"/>
       <c r="C134" s="101"/>
       <c r="D134" s="101"/>
@@ -4084,7 +4150,7 @@
       <c r="F134" s="105"/>
     </row>
     <row r="135" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A135" s="150"/>
+      <c r="A135" s="152"/>
       <c r="B135" s="100"/>
       <c r="C135" s="101"/>
       <c r="D135" s="101"/>
@@ -4095,7 +4161,7 @@
       <c r="F135" s="105"/>
     </row>
     <row r="136" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A136" s="150"/>
+      <c r="A136" s="152"/>
       <c r="B136" s="100"/>
       <c r="C136" s="101"/>
       <c r="D136" s="101"/>
@@ -4106,7 +4172,7 @@
       <c r="F136" s="105"/>
     </row>
     <row r="137" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A137" s="150"/>
+      <c r="A137" s="152"/>
       <c r="B137" s="100"/>
       <c r="C137" s="101"/>
       <c r="D137" s="101"/>
@@ -4117,7 +4183,7 @@
       <c r="F137" s="105"/>
     </row>
     <row r="138" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A138" s="150"/>
+      <c r="A138" s="152"/>
       <c r="B138" s="100"/>
       <c r="C138" s="101"/>
       <c r="D138" s="101"/>
@@ -4127,134 +4193,134 @@
       </c>
       <c r="F138" s="105"/>
     </row>
-    <row r="139" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A139" s="150"/>
-      <c r="B139" s="98" t="s">
+    <row r="139" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A139" s="152"/>
+      <c r="B139" s="100"/>
+      <c r="C139" s="101"/>
+      <c r="D139" s="101"/>
+      <c r="E139" s="123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F139" s="105"/>
+    </row>
+    <row r="140" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A140" s="152"/>
+      <c r="B140" s="100"/>
+      <c r="C140" s="101"/>
+      <c r="D140" s="101"/>
+      <c r="E140" s="123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F140" s="105"/>
+    </row>
+    <row r="141" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A141" s="152"/>
+      <c r="B141" s="100"/>
+      <c r="C141" s="101"/>
+      <c r="D141" s="101"/>
+      <c r="E141" s="123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F141" s="105"/>
+    </row>
+    <row r="142" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A142" s="152"/>
+      <c r="B142" s="100"/>
+      <c r="C142" s="101"/>
+      <c r="D142" s="101"/>
+      <c r="E142" s="123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F142" s="105"/>
+    </row>
+    <row r="143" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A143" s="152"/>
+      <c r="B143" s="98" t="s">
         <v>187</v>
-      </c>
-      <c r="C139" s="99"/>
-      <c r="D139" s="99"/>
-      <c r="E139" s="125">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F139" s="104"/>
-    </row>
-    <row r="140" spans="1:7" ht="16.5" collapsed="1" thickBot="1">
-      <c r="A140" s="117">
-        <v>7</v>
-      </c>
-      <c r="B140" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="C140" s="103">
-        <f>C139-C126</f>
-        <v>0</v>
-      </c>
-      <c r="D140" s="103">
-        <f>D139-D126</f>
-        <v>0</v>
-      </c>
-      <c r="E140" s="103">
-        <f>E139-E126</f>
-        <v>0</v>
-      </c>
-      <c r="F140" s="108"/>
-      <c r="G140" s="112">
-        <f>E140</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A142" s="149" t="s">
-        <v>176</v>
-      </c>
-      <c r="B142" s="113" t="s">
-        <v>182</v>
-      </c>
-      <c r="C142" s="114" t="s">
-        <v>42</v>
-      </c>
-      <c r="D142" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="E142" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="F142" s="115" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickBot="1">
-      <c r="A143" s="150"/>
-      <c r="B143" s="98" t="s">
-        <v>184</v>
       </c>
       <c r="C143" s="99"/>
       <c r="D143" s="99"/>
-      <c r="E143" s="123">
-        <f t="shared" ref="E143:E156" si="8">IF(AND(C143&gt;0,D143&gt;0), D143-C143, 0)</f>
+      <c r="E143" s="125">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F143" s="104"/>
     </row>
-    <row r="144" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickTop="1">
-      <c r="A144" s="150"/>
-      <c r="B144" s="100"/>
-      <c r="C144" s="101"/>
-      <c r="D144" s="101"/>
-      <c r="E144" s="124">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F144" s="105"/>
-    </row>
-    <row r="145" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A145" s="150"/>
-      <c r="B145" s="100"/>
-      <c r="C145" s="101"/>
-      <c r="D145" s="101"/>
-      <c r="E145" s="123">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F145" s="105"/>
-    </row>
-    <row r="146" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A146" s="150"/>
-      <c r="B146" s="100"/>
-      <c r="C146" s="101"/>
-      <c r="D146" s="101"/>
-      <c r="E146" s="123">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F146" s="105"/>
-    </row>
-    <row r="147" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A147" s="150"/>
-      <c r="B147" s="100"/>
-      <c r="C147" s="101"/>
-      <c r="D147" s="101"/>
+    <row r="144" spans="1:7" ht="16.5" collapsed="1" thickBot="1">
+      <c r="A144" s="117">
+        <v>7</v>
+      </c>
+      <c r="B144" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C144" s="103">
+        <f>C143-C130</f>
+        <v>0</v>
+      </c>
+      <c r="D144" s="103">
+        <f>D143-D130</f>
+        <v>0</v>
+      </c>
+      <c r="E144" s="103">
+        <f>E143-E130</f>
+        <v>0</v>
+      </c>
+      <c r="F144" s="108"/>
+      <c r="G144" s="112">
+        <f>E144</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15" hidden="1" outlineLevel="2">
+      <c r="A146" s="151" t="s">
+        <v>176</v>
+      </c>
+      <c r="B146" s="113" t="s">
+        <v>182</v>
+      </c>
+      <c r="C146" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D146" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E146" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="F146" s="115" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" hidden="1" outlineLevel="2" thickBot="1">
+      <c r="A147" s="152"/>
+      <c r="B147" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C147" s="99"/>
+      <c r="D147" s="99"/>
       <c r="E147" s="123">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F147" s="105"/>
-    </row>
-    <row r="148" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A148" s="150"/>
+        <f t="shared" ref="E147:E160" si="8">IF(AND(C147&gt;0,D147&gt;0), D147-C147, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F147" s="104"/>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" hidden="1" outlineLevel="2" thickTop="1">
+      <c r="A148" s="152"/>
       <c r="B148" s="100"/>
       <c r="C148" s="101"/>
       <c r="D148" s="101"/>
-      <c r="E148" s="123">
+      <c r="E148" s="124">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F148" s="105"/>
     </row>
-    <row r="149" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A149" s="150"/>
+    <row r="149" spans="1:6" ht="15" hidden="1" outlineLevel="2">
+      <c r="A149" s="152"/>
       <c r="B149" s="100"/>
       <c r="C149" s="101"/>
       <c r="D149" s="101"/>
@@ -4264,8 +4330,8 @@
       </c>
       <c r="F149" s="105"/>
     </row>
-    <row r="150" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A150" s="150"/>
+    <row r="150" spans="1:6" ht="15" hidden="1" outlineLevel="2">
+      <c r="A150" s="152"/>
       <c r="B150" s="100"/>
       <c r="C150" s="101"/>
       <c r="D150" s="101"/>
@@ -4275,8 +4341,8 @@
       </c>
       <c r="F150" s="105"/>
     </row>
-    <row r="151" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A151" s="150"/>
+    <row r="151" spans="1:6" ht="15" hidden="1" outlineLevel="2">
+      <c r="A151" s="152"/>
       <c r="B151" s="100"/>
       <c r="C151" s="101"/>
       <c r="D151" s="101"/>
@@ -4286,8 +4352,8 @@
       </c>
       <c r="F151" s="105"/>
     </row>
-    <row r="152" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A152" s="150"/>
+    <row r="152" spans="1:6" ht="15" hidden="1" outlineLevel="2">
+      <c r="A152" s="152"/>
       <c r="B152" s="100"/>
       <c r="C152" s="101"/>
       <c r="D152" s="101"/>
@@ -4297,8 +4363,8 @@
       </c>
       <c r="F152" s="105"/>
     </row>
-    <row r="153" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A153" s="150"/>
+    <row r="153" spans="1:6" ht="15" hidden="1" outlineLevel="2">
+      <c r="A153" s="152"/>
       <c r="B153" s="100"/>
       <c r="C153" s="101"/>
       <c r="D153" s="101"/>
@@ -4308,8 +4374,8 @@
       </c>
       <c r="F153" s="105"/>
     </row>
-    <row r="154" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A154" s="150"/>
+    <row r="154" spans="1:6" ht="15" hidden="1" outlineLevel="2">
+      <c r="A154" s="152"/>
       <c r="B154" s="100"/>
       <c r="C154" s="101"/>
       <c r="D154" s="101"/>
@@ -4319,8 +4385,8 @@
       </c>
       <c r="F154" s="105"/>
     </row>
-    <row r="155" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A155" s="150"/>
+    <row r="155" spans="1:6" ht="15" hidden="1" outlineLevel="2">
+      <c r="A155" s="152"/>
       <c r="B155" s="100"/>
       <c r="C155" s="101"/>
       <c r="D155" s="101"/>
@@ -4330,59 +4396,103 @@
       </c>
       <c r="F155" s="105"/>
     </row>
-    <row r="156" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickBot="1">
-      <c r="A156" s="150"/>
-      <c r="B156" s="98" t="s">
+    <row r="156" spans="1:6" ht="15" hidden="1" outlineLevel="2">
+      <c r="A156" s="152"/>
+      <c r="B156" s="100"/>
+      <c r="C156" s="101"/>
+      <c r="D156" s="101"/>
+      <c r="E156" s="123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F156" s="105"/>
+    </row>
+    <row r="157" spans="1:6" ht="15" hidden="1" outlineLevel="2">
+      <c r="A157" s="152"/>
+      <c r="B157" s="100"/>
+      <c r="C157" s="101"/>
+      <c r="D157" s="101"/>
+      <c r="E157" s="123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F157" s="105"/>
+    </row>
+    <row r="158" spans="1:6" ht="15" hidden="1" outlineLevel="2">
+      <c r="A158" s="152"/>
+      <c r="B158" s="100"/>
+      <c r="C158" s="101"/>
+      <c r="D158" s="101"/>
+      <c r="E158" s="123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F158" s="105"/>
+    </row>
+    <row r="159" spans="1:6" ht="15" hidden="1" outlineLevel="2">
+      <c r="A159" s="152"/>
+      <c r="B159" s="100"/>
+      <c r="C159" s="101"/>
+      <c r="D159" s="101"/>
+      <c r="E159" s="123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F159" s="105"/>
+    </row>
+    <row r="160" spans="1:6" ht="15.75" hidden="1" outlineLevel="2" thickBot="1">
+      <c r="A160" s="152"/>
+      <c r="B160" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="C156" s="99"/>
-      <c r="D156" s="99"/>
-      <c r="E156" s="125">
+      <c r="C160" s="99"/>
+      <c r="D160" s="99"/>
+      <c r="E160" s="125">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F156" s="104"/>
-    </row>
-    <row r="157" spans="1:7" ht="16.5" collapsed="1" thickBot="1">
-      <c r="A157" s="116">
+      <c r="F160" s="104"/>
+    </row>
+    <row r="161" spans="1:7" ht="16.5" collapsed="1" thickBot="1">
+      <c r="A161" s="116">
         <v>8</v>
       </c>
-      <c r="B157" s="102" t="s">
+      <c r="B161" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="C157" s="103">
-        <f>C156-C143</f>
-        <v>0</v>
-      </c>
-      <c r="D157" s="103">
-        <f>D156-D143</f>
-        <v>0</v>
-      </c>
-      <c r="E157" s="103">
-        <f>E156-E143</f>
-        <v>0</v>
-      </c>
-      <c r="F157" s="107"/>
-      <c r="G157" s="112">
-        <f>E157</f>
+      <c r="C161" s="103">
+        <f>C160-C147</f>
+        <v>0</v>
+      </c>
+      <c r="D161" s="103">
+        <f>D160-D147</f>
+        <v>0</v>
+      </c>
+      <c r="E161" s="103">
+        <f>E160-E147</f>
+        <v>0</v>
+      </c>
+      <c r="F161" s="107"/>
+      <c r="G161" s="112">
+        <f>E161</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A40:A54"/>
-    <mergeCell ref="A57:A71"/>
+    <mergeCell ref="A146:A160"/>
+    <mergeCell ref="A112:A126"/>
+    <mergeCell ref="A78:A92"/>
+    <mergeCell ref="A129:A143"/>
+    <mergeCell ref="A95:A109"/>
+    <mergeCell ref="A44:A58"/>
+    <mergeCell ref="A61:A75"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A19:A37"/>
-    <mergeCell ref="A142:A156"/>
-    <mergeCell ref="A108:A122"/>
-    <mergeCell ref="A74:A88"/>
-    <mergeCell ref="A125:A139"/>
-    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A19:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4414,13 +4524,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
       <c r="F1" s="7"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4450,18 +4560,18 @@
         <v>8</v>
       </c>
       <c r="B3" s="36"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
     </row>
     <row r="4" spans="1:8" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A4" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="87"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:8" hidden="1" outlineLevel="2">
@@ -4613,9 +4723,9 @@
         <v>9</v>
       </c>
       <c r="B21" s="90"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
     </row>
     <row r="22" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A22" s="47">
@@ -4766,9 +4876,9 @@
         <v>10</v>
       </c>
       <c r="B38" s="87"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="159"/>
-      <c r="E38" s="159"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="164"/>
     </row>
     <row r="39" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A39" s="47">
@@ -4919,9 +5029,9 @@
         <v>11</v>
       </c>
       <c r="B55" s="87"/>
-      <c r="C55" s="158"/>
-      <c r="D55" s="159"/>
-      <c r="E55" s="159"/>
+      <c r="C55" s="163"/>
+      <c r="D55" s="164"/>
+      <c r="E55" s="164"/>
     </row>
     <row r="56" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A56" s="47">
@@ -5072,9 +5182,9 @@
         <v>12</v>
       </c>
       <c r="B72" s="87"/>
-      <c r="C72" s="158"/>
-      <c r="D72" s="159"/>
-      <c r="E72" s="159"/>
+      <c r="C72" s="163"/>
+      <c r="D72" s="164"/>
+      <c r="E72" s="164"/>
     </row>
     <row r="73" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A73" s="47">
@@ -5225,9 +5335,9 @@
         <v>13</v>
       </c>
       <c r="B89" s="87"/>
-      <c r="C89" s="158"/>
-      <c r="D89" s="159"/>
-      <c r="E89" s="159"/>
+      <c r="C89" s="163"/>
+      <c r="D89" s="164"/>
+      <c r="E89" s="164"/>
     </row>
     <row r="90" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A90" s="47">
@@ -5378,9 +5488,9 @@
         <v>14</v>
       </c>
       <c r="B106" s="87"/>
-      <c r="C106" s="158"/>
-      <c r="D106" s="159"/>
-      <c r="E106" s="159"/>
+      <c r="C106" s="163"/>
+      <c r="D106" s="164"/>
+      <c r="E106" s="164"/>
     </row>
     <row r="107" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A107" s="47">
@@ -5531,9 +5641,9 @@
         <v>15</v>
       </c>
       <c r="B123" s="87"/>
-      <c r="C123" s="158"/>
-      <c r="D123" s="159"/>
-      <c r="E123" s="159"/>
+      <c r="C123" s="163"/>
+      <c r="D123" s="164"/>
+      <c r="E123" s="164"/>
     </row>
     <row r="124" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A124" s="47">
@@ -5684,9 +5794,9 @@
         <v>16</v>
       </c>
       <c r="B140" s="87"/>
-      <c r="C140" s="158"/>
-      <c r="D140" s="159"/>
-      <c r="E140" s="159"/>
+      <c r="C140" s="163"/>
+      <c r="D140" s="164"/>
+      <c r="E140" s="164"/>
     </row>
     <row r="141" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A141" s="47">
@@ -5837,9 +5947,9 @@
         <v>17</v>
       </c>
       <c r="B157" s="87"/>
-      <c r="C157" s="158"/>
-      <c r="D157" s="159"/>
-      <c r="E157" s="159"/>
+      <c r="C157" s="163"/>
+      <c r="D157" s="164"/>
+      <c r="E157" s="164"/>
     </row>
     <row r="158" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A158" s="47">
@@ -5990,9 +6100,9 @@
         <v>18</v>
       </c>
       <c r="B174" s="87"/>
-      <c r="C174" s="158"/>
-      <c r="D174" s="159"/>
-      <c r="E174" s="159"/>
+      <c r="C174" s="163"/>
+      <c r="D174" s="164"/>
+      <c r="E174" s="164"/>
     </row>
     <row r="175" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A175" s="47">
@@ -6143,9 +6253,9 @@
         <v>19</v>
       </c>
       <c r="B191" s="87"/>
-      <c r="C191" s="158"/>
-      <c r="D191" s="159"/>
-      <c r="E191" s="159"/>
+      <c r="C191" s="163"/>
+      <c r="D191" s="164"/>
+      <c r="E191" s="164"/>
     </row>
     <row r="192" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A192" s="47">
@@ -6296,9 +6406,9 @@
         <v>20</v>
       </c>
       <c r="B208" s="87"/>
-      <c r="C208" s="158"/>
-      <c r="D208" s="159"/>
-      <c r="E208" s="159"/>
+      <c r="C208" s="163"/>
+      <c r="D208" s="164"/>
+      <c r="E208" s="164"/>
     </row>
     <row r="209" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A209" s="47">
@@ -6449,9 +6559,9 @@
         <v>21</v>
       </c>
       <c r="B225" s="87"/>
-      <c r="C225" s="158"/>
-      <c r="D225" s="159"/>
-      <c r="E225" s="159"/>
+      <c r="C225" s="163"/>
+      <c r="D225" s="164"/>
+      <c r="E225" s="164"/>
     </row>
     <row r="226" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A226" s="47">
@@ -6602,9 +6712,9 @@
         <v>22</v>
       </c>
       <c r="B242" s="87"/>
-      <c r="C242" s="158"/>
-      <c r="D242" s="159"/>
-      <c r="E242" s="159"/>
+      <c r="C242" s="163"/>
+      <c r="D242" s="164"/>
+      <c r="E242" s="164"/>
     </row>
     <row r="243" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A243" s="47">
@@ -6755,9 +6865,9 @@
         <v>23</v>
       </c>
       <c r="B259" s="87"/>
-      <c r="C259" s="158"/>
-      <c r="D259" s="159"/>
-      <c r="E259" s="159"/>
+      <c r="C259" s="163"/>
+      <c r="D259" s="164"/>
+      <c r="E259" s="164"/>
     </row>
     <row r="260" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A260" s="47">
@@ -6908,18 +7018,18 @@
         <v>24</v>
       </c>
       <c r="B276" s="37"/>
-      <c r="C276" s="174"/>
-      <c r="D276" s="175"/>
-      <c r="E276" s="175"/>
+      <c r="C276" s="167"/>
+      <c r="D276" s="168"/>
+      <c r="E276" s="168"/>
     </row>
     <row r="277" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A277" s="51" t="s">
         <v>25</v>
       </c>
       <c r="B277" s="87"/>
-      <c r="C277" s="158"/>
-      <c r="D277" s="159"/>
-      <c r="E277" s="159"/>
+      <c r="C277" s="163"/>
+      <c r="D277" s="164"/>
+      <c r="E277" s="164"/>
     </row>
     <row r="278" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A278" s="52">
@@ -7070,9 +7180,9 @@
         <v>26</v>
       </c>
       <c r="B294" s="90"/>
-      <c r="C294" s="160"/>
-      <c r="D294" s="161"/>
-      <c r="E294" s="161"/>
+      <c r="C294" s="165"/>
+      <c r="D294" s="166"/>
+      <c r="E294" s="166"/>
     </row>
     <row r="295" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A295" s="52">
@@ -7223,9 +7333,9 @@
         <v>27</v>
       </c>
       <c r="B311" s="87"/>
-      <c r="C311" s="158"/>
-      <c r="D311" s="159"/>
-      <c r="E311" s="159"/>
+      <c r="C311" s="163"/>
+      <c r="D311" s="164"/>
+      <c r="E311" s="164"/>
     </row>
     <row r="312" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A312" s="52">
@@ -7376,9 +7486,9 @@
         <v>28</v>
       </c>
       <c r="B328" s="87"/>
-      <c r="C328" s="158"/>
-      <c r="D328" s="159"/>
-      <c r="E328" s="159"/>
+      <c r="C328" s="163"/>
+      <c r="D328" s="164"/>
+      <c r="E328" s="164"/>
     </row>
     <row r="329" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A329" s="52">
@@ -7529,9 +7639,9 @@
         <v>29</v>
       </c>
       <c r="B345" s="87"/>
-      <c r="C345" s="158"/>
-      <c r="D345" s="159"/>
-      <c r="E345" s="159"/>
+      <c r="C345" s="163"/>
+      <c r="D345" s="164"/>
+      <c r="E345" s="164"/>
     </row>
     <row r="346" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A346" s="52">
@@ -7682,9 +7792,9 @@
         <v>30</v>
       </c>
       <c r="B362" s="87"/>
-      <c r="C362" s="158"/>
-      <c r="D362" s="159"/>
-      <c r="E362" s="159"/>
+      <c r="C362" s="163"/>
+      <c r="D362" s="164"/>
+      <c r="E362" s="164"/>
     </row>
     <row r="363" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A363" s="52">
@@ -7835,9 +7945,9 @@
         <v>31</v>
       </c>
       <c r="B379" s="87"/>
-      <c r="C379" s="158"/>
-      <c r="D379" s="159"/>
-      <c r="E379" s="159"/>
+      <c r="C379" s="163"/>
+      <c r="D379" s="164"/>
+      <c r="E379" s="164"/>
     </row>
     <row r="380" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A380" s="52">
@@ -7988,9 +8098,9 @@
         <v>32</v>
       </c>
       <c r="B396" s="87"/>
-      <c r="C396" s="158"/>
-      <c r="D396" s="159"/>
-      <c r="E396" s="159"/>
+      <c r="C396" s="163"/>
+      <c r="D396" s="164"/>
+      <c r="E396" s="164"/>
     </row>
     <row r="397" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A397" s="52">
@@ -8141,9 +8251,9 @@
         <v>33</v>
       </c>
       <c r="B413" s="87"/>
-      <c r="C413" s="158"/>
-      <c r="D413" s="159"/>
-      <c r="E413" s="159"/>
+      <c r="C413" s="163"/>
+      <c r="D413" s="164"/>
+      <c r="E413" s="164"/>
     </row>
     <row r="414" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A414" s="52">
@@ -8294,9 +8404,9 @@
         <v>34</v>
       </c>
       <c r="B430" s="87"/>
-      <c r="C430" s="158"/>
-      <c r="D430" s="159"/>
-      <c r="E430" s="159"/>
+      <c r="C430" s="163"/>
+      <c r="D430" s="164"/>
+      <c r="E430" s="164"/>
     </row>
     <row r="431" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A431" s="52">
@@ -8447,9 +8557,9 @@
         <v>35</v>
       </c>
       <c r="B447" s="87"/>
-      <c r="C447" s="158"/>
-      <c r="D447" s="159"/>
-      <c r="E447" s="159"/>
+      <c r="C447" s="163"/>
+      <c r="D447" s="164"/>
+      <c r="E447" s="164"/>
     </row>
     <row r="448" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A448" s="52">
@@ -8600,9 +8710,9 @@
         <v>36</v>
       </c>
       <c r="B464" s="87"/>
-      <c r="C464" s="158"/>
-      <c r="D464" s="159"/>
-      <c r="E464" s="159"/>
+      <c r="C464" s="163"/>
+      <c r="D464" s="164"/>
+      <c r="E464" s="164"/>
     </row>
     <row r="465" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A465" s="52">
@@ -8753,9 +8863,9 @@
         <v>37</v>
       </c>
       <c r="B481" s="87"/>
-      <c r="C481" s="158"/>
-      <c r="D481" s="159"/>
-      <c r="E481" s="159"/>
+      <c r="C481" s="163"/>
+      <c r="D481" s="164"/>
+      <c r="E481" s="164"/>
     </row>
     <row r="482" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A482" s="52">
@@ -8906,9 +9016,9 @@
         <v>38</v>
       </c>
       <c r="B498" s="87"/>
-      <c r="C498" s="158"/>
-      <c r="D498" s="159"/>
-      <c r="E498" s="159"/>
+      <c r="C498" s="163"/>
+      <c r="D498" s="164"/>
+      <c r="E498" s="164"/>
     </row>
     <row r="499" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A499" s="52">
@@ -9059,9 +9169,9 @@
         <v>39</v>
       </c>
       <c r="B515" s="87"/>
-      <c r="C515" s="158"/>
-      <c r="D515" s="159"/>
-      <c r="E515" s="159"/>
+      <c r="C515" s="163"/>
+      <c r="D515" s="164"/>
+      <c r="E515" s="164"/>
     </row>
     <row r="516" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A516" s="52">
@@ -9212,9 +9322,9 @@
         <v>40</v>
       </c>
       <c r="B532" s="87"/>
-      <c r="C532" s="158"/>
-      <c r="D532" s="159"/>
-      <c r="E532" s="159"/>
+      <c r="C532" s="163"/>
+      <c r="D532" s="164"/>
+      <c r="E532" s="164"/>
     </row>
     <row r="533" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A533" s="55">
@@ -9365,18 +9475,18 @@
         <v>50</v>
       </c>
       <c r="B549" s="38"/>
-      <c r="C549" s="172"/>
-      <c r="D549" s="173"/>
-      <c r="E549" s="173"/>
+      <c r="C549" s="169"/>
+      <c r="D549" s="170"/>
+      <c r="E549" s="170"/>
     </row>
     <row r="550" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A550" s="58" t="s">
         <v>51</v>
       </c>
       <c r="B550" s="87"/>
-      <c r="C550" s="158"/>
-      <c r="D550" s="159"/>
-      <c r="E550" s="159"/>
+      <c r="C550" s="163"/>
+      <c r="D550" s="164"/>
+      <c r="E550" s="164"/>
     </row>
     <row r="551" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A551" s="59">
@@ -9527,9 +9637,9 @@
         <v>52</v>
       </c>
       <c r="B567" s="90"/>
-      <c r="C567" s="160"/>
-      <c r="D567" s="161"/>
-      <c r="E567" s="161"/>
+      <c r="C567" s="165"/>
+      <c r="D567" s="166"/>
+      <c r="E567" s="166"/>
     </row>
     <row r="568" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A568" s="59">
@@ -9680,9 +9790,9 @@
         <v>53</v>
       </c>
       <c r="B584" s="87"/>
-      <c r="C584" s="158"/>
-      <c r="D584" s="159"/>
-      <c r="E584" s="159"/>
+      <c r="C584" s="163"/>
+      <c r="D584" s="164"/>
+      <c r="E584" s="164"/>
     </row>
     <row r="585" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A585" s="59">
@@ -9833,9 +9943,9 @@
         <v>54</v>
       </c>
       <c r="B601" s="87"/>
-      <c r="C601" s="158"/>
-      <c r="D601" s="159"/>
-      <c r="E601" s="159"/>
+      <c r="C601" s="163"/>
+      <c r="D601" s="164"/>
+      <c r="E601" s="164"/>
     </row>
     <row r="602" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A602" s="59">
@@ -9986,9 +10096,9 @@
         <v>55</v>
       </c>
       <c r="B618" s="87"/>
-      <c r="C618" s="158"/>
-      <c r="D618" s="159"/>
-      <c r="E618" s="159"/>
+      <c r="C618" s="163"/>
+      <c r="D618" s="164"/>
+      <c r="E618" s="164"/>
     </row>
     <row r="619" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A619" s="59">
@@ -10139,9 +10249,9 @@
         <v>56</v>
       </c>
       <c r="B635" s="87"/>
-      <c r="C635" s="158"/>
-      <c r="D635" s="159"/>
-      <c r="E635" s="159"/>
+      <c r="C635" s="163"/>
+      <c r="D635" s="164"/>
+      <c r="E635" s="164"/>
     </row>
     <row r="636" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A636" s="59">
@@ -10292,9 +10402,9 @@
         <v>57</v>
       </c>
       <c r="B652" s="87"/>
-      <c r="C652" s="158"/>
-      <c r="D652" s="159"/>
-      <c r="E652" s="159"/>
+      <c r="C652" s="163"/>
+      <c r="D652" s="164"/>
+      <c r="E652" s="164"/>
     </row>
     <row r="653" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A653" s="59">
@@ -10445,9 +10555,9 @@
         <v>58</v>
       </c>
       <c r="B669" s="87"/>
-      <c r="C669" s="158"/>
-      <c r="D669" s="159"/>
-      <c r="E669" s="159"/>
+      <c r="C669" s="163"/>
+      <c r="D669" s="164"/>
+      <c r="E669" s="164"/>
     </row>
     <row r="670" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A670" s="59">
@@ -10598,9 +10708,9 @@
         <v>59</v>
       </c>
       <c r="B686" s="87"/>
-      <c r="C686" s="158"/>
-      <c r="D686" s="159"/>
-      <c r="E686" s="159"/>
+      <c r="C686" s="163"/>
+      <c r="D686" s="164"/>
+      <c r="E686" s="164"/>
     </row>
     <row r="687" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A687" s="59">
@@ -10751,9 +10861,9 @@
         <v>60</v>
       </c>
       <c r="B703" s="87"/>
-      <c r="C703" s="158"/>
-      <c r="D703" s="159"/>
-      <c r="E703" s="159"/>
+      <c r="C703" s="163"/>
+      <c r="D703" s="164"/>
+      <c r="E703" s="164"/>
     </row>
     <row r="704" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A704" s="59">
@@ -10904,9 +11014,9 @@
         <v>61</v>
       </c>
       <c r="B720" s="87"/>
-      <c r="C720" s="158"/>
-      <c r="D720" s="159"/>
-      <c r="E720" s="159"/>
+      <c r="C720" s="163"/>
+      <c r="D720" s="164"/>
+      <c r="E720" s="164"/>
     </row>
     <row r="721" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A721" s="59">
@@ -11057,9 +11167,9 @@
         <v>62</v>
       </c>
       <c r="B737" s="87"/>
-      <c r="C737" s="158"/>
-      <c r="D737" s="159"/>
-      <c r="E737" s="159"/>
+      <c r="C737" s="163"/>
+      <c r="D737" s="164"/>
+      <c r="E737" s="164"/>
     </row>
     <row r="738" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A738" s="59">
@@ -11210,9 +11320,9 @@
         <v>63</v>
       </c>
       <c r="B754" s="87"/>
-      <c r="C754" s="158"/>
-      <c r="D754" s="159"/>
-      <c r="E754" s="159"/>
+      <c r="C754" s="163"/>
+      <c r="D754" s="164"/>
+      <c r="E754" s="164"/>
     </row>
     <row r="755" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A755" s="59">
@@ -11363,9 +11473,9 @@
         <v>64</v>
       </c>
       <c r="B771" s="87"/>
-      <c r="C771" s="158"/>
-      <c r="D771" s="159"/>
-      <c r="E771" s="159"/>
+      <c r="C771" s="163"/>
+      <c r="D771" s="164"/>
+      <c r="E771" s="164"/>
     </row>
     <row r="772" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A772" s="59">
@@ -11516,9 +11626,9 @@
         <v>65</v>
       </c>
       <c r="B788" s="87"/>
-      <c r="C788" s="158"/>
-      <c r="D788" s="159"/>
-      <c r="E788" s="159"/>
+      <c r="C788" s="163"/>
+      <c r="D788" s="164"/>
+      <c r="E788" s="164"/>
     </row>
     <row r="789" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A789" s="59">
@@ -11669,9 +11779,9 @@
         <v>66</v>
       </c>
       <c r="B805" s="87"/>
-      <c r="C805" s="158"/>
-      <c r="D805" s="159"/>
-      <c r="E805" s="159"/>
+      <c r="C805" s="163"/>
+      <c r="D805" s="164"/>
+      <c r="E805" s="164"/>
     </row>
     <row r="806" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A806" s="59">
@@ -11822,18 +11932,18 @@
         <v>67</v>
       </c>
       <c r="B822" s="39"/>
-      <c r="C822" s="170"/>
-      <c r="D822" s="171"/>
-      <c r="E822" s="171"/>
+      <c r="C822" s="171"/>
+      <c r="D822" s="172"/>
+      <c r="E822" s="172"/>
     </row>
     <row r="823" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A823" s="63" t="s">
         <v>68</v>
       </c>
       <c r="B823" s="87"/>
-      <c r="C823" s="158"/>
-      <c r="D823" s="159"/>
-      <c r="E823" s="159"/>
+      <c r="C823" s="163"/>
+      <c r="D823" s="164"/>
+      <c r="E823" s="164"/>
     </row>
     <row r="824" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A824" s="64">
@@ -11984,9 +12094,9 @@
         <v>69</v>
       </c>
       <c r="B840" s="90"/>
-      <c r="C840" s="160"/>
-      <c r="D840" s="161"/>
-      <c r="E840" s="161"/>
+      <c r="C840" s="165"/>
+      <c r="D840" s="166"/>
+      <c r="E840" s="166"/>
     </row>
     <row r="841" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A841" s="64">
@@ -12137,9 +12247,9 @@
         <v>70</v>
       </c>
       <c r="B857" s="87"/>
-      <c r="C857" s="158"/>
-      <c r="D857" s="159"/>
-      <c r="E857" s="159"/>
+      <c r="C857" s="163"/>
+      <c r="D857" s="164"/>
+      <c r="E857" s="164"/>
     </row>
     <row r="858" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A858" s="64">
@@ -12290,9 +12400,9 @@
         <v>71</v>
       </c>
       <c r="B874" s="87"/>
-      <c r="C874" s="158"/>
-      <c r="D874" s="159"/>
-      <c r="E874" s="159"/>
+      <c r="C874" s="163"/>
+      <c r="D874" s="164"/>
+      <c r="E874" s="164"/>
     </row>
     <row r="875" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A875" s="64">
@@ -12443,9 +12553,9 @@
         <v>72</v>
       </c>
       <c r="B891" s="87"/>
-      <c r="C891" s="158"/>
-      <c r="D891" s="159"/>
-      <c r="E891" s="159"/>
+      <c r="C891" s="163"/>
+      <c r="D891" s="164"/>
+      <c r="E891" s="164"/>
     </row>
     <row r="892" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A892" s="64">
@@ -12596,9 +12706,9 @@
         <v>73</v>
       </c>
       <c r="B908" s="87"/>
-      <c r="C908" s="158"/>
-      <c r="D908" s="159"/>
-      <c r="E908" s="159"/>
+      <c r="C908" s="163"/>
+      <c r="D908" s="164"/>
+      <c r="E908" s="164"/>
     </row>
     <row r="909" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A909" s="64">
@@ -12749,9 +12859,9 @@
         <v>74</v>
       </c>
       <c r="B925" s="87"/>
-      <c r="C925" s="158"/>
-      <c r="D925" s="159"/>
-      <c r="E925" s="159"/>
+      <c r="C925" s="163"/>
+      <c r="D925" s="164"/>
+      <c r="E925" s="164"/>
     </row>
     <row r="926" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A926" s="64">
@@ -12902,9 +13012,9 @@
         <v>75</v>
       </c>
       <c r="B942" s="87"/>
-      <c r="C942" s="158"/>
-      <c r="D942" s="159"/>
-      <c r="E942" s="159"/>
+      <c r="C942" s="163"/>
+      <c r="D942" s="164"/>
+      <c r="E942" s="164"/>
     </row>
     <row r="943" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A943" s="64">
@@ -13055,9 +13165,9 @@
         <v>76</v>
       </c>
       <c r="B959" s="87"/>
-      <c r="C959" s="158"/>
-      <c r="D959" s="159"/>
-      <c r="E959" s="159"/>
+      <c r="C959" s="163"/>
+      <c r="D959" s="164"/>
+      <c r="E959" s="164"/>
     </row>
     <row r="960" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A960" s="64">
@@ -13208,9 +13318,9 @@
         <v>77</v>
       </c>
       <c r="B976" s="87"/>
-      <c r="C976" s="158"/>
-      <c r="D976" s="159"/>
-      <c r="E976" s="159"/>
+      <c r="C976" s="163"/>
+      <c r="D976" s="164"/>
+      <c r="E976" s="164"/>
     </row>
     <row r="977" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A977" s="64">
@@ -13361,9 +13471,9 @@
         <v>78</v>
       </c>
       <c r="B993" s="87"/>
-      <c r="C993" s="158"/>
-      <c r="D993" s="159"/>
-      <c r="E993" s="159"/>
+      <c r="C993" s="163"/>
+      <c r="D993" s="164"/>
+      <c r="E993" s="164"/>
     </row>
     <row r="994" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A994" s="64">
@@ -13514,9 +13624,9 @@
         <v>79</v>
       </c>
       <c r="B1010" s="87"/>
-      <c r="C1010" s="158"/>
-      <c r="D1010" s="159"/>
-      <c r="E1010" s="159"/>
+      <c r="C1010" s="163"/>
+      <c r="D1010" s="164"/>
+      <c r="E1010" s="164"/>
     </row>
     <row r="1011" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1011" s="64">
@@ -13667,9 +13777,9 @@
         <v>80</v>
       </c>
       <c r="B1027" s="87"/>
-      <c r="C1027" s="158"/>
-      <c r="D1027" s="159"/>
-      <c r="E1027" s="159"/>
+      <c r="C1027" s="163"/>
+      <c r="D1027" s="164"/>
+      <c r="E1027" s="164"/>
     </row>
     <row r="1028" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1028" s="64">
@@ -13820,9 +13930,9 @@
         <v>83</v>
       </c>
       <c r="B1044" s="87"/>
-      <c r="C1044" s="158"/>
-      <c r="D1044" s="159"/>
-      <c r="E1044" s="159"/>
+      <c r="C1044" s="163"/>
+      <c r="D1044" s="164"/>
+      <c r="E1044" s="164"/>
     </row>
     <row r="1045" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1045" s="64">
@@ -13973,9 +14083,9 @@
         <v>82</v>
       </c>
       <c r="B1061" s="87"/>
-      <c r="C1061" s="158"/>
-      <c r="D1061" s="159"/>
-      <c r="E1061" s="159"/>
+      <c r="C1061" s="163"/>
+      <c r="D1061" s="164"/>
+      <c r="E1061" s="164"/>
     </row>
     <row r="1062" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1062" s="64">
@@ -14126,9 +14236,9 @@
         <v>84</v>
       </c>
       <c r="B1078" s="87"/>
-      <c r="C1078" s="158"/>
-      <c r="D1078" s="159"/>
-      <c r="E1078" s="159"/>
+      <c r="C1078" s="163"/>
+      <c r="D1078" s="164"/>
+      <c r="E1078" s="164"/>
     </row>
     <row r="1079" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1079" s="64">
@@ -14279,18 +14389,18 @@
         <v>104</v>
       </c>
       <c r="B1095" s="40"/>
-      <c r="C1095" s="168"/>
-      <c r="D1095" s="169"/>
-      <c r="E1095" s="169"/>
+      <c r="C1095" s="173"/>
+      <c r="D1095" s="174"/>
+      <c r="E1095" s="174"/>
     </row>
     <row r="1096" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1096" s="68" t="s">
         <v>85</v>
       </c>
       <c r="B1096" s="87"/>
-      <c r="C1096" s="158"/>
-      <c r="D1096" s="159"/>
-      <c r="E1096" s="159"/>
+      <c r="C1096" s="163"/>
+      <c r="D1096" s="164"/>
+      <c r="E1096" s="164"/>
     </row>
     <row r="1097" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1097" s="69">
@@ -14441,9 +14551,9 @@
         <v>86</v>
       </c>
       <c r="B1113" s="90"/>
-      <c r="C1113" s="160"/>
-      <c r="D1113" s="161"/>
-      <c r="E1113" s="161"/>
+      <c r="C1113" s="165"/>
+      <c r="D1113" s="166"/>
+      <c r="E1113" s="166"/>
     </row>
     <row r="1114" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1114" s="69">
@@ -14594,9 +14704,9 @@
         <v>87</v>
       </c>
       <c r="B1130" s="87"/>
-      <c r="C1130" s="158"/>
-      <c r="D1130" s="159"/>
-      <c r="E1130" s="159"/>
+      <c r="C1130" s="163"/>
+      <c r="D1130" s="164"/>
+      <c r="E1130" s="164"/>
     </row>
     <row r="1131" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1131" s="69">
@@ -14747,9 +14857,9 @@
         <v>88</v>
       </c>
       <c r="B1147" s="87"/>
-      <c r="C1147" s="158"/>
-      <c r="D1147" s="159"/>
-      <c r="E1147" s="159"/>
+      <c r="C1147" s="163"/>
+      <c r="D1147" s="164"/>
+      <c r="E1147" s="164"/>
     </row>
     <row r="1148" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1148" s="69">
@@ -14900,9 +15010,9 @@
         <v>89</v>
       </c>
       <c r="B1164" s="87"/>
-      <c r="C1164" s="158"/>
-      <c r="D1164" s="159"/>
-      <c r="E1164" s="159"/>
+      <c r="C1164" s="163"/>
+      <c r="D1164" s="164"/>
+      <c r="E1164" s="164"/>
     </row>
     <row r="1165" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1165" s="69">
@@ -15053,9 +15163,9 @@
         <v>90</v>
       </c>
       <c r="B1181" s="87"/>
-      <c r="C1181" s="158"/>
-      <c r="D1181" s="159"/>
-      <c r="E1181" s="159"/>
+      <c r="C1181" s="163"/>
+      <c r="D1181" s="164"/>
+      <c r="E1181" s="164"/>
     </row>
     <row r="1182" spans="1:5" hidden="1" outlineLevel="3">
       <c r="A1182" s="69">
@@ -15206,9 +15316,9 @@
         <v>91</v>
       </c>
       <c r="B1198" s="87"/>
-      <c r="C1198" s="158"/>
-      <c r="D1198" s="159"/>
-      <c r="E1198" s="159"/>
+      <c r="C1198" s="163"/>
+      <c r="D1198" s="164"/>
+      <c r="E1198" s="164"/>
     </row>
     <row r="1199" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1199" s="69">
@@ -15359,9 +15469,9 @@
         <v>92</v>
       </c>
       <c r="B1215" s="87"/>
-      <c r="C1215" s="158"/>
-      <c r="D1215" s="159"/>
-      <c r="E1215" s="159"/>
+      <c r="C1215" s="163"/>
+      <c r="D1215" s="164"/>
+      <c r="E1215" s="164"/>
     </row>
     <row r="1216" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1216" s="69">
@@ -15512,9 +15622,9 @@
         <v>93</v>
       </c>
       <c r="B1232" s="87"/>
-      <c r="C1232" s="158"/>
-      <c r="D1232" s="159"/>
-      <c r="E1232" s="159"/>
+      <c r="C1232" s="163"/>
+      <c r="D1232" s="164"/>
+      <c r="E1232" s="164"/>
     </row>
     <row r="1233" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1233" s="69">
@@ -15665,9 +15775,9 @@
         <v>94</v>
       </c>
       <c r="B1249" s="87"/>
-      <c r="C1249" s="158"/>
-      <c r="D1249" s="159"/>
-      <c r="E1249" s="159"/>
+      <c r="C1249" s="163"/>
+      <c r="D1249" s="164"/>
+      <c r="E1249" s="164"/>
     </row>
     <row r="1250" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1250" s="69">
@@ -15818,9 +15928,9 @@
         <v>99</v>
       </c>
       <c r="B1266" s="87"/>
-      <c r="C1266" s="158"/>
-      <c r="D1266" s="159"/>
-      <c r="E1266" s="159"/>
+      <c r="C1266" s="163"/>
+      <c r="D1266" s="164"/>
+      <c r="E1266" s="164"/>
     </row>
     <row r="1267" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1267" s="69">
@@ -15971,9 +16081,9 @@
         <v>100</v>
       </c>
       <c r="B1283" s="87"/>
-      <c r="C1283" s="158"/>
-      <c r="D1283" s="159"/>
-      <c r="E1283" s="159"/>
+      <c r="C1283" s="163"/>
+      <c r="D1283" s="164"/>
+      <c r="E1283" s="164"/>
     </row>
     <row r="1284" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1284" s="69">
@@ -16124,9 +16234,9 @@
         <v>101</v>
       </c>
       <c r="B1300" s="87"/>
-      <c r="C1300" s="158"/>
-      <c r="D1300" s="159"/>
-      <c r="E1300" s="159"/>
+      <c r="C1300" s="163"/>
+      <c r="D1300" s="164"/>
+      <c r="E1300" s="164"/>
     </row>
     <row r="1301" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1301" s="69">
@@ -16277,9 +16387,9 @@
         <v>81</v>
       </c>
       <c r="B1317" s="87"/>
-      <c r="C1317" s="158"/>
-      <c r="D1317" s="159"/>
-      <c r="E1317" s="159"/>
+      <c r="C1317" s="163"/>
+      <c r="D1317" s="164"/>
+      <c r="E1317" s="164"/>
     </row>
     <row r="1318" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1318" s="69">
@@ -16430,9 +16540,9 @@
         <v>102</v>
       </c>
       <c r="B1334" s="87"/>
-      <c r="C1334" s="158"/>
-      <c r="D1334" s="159"/>
-      <c r="E1334" s="159"/>
+      <c r="C1334" s="163"/>
+      <c r="D1334" s="164"/>
+      <c r="E1334" s="164"/>
     </row>
     <row r="1335" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1335" s="69">
@@ -16583,9 +16693,9 @@
         <v>98</v>
       </c>
       <c r="B1351" s="87"/>
-      <c r="C1351" s="158"/>
-      <c r="D1351" s="159"/>
-      <c r="E1351" s="159"/>
+      <c r="C1351" s="163"/>
+      <c r="D1351" s="164"/>
+      <c r="E1351" s="164"/>
     </row>
     <row r="1352" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1352" s="69">
@@ -16736,18 +16846,18 @@
         <v>103</v>
       </c>
       <c r="B1368" s="41"/>
-      <c r="C1368" s="166"/>
-      <c r="D1368" s="167"/>
-      <c r="E1368" s="167"/>
+      <c r="C1368" s="175"/>
+      <c r="D1368" s="176"/>
+      <c r="E1368" s="176"/>
     </row>
     <row r="1369" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1369" s="73" t="s">
         <v>105</v>
       </c>
       <c r="B1369" s="87"/>
-      <c r="C1369" s="158"/>
-      <c r="D1369" s="159"/>
-      <c r="E1369" s="159"/>
+      <c r="C1369" s="163"/>
+      <c r="D1369" s="164"/>
+      <c r="E1369" s="164"/>
     </row>
     <row r="1370" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1370" s="74">
@@ -16898,9 +17008,9 @@
         <v>106</v>
       </c>
       <c r="B1386" s="90"/>
-      <c r="C1386" s="160"/>
-      <c r="D1386" s="161"/>
-      <c r="E1386" s="161"/>
+      <c r="C1386" s="165"/>
+      <c r="D1386" s="166"/>
+      <c r="E1386" s="166"/>
     </row>
     <row r="1387" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1387" s="74">
@@ -17051,9 +17161,9 @@
         <v>107</v>
       </c>
       <c r="B1403" s="87"/>
-      <c r="C1403" s="158"/>
-      <c r="D1403" s="159"/>
-      <c r="E1403" s="159"/>
+      <c r="C1403" s="163"/>
+      <c r="D1403" s="164"/>
+      <c r="E1403" s="164"/>
     </row>
     <row r="1404" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1404" s="74">
@@ -17204,9 +17314,9 @@
         <v>108</v>
       </c>
       <c r="B1420" s="87"/>
-      <c r="C1420" s="158"/>
-      <c r="D1420" s="159"/>
-      <c r="E1420" s="159"/>
+      <c r="C1420" s="163"/>
+      <c r="D1420" s="164"/>
+      <c r="E1420" s="164"/>
     </row>
     <row r="1421" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1421" s="74">
@@ -17357,9 +17467,9 @@
         <v>109</v>
       </c>
       <c r="B1437" s="87"/>
-      <c r="C1437" s="158"/>
-      <c r="D1437" s="159"/>
-      <c r="E1437" s="159"/>
+      <c r="C1437" s="163"/>
+      <c r="D1437" s="164"/>
+      <c r="E1437" s="164"/>
     </row>
     <row r="1438" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1438" s="74">
@@ -17510,9 +17620,9 @@
         <v>110</v>
       </c>
       <c r="B1454" s="87"/>
-      <c r="C1454" s="158"/>
-      <c r="D1454" s="159"/>
-      <c r="E1454" s="159"/>
+      <c r="C1454" s="163"/>
+      <c r="D1454" s="164"/>
+      <c r="E1454" s="164"/>
     </row>
     <row r="1455" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1455" s="74">
@@ -17663,9 +17773,9 @@
         <v>111</v>
       </c>
       <c r="B1471" s="87"/>
-      <c r="C1471" s="158"/>
-      <c r="D1471" s="159"/>
-      <c r="E1471" s="159"/>
+      <c r="C1471" s="163"/>
+      <c r="D1471" s="164"/>
+      <c r="E1471" s="164"/>
     </row>
     <row r="1472" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1472" s="74">
@@ -17816,9 +17926,9 @@
         <v>112</v>
       </c>
       <c r="B1488" s="87"/>
-      <c r="C1488" s="158"/>
-      <c r="D1488" s="159"/>
-      <c r="E1488" s="159"/>
+      <c r="C1488" s="163"/>
+      <c r="D1488" s="164"/>
+      <c r="E1488" s="164"/>
     </row>
     <row r="1489" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1489" s="74">
@@ -17969,9 +18079,9 @@
         <v>113</v>
       </c>
       <c r="B1505" s="87"/>
-      <c r="C1505" s="158"/>
-      <c r="D1505" s="159"/>
-      <c r="E1505" s="159"/>
+      <c r="C1505" s="163"/>
+      <c r="D1505" s="164"/>
+      <c r="E1505" s="164"/>
     </row>
     <row r="1506" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1506" s="74">
@@ -18122,9 +18232,9 @@
         <v>114</v>
       </c>
       <c r="B1522" s="87"/>
-      <c r="C1522" s="158"/>
-      <c r="D1522" s="159"/>
-      <c r="E1522" s="159"/>
+      <c r="C1522" s="163"/>
+      <c r="D1522" s="164"/>
+      <c r="E1522" s="164"/>
     </row>
     <row r="1523" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1523" s="74">
@@ -18275,9 +18385,9 @@
         <v>95</v>
       </c>
       <c r="B1539" s="87"/>
-      <c r="C1539" s="158"/>
-      <c r="D1539" s="159"/>
-      <c r="E1539" s="159"/>
+      <c r="C1539" s="163"/>
+      <c r="D1539" s="164"/>
+      <c r="E1539" s="164"/>
     </row>
     <row r="1540" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1540" s="74">
@@ -18428,9 +18538,9 @@
         <v>115</v>
       </c>
       <c r="B1556" s="87"/>
-      <c r="C1556" s="158"/>
-      <c r="D1556" s="159"/>
-      <c r="E1556" s="159"/>
+      <c r="C1556" s="163"/>
+      <c r="D1556" s="164"/>
+      <c r="E1556" s="164"/>
     </row>
     <row r="1557" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1557" s="74">
@@ -18581,9 +18691,9 @@
         <v>116</v>
       </c>
       <c r="B1573" s="87"/>
-      <c r="C1573" s="158"/>
-      <c r="D1573" s="159"/>
-      <c r="E1573" s="159"/>
+      <c r="C1573" s="163"/>
+      <c r="D1573" s="164"/>
+      <c r="E1573" s="164"/>
     </row>
     <row r="1574" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1574" s="74">
@@ -18734,9 +18844,9 @@
         <v>117</v>
       </c>
       <c r="B1590" s="87"/>
-      <c r="C1590" s="158"/>
-      <c r="D1590" s="159"/>
-      <c r="E1590" s="159"/>
+      <c r="C1590" s="163"/>
+      <c r="D1590" s="164"/>
+      <c r="E1590" s="164"/>
     </row>
     <row r="1591" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1591" s="74">
@@ -18887,9 +18997,9 @@
         <v>118</v>
       </c>
       <c r="B1607" s="87"/>
-      <c r="C1607" s="158"/>
-      <c r="D1607" s="159"/>
-      <c r="E1607" s="159"/>
+      <c r="C1607" s="163"/>
+      <c r="D1607" s="164"/>
+      <c r="E1607" s="164"/>
     </row>
     <row r="1608" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1608" s="74">
@@ -19040,9 +19150,9 @@
         <v>119</v>
       </c>
       <c r="B1624" s="87"/>
-      <c r="C1624" s="158"/>
-      <c r="D1624" s="159"/>
-      <c r="E1624" s="159"/>
+      <c r="C1624" s="163"/>
+      <c r="D1624" s="164"/>
+      <c r="E1624" s="164"/>
     </row>
     <row r="1625" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1625" s="74">
@@ -19193,18 +19303,18 @@
         <v>120</v>
       </c>
       <c r="B1641" s="42"/>
-      <c r="C1641" s="164"/>
-      <c r="D1641" s="165"/>
-      <c r="E1641" s="165"/>
+      <c r="C1641" s="177"/>
+      <c r="D1641" s="178"/>
+      <c r="E1641" s="178"/>
     </row>
     <row r="1642" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1642" s="78" t="s">
         <v>121</v>
       </c>
       <c r="B1642" s="87"/>
-      <c r="C1642" s="158"/>
-      <c r="D1642" s="159"/>
-      <c r="E1642" s="159"/>
+      <c r="C1642" s="163"/>
+      <c r="D1642" s="164"/>
+      <c r="E1642" s="164"/>
     </row>
     <row r="1643" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1643" s="79">
@@ -19355,9 +19465,9 @@
         <v>122</v>
       </c>
       <c r="B1659" s="90"/>
-      <c r="C1659" s="160"/>
-      <c r="D1659" s="161"/>
-      <c r="E1659" s="161"/>
+      <c r="C1659" s="165"/>
+      <c r="D1659" s="166"/>
+      <c r="E1659" s="166"/>
     </row>
     <row r="1660" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1660" s="79">
@@ -19508,9 +19618,9 @@
         <v>123</v>
       </c>
       <c r="B1676" s="87"/>
-      <c r="C1676" s="158"/>
-      <c r="D1676" s="159"/>
-      <c r="E1676" s="159"/>
+      <c r="C1676" s="163"/>
+      <c r="D1676" s="164"/>
+      <c r="E1676" s="164"/>
     </row>
     <row r="1677" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1677" s="79">
@@ -19661,9 +19771,9 @@
         <v>124</v>
       </c>
       <c r="B1693" s="87"/>
-      <c r="C1693" s="158"/>
-      <c r="D1693" s="159"/>
-      <c r="E1693" s="159"/>
+      <c r="C1693" s="163"/>
+      <c r="D1693" s="164"/>
+      <c r="E1693" s="164"/>
     </row>
     <row r="1694" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1694" s="79">
@@ -19814,9 +19924,9 @@
         <v>125</v>
       </c>
       <c r="B1710" s="87"/>
-      <c r="C1710" s="158"/>
-      <c r="D1710" s="159"/>
-      <c r="E1710" s="159"/>
+      <c r="C1710" s="163"/>
+      <c r="D1710" s="164"/>
+      <c r="E1710" s="164"/>
     </row>
     <row r="1711" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1711" s="79">
@@ -19967,9 +20077,9 @@
         <v>126</v>
       </c>
       <c r="B1727" s="87"/>
-      <c r="C1727" s="158"/>
-      <c r="D1727" s="159"/>
-      <c r="E1727" s="159"/>
+      <c r="C1727" s="163"/>
+      <c r="D1727" s="164"/>
+      <c r="E1727" s="164"/>
     </row>
     <row r="1728" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1728" s="79">
@@ -20120,9 +20230,9 @@
         <v>127</v>
       </c>
       <c r="B1744" s="87"/>
-      <c r="C1744" s="158"/>
-      <c r="D1744" s="159"/>
-      <c r="E1744" s="159"/>
+      <c r="C1744" s="163"/>
+      <c r="D1744" s="164"/>
+      <c r="E1744" s="164"/>
     </row>
     <row r="1745" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1745" s="79">
@@ -20273,9 +20383,9 @@
         <v>128</v>
       </c>
       <c r="B1761" s="87"/>
-      <c r="C1761" s="158"/>
-      <c r="D1761" s="159"/>
-      <c r="E1761" s="159"/>
+      <c r="C1761" s="163"/>
+      <c r="D1761" s="164"/>
+      <c r="E1761" s="164"/>
     </row>
     <row r="1762" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1762" s="79">
@@ -20426,9 +20536,9 @@
         <v>129</v>
       </c>
       <c r="B1778" s="87"/>
-      <c r="C1778" s="158"/>
-      <c r="D1778" s="159"/>
-      <c r="E1778" s="159"/>
+      <c r="C1778" s="163"/>
+      <c r="D1778" s="164"/>
+      <c r="E1778" s="164"/>
     </row>
     <row r="1779" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1779" s="79">
@@ -20579,9 +20689,9 @@
         <v>130</v>
       </c>
       <c r="B1795" s="87"/>
-      <c r="C1795" s="158"/>
-      <c r="D1795" s="159"/>
-      <c r="E1795" s="159"/>
+      <c r="C1795" s="163"/>
+      <c r="D1795" s="164"/>
+      <c r="E1795" s="164"/>
     </row>
     <row r="1796" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1796" s="79">
@@ -20732,9 +20842,9 @@
         <v>131</v>
       </c>
       <c r="B1812" s="87"/>
-      <c r="C1812" s="158"/>
-      <c r="D1812" s="159"/>
-      <c r="E1812" s="159"/>
+      <c r="C1812" s="163"/>
+      <c r="D1812" s="164"/>
+      <c r="E1812" s="164"/>
     </row>
     <row r="1813" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1813" s="79">
@@ -20885,9 +20995,9 @@
         <v>96</v>
       </c>
       <c r="B1829" s="87"/>
-      <c r="C1829" s="158"/>
-      <c r="D1829" s="159"/>
-      <c r="E1829" s="159"/>
+      <c r="C1829" s="163"/>
+      <c r="D1829" s="164"/>
+      <c r="E1829" s="164"/>
     </row>
     <row r="1830" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1830" s="79">
@@ -21038,9 +21148,9 @@
         <v>132</v>
       </c>
       <c r="B1846" s="87"/>
-      <c r="C1846" s="158"/>
-      <c r="D1846" s="159"/>
-      <c r="E1846" s="159"/>
+      <c r="C1846" s="163"/>
+      <c r="D1846" s="164"/>
+      <c r="E1846" s="164"/>
     </row>
     <row r="1847" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1847" s="79">
@@ -21191,9 +21301,9 @@
         <v>133</v>
       </c>
       <c r="B1863" s="87"/>
-      <c r="C1863" s="158"/>
-      <c r="D1863" s="159"/>
-      <c r="E1863" s="159"/>
+      <c r="C1863" s="163"/>
+      <c r="D1863" s="164"/>
+      <c r="E1863" s="164"/>
     </row>
     <row r="1864" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1864" s="79">
@@ -21344,9 +21454,9 @@
         <v>134</v>
       </c>
       <c r="B1880" s="87"/>
-      <c r="C1880" s="158"/>
-      <c r="D1880" s="159"/>
-      <c r="E1880" s="159"/>
+      <c r="C1880" s="163"/>
+      <c r="D1880" s="164"/>
+      <c r="E1880" s="164"/>
     </row>
     <row r="1881" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1881" s="79">
@@ -21497,9 +21607,9 @@
         <v>135</v>
       </c>
       <c r="B1897" s="87"/>
-      <c r="C1897" s="158"/>
-      <c r="D1897" s="159"/>
-      <c r="E1897" s="159"/>
+      <c r="C1897" s="163"/>
+      <c r="D1897" s="164"/>
+      <c r="E1897" s="164"/>
     </row>
     <row r="1898" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1898" s="79">
@@ -21650,18 +21760,18 @@
         <v>136</v>
       </c>
       <c r="B1914" s="43"/>
-      <c r="C1914" s="162"/>
-      <c r="D1914" s="163"/>
-      <c r="E1914" s="163"/>
+      <c r="C1914" s="179"/>
+      <c r="D1914" s="180"/>
+      <c r="E1914" s="180"/>
     </row>
     <row r="1915" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1915" s="83" t="s">
         <v>137</v>
       </c>
       <c r="B1915" s="87"/>
-      <c r="C1915" s="158"/>
-      <c r="D1915" s="159"/>
-      <c r="E1915" s="159"/>
+      <c r="C1915" s="163"/>
+      <c r="D1915" s="164"/>
+      <c r="E1915" s="164"/>
     </row>
     <row r="1916" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1916" s="84">
@@ -21812,9 +21922,9 @@
         <v>138</v>
       </c>
       <c r="B1932" s="90"/>
-      <c r="C1932" s="160"/>
-      <c r="D1932" s="161"/>
-      <c r="E1932" s="161"/>
+      <c r="C1932" s="165"/>
+      <c r="D1932" s="166"/>
+      <c r="E1932" s="166"/>
     </row>
     <row r="1933" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1933" s="84">
@@ -21965,9 +22075,9 @@
         <v>139</v>
       </c>
       <c r="B1949" s="87"/>
-      <c r="C1949" s="158"/>
-      <c r="D1949" s="159"/>
-      <c r="E1949" s="159"/>
+      <c r="C1949" s="163"/>
+      <c r="D1949" s="164"/>
+      <c r="E1949" s="164"/>
     </row>
     <row r="1950" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1950" s="84">
@@ -22118,9 +22228,9 @@
         <v>140</v>
       </c>
       <c r="B1966" s="87"/>
-      <c r="C1966" s="158"/>
-      <c r="D1966" s="159"/>
-      <c r="E1966" s="159"/>
+      <c r="C1966" s="163"/>
+      <c r="D1966" s="164"/>
+      <c r="E1966" s="164"/>
     </row>
     <row r="1967" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1967" s="84">
@@ -22271,9 +22381,9 @@
         <v>141</v>
       </c>
       <c r="B1983" s="87"/>
-      <c r="C1983" s="158"/>
-      <c r="D1983" s="159"/>
-      <c r="E1983" s="159"/>
+      <c r="C1983" s="163"/>
+      <c r="D1983" s="164"/>
+      <c r="E1983" s="164"/>
     </row>
     <row r="1984" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1984" s="84">
@@ -22424,9 +22534,9 @@
         <v>142</v>
       </c>
       <c r="B2000" s="87"/>
-      <c r="C2000" s="158"/>
-      <c r="D2000" s="159"/>
-      <c r="E2000" s="159"/>
+      <c r="C2000" s="163"/>
+      <c r="D2000" s="164"/>
+      <c r="E2000" s="164"/>
     </row>
     <row r="2001" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2001" s="84">
@@ -22577,9 +22687,9 @@
         <v>143</v>
       </c>
       <c r="B2017" s="87"/>
-      <c r="C2017" s="158"/>
-      <c r="D2017" s="159"/>
-      <c r="E2017" s="159"/>
+      <c r="C2017" s="163"/>
+      <c r="D2017" s="164"/>
+      <c r="E2017" s="164"/>
     </row>
     <row r="2018" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2018" s="84">
@@ -22730,9 +22840,9 @@
         <v>144</v>
       </c>
       <c r="B2034" s="87"/>
-      <c r="C2034" s="158"/>
-      <c r="D2034" s="159"/>
-      <c r="E2034" s="159"/>
+      <c r="C2034" s="163"/>
+      <c r="D2034" s="164"/>
+      <c r="E2034" s="164"/>
     </row>
     <row r="2035" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2035" s="84">
@@ -22883,9 +22993,9 @@
         <v>145</v>
       </c>
       <c r="B2051" s="87"/>
-      <c r="C2051" s="158"/>
-      <c r="D2051" s="159"/>
-      <c r="E2051" s="159"/>
+      <c r="C2051" s="163"/>
+      <c r="D2051" s="164"/>
+      <c r="E2051" s="164"/>
     </row>
     <row r="2052" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2052" s="84">
@@ -23036,9 +23146,9 @@
         <v>146</v>
       </c>
       <c r="B2068" s="87"/>
-      <c r="C2068" s="158"/>
-      <c r="D2068" s="159"/>
-      <c r="E2068" s="159"/>
+      <c r="C2068" s="163"/>
+      <c r="D2068" s="164"/>
+      <c r="E2068" s="164"/>
     </row>
     <row r="2069" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2069" s="84">
@@ -23189,9 +23299,9 @@
         <v>147</v>
       </c>
       <c r="B2085" s="87"/>
-      <c r="C2085" s="158"/>
-      <c r="D2085" s="159"/>
-      <c r="E2085" s="159"/>
+      <c r="C2085" s="163"/>
+      <c r="D2085" s="164"/>
+      <c r="E2085" s="164"/>
     </row>
     <row r="2086" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2086" s="84">
@@ -23342,9 +23452,9 @@
         <v>148</v>
       </c>
       <c r="B2102" s="87"/>
-      <c r="C2102" s="158"/>
-      <c r="D2102" s="159"/>
-      <c r="E2102" s="159"/>
+      <c r="C2102" s="163"/>
+      <c r="D2102" s="164"/>
+      <c r="E2102" s="164"/>
     </row>
     <row r="2103" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2103" s="84">
@@ -23495,9 +23605,9 @@
         <v>97</v>
       </c>
       <c r="B2119" s="87"/>
-      <c r="C2119" s="158"/>
-      <c r="D2119" s="159"/>
-      <c r="E2119" s="159"/>
+      <c r="C2119" s="163"/>
+      <c r="D2119" s="164"/>
+      <c r="E2119" s="164"/>
     </row>
     <row r="2120" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2120" s="84">
@@ -23648,9 +23758,9 @@
         <v>149</v>
       </c>
       <c r="B2136" s="87"/>
-      <c r="C2136" s="158"/>
-      <c r="D2136" s="159"/>
-      <c r="E2136" s="159"/>
+      <c r="C2136" s="163"/>
+      <c r="D2136" s="164"/>
+      <c r="E2136" s="164"/>
     </row>
     <row r="2137" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2137" s="84">
@@ -23801,9 +23911,9 @@
         <v>150</v>
       </c>
       <c r="B2153" s="87"/>
-      <c r="C2153" s="158"/>
-      <c r="D2153" s="159"/>
-      <c r="E2153" s="159"/>
+      <c r="C2153" s="163"/>
+      <c r="D2153" s="164"/>
+      <c r="E2153" s="164"/>
     </row>
     <row r="2154" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2154" s="84">
@@ -23954,9 +24064,9 @@
         <v>151</v>
       </c>
       <c r="B2170" s="87"/>
-      <c r="C2170" s="158"/>
-      <c r="D2170" s="159"/>
-      <c r="E2170" s="159"/>
+      <c r="C2170" s="163"/>
+      <c r="D2170" s="164"/>
+      <c r="E2170" s="164"/>
     </row>
     <row r="2171" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2171" s="84">
@@ -24104,26 +24214,111 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C208:E208"/>
-    <mergeCell ref="C225:E225"/>
-    <mergeCell ref="C242:E242"/>
-    <mergeCell ref="C259:E259"/>
-    <mergeCell ref="C276:E276"/>
-    <mergeCell ref="C277:E277"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="C174:E174"/>
-    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="C2034:E2034"/>
+    <mergeCell ref="C2051:E2051"/>
+    <mergeCell ref="C2068:E2068"/>
+    <mergeCell ref="C2085:E2085"/>
+    <mergeCell ref="C2170:E2170"/>
+    <mergeCell ref="C2102:E2102"/>
+    <mergeCell ref="C2119:E2119"/>
+    <mergeCell ref="C2136:E2136"/>
+    <mergeCell ref="C2153:E2153"/>
+    <mergeCell ref="C1932:E1932"/>
+    <mergeCell ref="C1949:E1949"/>
+    <mergeCell ref="C1966:E1966"/>
+    <mergeCell ref="C1983:E1983"/>
+    <mergeCell ref="C2000:E2000"/>
+    <mergeCell ref="C2017:E2017"/>
+    <mergeCell ref="C1846:E1846"/>
+    <mergeCell ref="C1863:E1863"/>
+    <mergeCell ref="C1880:E1880"/>
+    <mergeCell ref="C1897:E1897"/>
+    <mergeCell ref="C1914:E1914"/>
+    <mergeCell ref="C1915:E1915"/>
+    <mergeCell ref="C1744:E1744"/>
+    <mergeCell ref="C1761:E1761"/>
+    <mergeCell ref="C1778:E1778"/>
+    <mergeCell ref="C1795:E1795"/>
+    <mergeCell ref="C1812:E1812"/>
+    <mergeCell ref="C1829:E1829"/>
+    <mergeCell ref="C1642:E1642"/>
+    <mergeCell ref="C1659:E1659"/>
+    <mergeCell ref="C1676:E1676"/>
+    <mergeCell ref="C1693:E1693"/>
+    <mergeCell ref="C1710:E1710"/>
+    <mergeCell ref="C1727:E1727"/>
+    <mergeCell ref="C1556:E1556"/>
+    <mergeCell ref="C1573:E1573"/>
+    <mergeCell ref="C1590:E1590"/>
+    <mergeCell ref="C1607:E1607"/>
+    <mergeCell ref="C1624:E1624"/>
+    <mergeCell ref="C1641:E1641"/>
+    <mergeCell ref="C1454:E1454"/>
+    <mergeCell ref="C1471:E1471"/>
+    <mergeCell ref="C1488:E1488"/>
+    <mergeCell ref="C1505:E1505"/>
+    <mergeCell ref="C1522:E1522"/>
+    <mergeCell ref="C1539:E1539"/>
+    <mergeCell ref="C1368:E1368"/>
+    <mergeCell ref="C1369:E1369"/>
+    <mergeCell ref="C1386:E1386"/>
+    <mergeCell ref="C1403:E1403"/>
+    <mergeCell ref="C1420:E1420"/>
+    <mergeCell ref="C1437:E1437"/>
+    <mergeCell ref="C1266:E1266"/>
+    <mergeCell ref="C1283:E1283"/>
+    <mergeCell ref="C1300:E1300"/>
+    <mergeCell ref="C1317:E1317"/>
+    <mergeCell ref="C1334:E1334"/>
+    <mergeCell ref="C1351:E1351"/>
+    <mergeCell ref="C1164:E1164"/>
+    <mergeCell ref="C1181:E1181"/>
+    <mergeCell ref="C1198:E1198"/>
+    <mergeCell ref="C1215:E1215"/>
+    <mergeCell ref="C1232:E1232"/>
+    <mergeCell ref="C1249:E1249"/>
+    <mergeCell ref="C1078:E1078"/>
+    <mergeCell ref="C1095:E1095"/>
+    <mergeCell ref="C1096:E1096"/>
+    <mergeCell ref="C1113:E1113"/>
+    <mergeCell ref="C1130:E1130"/>
+    <mergeCell ref="C1147:E1147"/>
+    <mergeCell ref="C976:E976"/>
+    <mergeCell ref="C993:E993"/>
+    <mergeCell ref="C1010:E1010"/>
+    <mergeCell ref="C1027:E1027"/>
+    <mergeCell ref="C1044:E1044"/>
+    <mergeCell ref="C1061:E1061"/>
+    <mergeCell ref="C874:E874"/>
+    <mergeCell ref="C891:E891"/>
+    <mergeCell ref="C908:E908"/>
+    <mergeCell ref="C925:E925"/>
+    <mergeCell ref="C942:E942"/>
+    <mergeCell ref="C959:E959"/>
+    <mergeCell ref="C788:E788"/>
+    <mergeCell ref="C805:E805"/>
+    <mergeCell ref="C822:E822"/>
+    <mergeCell ref="C823:E823"/>
+    <mergeCell ref="C840:E840"/>
+    <mergeCell ref="C857:E857"/>
+    <mergeCell ref="C686:E686"/>
+    <mergeCell ref="C703:E703"/>
+    <mergeCell ref="C720:E720"/>
+    <mergeCell ref="C737:E737"/>
+    <mergeCell ref="C754:E754"/>
+    <mergeCell ref="C771:E771"/>
+    <mergeCell ref="C584:E584"/>
+    <mergeCell ref="C601:E601"/>
+    <mergeCell ref="C618:E618"/>
+    <mergeCell ref="C635:E635"/>
+    <mergeCell ref="C652:E652"/>
+    <mergeCell ref="C669:E669"/>
+    <mergeCell ref="C498:E498"/>
+    <mergeCell ref="C515:E515"/>
+    <mergeCell ref="C532:E532"/>
+    <mergeCell ref="C549:E549"/>
+    <mergeCell ref="C550:E550"/>
+    <mergeCell ref="C567:E567"/>
     <mergeCell ref="C396:E396"/>
     <mergeCell ref="C413:E413"/>
     <mergeCell ref="C430:E430"/>
@@ -24136,113 +24331,28 @@
     <mergeCell ref="C345:E345"/>
     <mergeCell ref="C362:E362"/>
     <mergeCell ref="C379:E379"/>
-    <mergeCell ref="C584:E584"/>
-    <mergeCell ref="C601:E601"/>
-    <mergeCell ref="C618:E618"/>
-    <mergeCell ref="C635:E635"/>
-    <mergeCell ref="C652:E652"/>
-    <mergeCell ref="C669:E669"/>
-    <mergeCell ref="C498:E498"/>
-    <mergeCell ref="C515:E515"/>
-    <mergeCell ref="C532:E532"/>
-    <mergeCell ref="C549:E549"/>
-    <mergeCell ref="C550:E550"/>
-    <mergeCell ref="C567:E567"/>
-    <mergeCell ref="C788:E788"/>
-    <mergeCell ref="C805:E805"/>
-    <mergeCell ref="C822:E822"/>
-    <mergeCell ref="C823:E823"/>
-    <mergeCell ref="C840:E840"/>
-    <mergeCell ref="C857:E857"/>
-    <mergeCell ref="C686:E686"/>
-    <mergeCell ref="C703:E703"/>
-    <mergeCell ref="C720:E720"/>
-    <mergeCell ref="C737:E737"/>
-    <mergeCell ref="C754:E754"/>
-    <mergeCell ref="C771:E771"/>
-    <mergeCell ref="C976:E976"/>
-    <mergeCell ref="C993:E993"/>
-    <mergeCell ref="C1010:E1010"/>
-    <mergeCell ref="C1027:E1027"/>
-    <mergeCell ref="C1044:E1044"/>
-    <mergeCell ref="C1061:E1061"/>
-    <mergeCell ref="C874:E874"/>
-    <mergeCell ref="C891:E891"/>
-    <mergeCell ref="C908:E908"/>
-    <mergeCell ref="C925:E925"/>
-    <mergeCell ref="C942:E942"/>
-    <mergeCell ref="C959:E959"/>
-    <mergeCell ref="C1164:E1164"/>
-    <mergeCell ref="C1181:E1181"/>
-    <mergeCell ref="C1198:E1198"/>
-    <mergeCell ref="C1215:E1215"/>
-    <mergeCell ref="C1232:E1232"/>
-    <mergeCell ref="C1249:E1249"/>
-    <mergeCell ref="C1078:E1078"/>
-    <mergeCell ref="C1095:E1095"/>
-    <mergeCell ref="C1096:E1096"/>
-    <mergeCell ref="C1113:E1113"/>
-    <mergeCell ref="C1130:E1130"/>
-    <mergeCell ref="C1147:E1147"/>
-    <mergeCell ref="C1368:E1368"/>
-    <mergeCell ref="C1369:E1369"/>
-    <mergeCell ref="C1386:E1386"/>
-    <mergeCell ref="C1403:E1403"/>
-    <mergeCell ref="C1420:E1420"/>
-    <mergeCell ref="C1437:E1437"/>
-    <mergeCell ref="C1266:E1266"/>
-    <mergeCell ref="C1283:E1283"/>
-    <mergeCell ref="C1300:E1300"/>
-    <mergeCell ref="C1317:E1317"/>
-    <mergeCell ref="C1334:E1334"/>
-    <mergeCell ref="C1351:E1351"/>
-    <mergeCell ref="C1556:E1556"/>
-    <mergeCell ref="C1573:E1573"/>
-    <mergeCell ref="C1590:E1590"/>
-    <mergeCell ref="C1607:E1607"/>
-    <mergeCell ref="C1624:E1624"/>
-    <mergeCell ref="C1641:E1641"/>
-    <mergeCell ref="C1454:E1454"/>
-    <mergeCell ref="C1471:E1471"/>
-    <mergeCell ref="C1488:E1488"/>
-    <mergeCell ref="C1505:E1505"/>
-    <mergeCell ref="C1522:E1522"/>
-    <mergeCell ref="C1539:E1539"/>
-    <mergeCell ref="C1744:E1744"/>
-    <mergeCell ref="C1761:E1761"/>
-    <mergeCell ref="C1778:E1778"/>
-    <mergeCell ref="C1795:E1795"/>
-    <mergeCell ref="C1812:E1812"/>
-    <mergeCell ref="C1829:E1829"/>
-    <mergeCell ref="C1642:E1642"/>
-    <mergeCell ref="C1659:E1659"/>
-    <mergeCell ref="C1676:E1676"/>
-    <mergeCell ref="C1693:E1693"/>
-    <mergeCell ref="C1710:E1710"/>
-    <mergeCell ref="C1727:E1727"/>
-    <mergeCell ref="C1932:E1932"/>
-    <mergeCell ref="C1949:E1949"/>
-    <mergeCell ref="C1966:E1966"/>
-    <mergeCell ref="C1983:E1983"/>
-    <mergeCell ref="C2000:E2000"/>
-    <mergeCell ref="C2017:E2017"/>
-    <mergeCell ref="C1846:E1846"/>
-    <mergeCell ref="C1863:E1863"/>
-    <mergeCell ref="C1880:E1880"/>
-    <mergeCell ref="C1897:E1897"/>
-    <mergeCell ref="C1914:E1914"/>
-    <mergeCell ref="C1915:E1915"/>
-    <mergeCell ref="C2034:E2034"/>
-    <mergeCell ref="C2051:E2051"/>
-    <mergeCell ref="C2068:E2068"/>
-    <mergeCell ref="C2085:E2085"/>
-    <mergeCell ref="C2170:E2170"/>
-    <mergeCell ref="C2102:E2102"/>
-    <mergeCell ref="C2119:E2119"/>
-    <mergeCell ref="C2136:E2136"/>
-    <mergeCell ref="C2153:E2153"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="C242:E242"/>
+    <mergeCell ref="C259:E259"/>
+    <mergeCell ref="C276:E276"/>
+    <mergeCell ref="C277:E277"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C208:E208"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -24267,51 +24377,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" thickBot="1">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="187" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" thickBot="1">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="184" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="184"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="186"/>
     </row>
     <row r="3" spans="1:12" s="31" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="181" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="181"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="183"/>
     </row>
     <row r="4" spans="1:12" s="27" customFormat="1">
       <c r="A4" s="28" t="s">
@@ -24528,19 +24638,19 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="179" t="s">
+      <c r="A20" s="181" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="180"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="180"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="180"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="181"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="182"/>
+      <c r="J20" s="182"/>
+      <c r="K20" s="183"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="28" t="s">
@@ -24757,19 +24867,19 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A37" s="179" t="s">
+      <c r="A37" s="181" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="180"/>
-      <c r="C37" s="180"/>
-      <c r="D37" s="180"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="180"/>
-      <c r="H37" s="180"/>
-      <c r="I37" s="180"/>
-      <c r="J37" s="180"/>
-      <c r="K37" s="181"/>
+      <c r="B37" s="182"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="182"/>
+      <c r="E37" s="182"/>
+      <c r="F37" s="182"/>
+      <c r="G37" s="182"/>
+      <c r="H37" s="182"/>
+      <c r="I37" s="182"/>
+      <c r="J37" s="182"/>
+      <c r="K37" s="183"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="28" t="s">
@@ -24993,7 +25103,7 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A20:K20"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -25027,28 +25137,28 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="186"/>
+      <c r="A3" s="188"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="187"/>
+      <c r="A4" s="189"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="187"/>
+      <c r="A5" s="189"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="187"/>
+      <c r="A6" s="189"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="187"/>
+      <c r="A7" s="189"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="187"/>
+      <c r="A8" s="189"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="187"/>
+      <c r="A9" s="189"/>
     </row>
     <row r="10" spans="1:1" ht="13.5" thickBot="1">
-      <c r="A10" s="188"/>
+      <c r="A10" s="190"/>
     </row>
     <row r="11" spans="1:1" ht="27" customHeight="1">
       <c r="A11" s="22" t="s">
@@ -25204,7 +25314,7 @@
   <mergeCells count="1">
     <mergeCell ref="A3:A10"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -25231,10 +25341,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="191" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="190"/>
+      <c r="C1" s="192"/>
       <c r="D1" s="92"/>
       <c r="E1" s="32"/>
     </row>
@@ -25245,7 +25355,7 @@
       <c r="E2" s="119"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="193" t="s">
         <v>210</v>
       </c>
       <c r="B3" s="131" t="s">
@@ -25259,7 +25369,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="192"/>
+      <c r="A4" s="194"/>
       <c r="B4" s="128" t="s">
         <v>159</v>
       </c>
@@ -25271,7 +25381,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="192"/>
+      <c r="A5" s="194"/>
       <c r="B5" s="128" t="s">
         <v>160</v>
       </c>
@@ -25280,7 +25390,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="192"/>
+      <c r="A6" s="194"/>
       <c r="B6" s="139" t="s">
         <v>212</v>
       </c>
@@ -25292,7 +25402,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="192"/>
+      <c r="A7" s="194"/>
       <c r="B7" s="128" t="s">
         <v>178</v>
       </c>
@@ -25304,7 +25414,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="192"/>
+      <c r="A8" s="194"/>
       <c r="B8" s="128" t="s">
         <v>179</v>
       </c>
@@ -25313,7 +25423,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A9" s="193"/>
+      <c r="A9" s="195"/>
       <c r="B9" s="136" t="s">
         <v>161</v>
       </c>
@@ -25328,7 +25438,7 @@
       <c r="E10" s="94"/>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A11" s="191" t="s">
+      <c r="A11" s="193" t="s">
         <v>211</v>
       </c>
       <c r="B11" s="131" t="s">
@@ -25342,7 +25452,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="192"/>
+      <c r="A12" s="194"/>
       <c r="B12" s="128" t="s">
         <v>159</v>
       </c>
@@ -25354,7 +25464,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="192"/>
+      <c r="A13" s="194"/>
       <c r="B13" s="128" t="s">
         <v>160</v>
       </c>
@@ -25363,7 +25473,7 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="192"/>
+      <c r="A14" s="194"/>
       <c r="B14" s="139" t="s">
         <v>212</v>
       </c>
@@ -25375,7 +25485,7 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="192"/>
+      <c r="A15" s="194"/>
       <c r="B15" s="128" t="s">
         <v>178</v>
       </c>
@@ -25387,7 +25497,7 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="192"/>
+      <c r="A16" s="194"/>
       <c r="B16" s="128" t="s">
         <v>179</v>
       </c>
@@ -25396,7 +25506,7 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A17" s="193"/>
+      <c r="A17" s="195"/>
       <c r="B17" s="136" t="s">
         <v>161</v>
       </c>
@@ -25411,7 +25521,7 @@
       <c r="E18" s="94"/>
     </row>
     <row r="19" spans="1:5" collapsed="1">
-      <c r="A19" s="191" t="s">
+      <c r="A19" s="193" t="s">
         <v>211</v>
       </c>
       <c r="B19" s="131" t="s">
@@ -25420,7 +25530,7 @@
       <c r="C19" s="130"/>
     </row>
     <row r="20" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A20" s="192"/>
+      <c r="A20" s="194"/>
       <c r="B20" s="128" t="s">
         <v>159</v>
       </c>
@@ -25430,14 +25540,14 @@
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A21" s="192"/>
+      <c r="A21" s="194"/>
       <c r="B21" s="128" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="133"/>
     </row>
     <row r="22" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A22" s="192"/>
+      <c r="A22" s="194"/>
       <c r="B22" s="139" t="s">
         <v>212</v>
       </c>
@@ -25447,7 +25557,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A23" s="192"/>
+      <c r="A23" s="194"/>
       <c r="B23" s="128" t="s">
         <v>178</v>
       </c>
@@ -25457,14 +25567,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A24" s="192"/>
+      <c r="A24" s="194"/>
       <c r="B24" s="128" t="s">
         <v>179</v>
       </c>
       <c r="C24" s="132"/>
     </row>
     <row r="25" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A25" s="193"/>
+      <c r="A25" s="195"/>
       <c r="B25" s="136" t="s">
         <v>161</v>
       </c>
@@ -25477,7 +25587,7 @@
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="A19:A25"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -25499,163 +25609,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="206" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="204"/>
+      <c r="B1" s="207"/>
       <c r="C1" s="118"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="212" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="201"/>
+      <c r="B2" s="213"/>
       <c r="C2" s="120"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="214" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="201"/>
+      <c r="B3" s="213"/>
       <c r="C3" s="120"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="207"/>
-      <c r="B4" s="208"/>
+      <c r="A4" s="210"/>
+      <c r="B4" s="211"/>
       <c r="C4" s="120"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="205" t="s">
+      <c r="A5" s="208" t="s">
         <v>202</v>
       </c>
-      <c r="B5" s="206"/>
+      <c r="B5" s="209"/>
       <c r="C5" s="120"/>
     </row>
     <row r="7" spans="1:5" ht="18.75">
-      <c r="A7" s="211" t="s">
+      <c r="A7" s="200" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="212"/>
+      <c r="B7" s="201"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="120"/>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="39" customHeight="1">
-      <c r="A9" s="209" t="s">
+      <c r="A9" s="202" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="210"/>
+      <c r="B9" s="203"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="196"/>
-      <c r="B10" s="197"/>
+      <c r="A10" s="204"/>
+      <c r="B10" s="205"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="198" t="s">
+      <c r="A11" s="196" t="s">
         <v>196</v>
       </c>
-      <c r="B11" s="199"/>
+      <c r="B11" s="197"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="198" t="s">
+      <c r="A12" s="196" t="s">
         <v>197</v>
       </c>
-      <c r="B12" s="199"/>
+      <c r="B12" s="197"/>
     </row>
     <row r="13" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A13" s="198" t="s">
+      <c r="A13" s="196" t="s">
         <v>198</v>
       </c>
-      <c r="B13" s="199"/>
+      <c r="B13" s="197"/>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A14" s="198" t="s">
+      <c r="A14" s="196" t="s">
         <v>199</v>
       </c>
-      <c r="B14" s="199"/>
+      <c r="B14" s="197"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
-      <c r="A15" s="198" t="s">
+      <c r="A15" s="196" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="199"/>
+      <c r="B15" s="197"/>
     </row>
     <row r="16" spans="1:5" ht="21" customHeight="1">
-      <c r="A16" s="198" t="s">
+      <c r="A16" s="196" t="s">
         <v>201</v>
       </c>
-      <c r="B16" s="199"/>
+      <c r="B16" s="197"/>
     </row>
     <row r="17" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A17" s="194" t="s">
+      <c r="A17" s="198" t="s">
         <v>203</v>
       </c>
-      <c r="B17" s="195"/>
+      <c r="B17" s="199"/>
     </row>
     <row r="19" spans="1:2" ht="18.75">
-      <c r="A19" s="211" t="s">
+      <c r="A19" s="200" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="212"/>
+      <c r="B19" s="201"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="120"/>
       <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="209" t="s">
+      <c r="A21" s="202" t="s">
         <v>206</v>
       </c>
-      <c r="B21" s="210"/>
+      <c r="B21" s="203"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="196"/>
-      <c r="B22" s="197"/>
+      <c r="A22" s="204"/>
+      <c r="B22" s="205"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="198" t="s">
+      <c r="A23" s="196" t="s">
         <v>207</v>
       </c>
-      <c r="B23" s="199"/>
+      <c r="B23" s="197"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="198"/>
-      <c r="B24" s="199"/>
+      <c r="A24" s="196"/>
+      <c r="B24" s="197"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="198" t="s">
+      <c r="A25" s="196" t="s">
         <v>208</v>
       </c>
-      <c r="B25" s="199"/>
+      <c r="B25" s="197"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="198" t="s">
+      <c r="A26" s="196" t="s">
         <v>209</v>
       </c>
-      <c r="B26" s="199"/>
+      <c r="B26" s="197"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="194"/>
-      <c r="B27" s="195"/>
+      <c r="A27" s="198"/>
+      <c r="B27" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -25666,6 +25763,19 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/trunk/MMVGB/MMV.xlsx
+++ b/trunk/MMVGB/MMV.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="226">
   <si>
     <t>Notes</t>
   </si>
@@ -729,6 +729,15 @@
   <si>
     <t>Downladder</t>
   </si>
+  <si>
+    <t>X &gt;= 89</t>
+  </si>
+  <si>
+    <t>X &gt;= 138</t>
+  </si>
+  <si>
+    <t>X &gt; 273</t>
+  </si>
 </sst>
 </file>
 
@@ -738,10 +747,17 @@
     <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="48">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1667,34 +1683,34 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1702,208 +1718,208 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="17" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="18" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="19" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="17" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="18" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="19" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="29" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1913,10 +1929,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1937,141 +1953,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="33" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="33" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -2382,11 +2401,11 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K161"/>
+  <dimension ref="A1:K162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36:F36"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="2"/>
@@ -2402,19 +2421,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="157" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="157" t="s">
+      <c r="B1" s="156"/>
+      <c r="C1" s="158" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="159"/>
       <c r="G1" s="140"/>
       <c r="H1" s="141">
-        <f>SUM(G1:G65543)</f>
+        <f>SUM(G1:G65544)</f>
         <v>0</v>
       </c>
       <c r="I1" s="141" t="s">
@@ -2489,10 +2508,10 @@
       <c r="B5" s="147" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="154" t="s">
+      <c r="C5" s="155" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="154"/>
+      <c r="D5" s="155"/>
       <c r="E5" s="147"/>
       <c r="F5" s="143"/>
       <c r="G5" s="140"/>
@@ -2508,10 +2527,10 @@
       <c r="B6" s="147" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="154" t="s">
+      <c r="C6" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="155"/>
+      <c r="D6" s="156"/>
       <c r="E6" s="147"/>
       <c r="F6" s="143"/>
       <c r="G6" s="140"/>
@@ -2529,7 +2548,7 @@
       <c r="F7" s="93"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="160" t="s">
         <v>188</v>
       </c>
       <c r="B8" s="95" t="s">
@@ -2549,7 +2568,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A9" s="152"/>
+      <c r="A9" s="153"/>
       <c r="B9" s="98" t="s">
         <v>184</v>
       </c>
@@ -2559,7 +2578,7 @@
       <c r="F9" s="104"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" outlineLevel="1" thickTop="1">
-      <c r="A10" s="152"/>
+      <c r="A10" s="153"/>
       <c r="B10" s="100"/>
       <c r="C10" s="101"/>
       <c r="D10" s="101"/>
@@ -2570,7 +2589,7 @@
       <c r="F10" s="105"/>
     </row>
     <row r="11" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A11" s="152"/>
+      <c r="A11" s="153"/>
       <c r="B11" s="100"/>
       <c r="C11" s="101"/>
       <c r="D11" s="101"/>
@@ -2581,7 +2600,7 @@
       <c r="F11" s="105"/>
     </row>
     <row r="12" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A12" s="152"/>
+      <c r="A12" s="153"/>
       <c r="B12" s="100"/>
       <c r="C12" s="101"/>
       <c r="D12" s="101"/>
@@ -2592,7 +2611,7 @@
       <c r="F12" s="105"/>
     </row>
     <row r="13" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A13" s="152"/>
+      <c r="A13" s="153"/>
       <c r="B13" s="100"/>
       <c r="C13" s="101"/>
       <c r="D13" s="101"/>
@@ -2603,7 +2622,7 @@
       <c r="F13" s="105"/>
     </row>
     <row r="14" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A14" s="152"/>
+      <c r="A14" s="153"/>
       <c r="B14" s="100"/>
       <c r="C14" s="101"/>
       <c r="D14" s="101"/>
@@ -2614,7 +2633,7 @@
       <c r="F14" s="105"/>
     </row>
     <row r="15" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A15" s="152"/>
+      <c r="A15" s="153"/>
       <c r="B15" s="100"/>
       <c r="C15" s="101"/>
       <c r="D15" s="101"/>
@@ -2625,7 +2644,7 @@
       <c r="F15" s="105"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A16" s="152"/>
+      <c r="A16" s="153"/>
       <c r="B16" s="98" t="s">
         <v>187</v>
       </c>
@@ -2668,7 +2687,7 @@
     </row>
     <row r="18" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="19" spans="1:7" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A19" s="153" t="s">
+      <c r="A19" s="154" t="s">
         <v>168</v>
       </c>
       <c r="B19" s="109" t="s">
@@ -2688,20 +2707,20 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A20" s="152"/>
+      <c r="A20" s="153"/>
       <c r="B20" s="98" t="s">
         <v>184</v>
       </c>
       <c r="C20" s="99"/>
       <c r="D20" s="99"/>
       <c r="E20" s="123">
-        <f t="shared" ref="E20:E41" si="1">IF(AND(C20&gt;0,D20&gt;0), D20-C20, 0)</f>
+        <f t="shared" ref="E20:E42" si="1">IF(AND(C20&gt;0,D20&gt;0), D20-C20, 0)</f>
         <v>0</v>
       </c>
       <c r="F20" s="104"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" outlineLevel="1" thickTop="1">
-      <c r="A21" s="152"/>
+      <c r="A21" s="153"/>
       <c r="B21" s="100"/>
       <c r="C21" s="101"/>
       <c r="D21" s="101"/>
@@ -2712,7 +2731,7 @@
       <c r="F21" s="105"/>
     </row>
     <row r="22" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A22" s="152"/>
+      <c r="A22" s="153"/>
       <c r="B22" s="148" t="s">
         <v>213</v>
       </c>
@@ -2729,7 +2748,7 @@
       <c r="F22" s="105"/>
     </row>
     <row r="23" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A23" s="152"/>
+      <c r="A23" s="153"/>
       <c r="B23" s="149" t="s">
         <v>217</v>
       </c>
@@ -2746,7 +2765,7 @@
       <c r="F23" s="105"/>
     </row>
     <row r="24" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A24" s="152"/>
+      <c r="A24" s="153"/>
       <c r="B24" s="149" t="s">
         <v>218</v>
       </c>
@@ -2763,7 +2782,7 @@
       <c r="F24" s="105"/>
     </row>
     <row r="25" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A25" s="152"/>
+      <c r="A25" s="153"/>
       <c r="B25" s="149" t="s">
         <v>218</v>
       </c>
@@ -2780,7 +2799,7 @@
       <c r="F25" s="105"/>
     </row>
     <row r="26" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A26" s="152"/>
+      <c r="A26" s="153"/>
       <c r="B26" s="149" t="s">
         <v>218</v>
       </c>
@@ -2797,7 +2816,7 @@
       <c r="F26" s="105"/>
     </row>
     <row r="27" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A27" s="152"/>
+      <c r="A27" s="153"/>
       <c r="B27" s="149" t="s">
         <v>218</v>
       </c>
@@ -2814,7 +2833,7 @@
       <c r="F27" s="105"/>
     </row>
     <row r="28" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A28" s="152"/>
+      <c r="A28" s="153"/>
       <c r="B28" s="149" t="s">
         <v>219</v>
       </c>
@@ -2831,7 +2850,7 @@
       <c r="F28" s="105"/>
     </row>
     <row r="29" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A29" s="152"/>
+      <c r="A29" s="153"/>
       <c r="B29" s="149" t="s">
         <v>219</v>
       </c>
@@ -2848,7 +2867,7 @@
       <c r="F29" s="105"/>
     </row>
     <row r="30" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A30" s="152"/>
+      <c r="A30" s="153"/>
       <c r="B30" s="149" t="s">
         <v>219</v>
       </c>
@@ -2865,7 +2884,7 @@
       <c r="F30" s="105"/>
     </row>
     <row r="31" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A31" s="152"/>
+      <c r="A31" s="153"/>
       <c r="B31" s="149" t="s">
         <v>219</v>
       </c>
@@ -2882,8 +2901,8 @@
       <c r="F31" s="105"/>
     </row>
     <row r="32" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A32" s="152"/>
-      <c r="B32" s="215" t="s">
+      <c r="A32" s="153"/>
+      <c r="B32" s="151" t="s">
         <v>220</v>
       </c>
       <c r="C32" s="101">
@@ -2899,8 +2918,8 @@
       <c r="F32" s="105"/>
     </row>
     <row r="33" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A33" s="152"/>
-      <c r="B33" s="215" t="s">
+      <c r="A33" s="153"/>
+      <c r="B33" s="151" t="s">
         <v>221</v>
       </c>
       <c r="C33" s="101">
@@ -2916,8 +2935,8 @@
       <c r="F33" s="105"/>
     </row>
     <row r="34" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A34" s="152"/>
-      <c r="B34" s="215" t="s">
+      <c r="A34" s="153"/>
+      <c r="B34" s="151" t="s">
         <v>218</v>
       </c>
       <c r="C34" s="101">
@@ -2933,1566 +2952,1578 @@
       <c r="F34" s="105"/>
     </row>
     <row r="35" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A35" s="152"/>
-      <c r="B35" s="215"/>
+      <c r="A35" s="153"/>
+      <c r="B35" s="151" t="s">
+        <v>222</v>
+      </c>
       <c r="C35" s="101">
-        <v>24411</v>
+        <v>24500</v>
       </c>
       <c r="D35" s="101">
-        <v>25163</v>
+        <v>25251</v>
       </c>
       <c r="E35" s="123">
         <f t="shared" si="1"/>
+        <v>751</v>
+      </c>
+      <c r="F35" s="105"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A36" s="153"/>
+      <c r="B36" s="216" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" s="101">
+        <v>24657</v>
+      </c>
+      <c r="D36" s="101">
+        <v>25408</v>
+      </c>
+      <c r="E36" s="123">
+        <f t="shared" ref="E36:E38" si="2">IF(AND(C36&gt;0,D36&gt;0), D36-C36, 0)</f>
+        <v>751</v>
+      </c>
+      <c r="F36" s="105"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A37" s="153"/>
+      <c r="B37" s="216" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" s="101">
+        <v>24687</v>
+      </c>
+      <c r="D37" s="101">
+        <v>25437</v>
+      </c>
+      <c r="E37" s="123">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+      <c r="F37" s="105"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A38" s="153"/>
+      <c r="B38" s="216" t="s">
+        <v>225</v>
+      </c>
+      <c r="C38" s="101">
+        <v>24789</v>
+      </c>
+      <c r="D38" s="101">
+        <v>25541</v>
+      </c>
+      <c r="E38" s="123">
+        <f t="shared" si="2"/>
         <v>752</v>
       </c>
-      <c r="F35" s="105"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A36" s="152"/>
-      <c r="B36" s="215"/>
-      <c r="C36" s="101">
-        <v>24444</v>
-      </c>
-      <c r="D36" s="101">
-        <v>25197</v>
-      </c>
-      <c r="E36" s="123">
-        <f t="shared" si="1"/>
-        <v>753</v>
-      </c>
-      <c r="F36" s="105"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A37" s="152"/>
-      <c r="B37" s="215" t="s">
-        <v>222</v>
-      </c>
-      <c r="C37" s="101">
-        <v>24503</v>
-      </c>
-      <c r="D37" s="101">
-        <v>25251</v>
-      </c>
-      <c r="E37" s="123">
-        <f t="shared" si="1"/>
-        <v>748</v>
-      </c>
-      <c r="F37" s="105"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A38" s="152"/>
-      <c r="B38" s="215" t="s">
-        <v>218</v>
-      </c>
-      <c r="C38" s="101">
-        <v>24523</v>
-      </c>
-      <c r="D38" s="101">
-        <v>25271</v>
-      </c>
-      <c r="E38" s="123">
-        <f t="shared" si="1"/>
-        <v>748</v>
-      </c>
       <c r="F38" s="105"/>
     </row>
     <row r="39" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A39" s="152"/>
-      <c r="B39" s="149"/>
+      <c r="A39" s="153"/>
+      <c r="B39" s="216"/>
       <c r="C39" s="101"/>
       <c r="D39" s="101"/>
       <c r="E39" s="123"/>
       <c r="F39" s="105"/>
     </row>
     <row r="40" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A40" s="152"/>
-      <c r="B40" s="100"/>
+      <c r="A40" s="153"/>
+      <c r="B40" s="216"/>
       <c r="C40" s="101"/>
       <c r="D40" s="101"/>
-      <c r="E40" s="123">
+      <c r="E40" s="123"/>
+      <c r="F40" s="105"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A41" s="153"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="105"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A41" s="152"/>
-      <c r="B41" s="98" t="s">
+      <c r="F41" s="105"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
+      <c r="A42" s="153"/>
+      <c r="B42" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="125">
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="125">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="104"/>
-    </row>
-    <row r="42" spans="1:7" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A42" s="117">
+      <c r="F42" s="104"/>
+    </row>
+    <row r="43" spans="1:7" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A43" s="117">
         <v>1</v>
       </c>
-      <c r="B42" s="102" t="s">
+      <c r="B43" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="103">
-        <f>C41-C20</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="103">
-        <f>D41-D20</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="126">
-        <f>E41-E20</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="108"/>
-      <c r="G42" s="112">
-        <f>E42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="13.5" thickBot="1"/>
-    <row r="44" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A44" s="151" t="s">
+      <c r="C43" s="103">
+        <f>C42-C20</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="103">
+        <f>D42-D20</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="126">
+        <f>E42-E20</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="108"/>
+      <c r="G43" s="112">
+        <f>E43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="13.5" thickBot="1"/>
+    <row r="45" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A45" s="152" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="113" t="s">
+      <c r="B45" s="113" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="114" t="s">
+      <c r="C45" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="114" t="s">
+      <c r="D45" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="114" t="s">
+      <c r="E45" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="115" t="s">
+      <c r="F45" s="115" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A45" s="152"/>
-      <c r="B45" s="98" t="s">
+    <row r="46" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A46" s="153"/>
+      <c r="B46" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="123">
-        <f t="shared" ref="E45:E58" si="2">IF(AND(C45&gt;0,D45&gt;0), D45-C45, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="104"/>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A46" s="152"/>
-      <c r="B46" s="100"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="124">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="105"/>
-    </row>
-    <row r="47" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A47" s="152"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="123">
+        <f t="shared" ref="E46:E59" si="3">IF(AND(C46&gt;0,D46&gt;0), D46-C46, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="104"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
+      <c r="A47" s="153"/>
       <c r="B47" s="100"/>
       <c r="C47" s="101"/>
       <c r="D47" s="101"/>
-      <c r="E47" s="123">
-        <f t="shared" si="2"/>
+      <c r="E47" s="124">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F47" s="105"/>
     </row>
     <row r="48" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A48" s="152"/>
+      <c r="A48" s="153"/>
       <c r="B48" s="100"/>
       <c r="C48" s="101"/>
       <c r="D48" s="101"/>
       <c r="E48" s="123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F48" s="105"/>
     </row>
     <row r="49" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A49" s="152"/>
+      <c r="A49" s="153"/>
       <c r="B49" s="100"/>
       <c r="C49" s="101"/>
       <c r="D49" s="101"/>
       <c r="E49" s="123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F49" s="105"/>
     </row>
     <row r="50" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A50" s="152"/>
+      <c r="A50" s="153"/>
       <c r="B50" s="100"/>
       <c r="C50" s="101"/>
       <c r="D50" s="101"/>
       <c r="E50" s="123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F50" s="105"/>
     </row>
     <row r="51" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A51" s="152"/>
+      <c r="A51" s="153"/>
       <c r="B51" s="100"/>
       <c r="C51" s="101"/>
       <c r="D51" s="101"/>
       <c r="E51" s="123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F51" s="105"/>
     </row>
     <row r="52" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A52" s="152"/>
+      <c r="A52" s="153"/>
       <c r="B52" s="100"/>
       <c r="C52" s="101"/>
       <c r="D52" s="101"/>
       <c r="E52" s="123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F52" s="105"/>
     </row>
     <row r="53" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A53" s="152"/>
+      <c r="A53" s="153"/>
       <c r="B53" s="100"/>
       <c r="C53" s="101"/>
       <c r="D53" s="101"/>
       <c r="E53" s="123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F53" s="105"/>
     </row>
     <row r="54" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A54" s="152"/>
+      <c r="A54" s="153"/>
       <c r="B54" s="100"/>
       <c r="C54" s="101"/>
       <c r="D54" s="101"/>
       <c r="E54" s="123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F54" s="105"/>
     </row>
     <row r="55" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A55" s="152"/>
+      <c r="A55" s="153"/>
       <c r="B55" s="100"/>
       <c r="C55" s="101"/>
       <c r="D55" s="101"/>
       <c r="E55" s="123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F55" s="105"/>
     </row>
     <row r="56" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A56" s="152"/>
+      <c r="A56" s="153"/>
       <c r="B56" s="100"/>
       <c r="C56" s="101"/>
       <c r="D56" s="101"/>
       <c r="E56" s="123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F56" s="105"/>
     </row>
     <row r="57" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A57" s="152"/>
+      <c r="A57" s="153"/>
       <c r="B57" s="100"/>
       <c r="C57" s="101"/>
       <c r="D57" s="101"/>
       <c r="E57" s="123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F57" s="105"/>
     </row>
-    <row r="58" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A58" s="152"/>
-      <c r="B58" s="98" t="s">
+    <row r="58" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A58" s="153"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="123">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="105"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A59" s="153"/>
+      <c r="B59" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="C58" s="99"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="125">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F58" s="104"/>
-    </row>
-    <row r="59" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
-      <c r="A59" s="116">
+      <c r="C59" s="99"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="125">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="104"/>
+    </row>
+    <row r="60" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
+      <c r="A60" s="116">
         <v>2</v>
       </c>
-      <c r="B59" s="102" t="s">
+      <c r="B60" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="C59" s="103">
-        <f>C58-C45</f>
-        <v>0</v>
-      </c>
-      <c r="D59" s="103">
-        <f>D58-D45</f>
-        <v>0</v>
-      </c>
-      <c r="E59" s="126">
-        <f>E58-E45</f>
-        <v>0</v>
-      </c>
-      <c r="F59" s="107"/>
-      <c r="G59" s="112">
-        <f>E59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="13.5" thickBot="1"/>
-    <row r="61" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A61" s="153" t="s">
+      <c r="C60" s="103">
+        <f>C59-C46</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="103">
+        <f>D59-D46</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="126">
+        <f>E59-E46</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="107"/>
+      <c r="G60" s="112">
+        <f>E60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="13.5" thickBot="1"/>
+    <row r="62" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A62" s="154" t="s">
         <v>171</v>
       </c>
-      <c r="B61" s="109" t="s">
+      <c r="B62" s="109" t="s">
         <v>182</v>
       </c>
-      <c r="C61" s="110" t="s">
+      <c r="C62" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="D61" s="110" t="s">
+      <c r="D62" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="110" t="s">
+      <c r="E62" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="111" t="s">
+      <c r="F62" s="111" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A62" s="152"/>
-      <c r="B62" s="98" t="s">
+    <row r="63" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A63" s="153"/>
+      <c r="B63" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="C62" s="99"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="123">
-        <f t="shared" ref="E62:E75" si="3">IF(AND(C62&gt;0,D62&gt;0), D62-C62, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F62" s="104"/>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A63" s="152"/>
-      <c r="B63" s="100"/>
-      <c r="C63" s="101"/>
-      <c r="D63" s="101"/>
-      <c r="E63" s="124">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="105"/>
-    </row>
-    <row r="64" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A64" s="152"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="123">
+        <f t="shared" ref="E63:E76" si="4">IF(AND(C63&gt;0,D63&gt;0), D63-C63, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="104"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
+      <c r="A64" s="153"/>
       <c r="B64" s="100"/>
       <c r="C64" s="101"/>
       <c r="D64" s="101"/>
-      <c r="E64" s="123">
-        <f t="shared" si="3"/>
+      <c r="E64" s="124">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F64" s="105"/>
     </row>
     <row r="65" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A65" s="152"/>
+      <c r="A65" s="153"/>
       <c r="B65" s="100"/>
       <c r="C65" s="101"/>
       <c r="D65" s="101"/>
       <c r="E65" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F65" s="105"/>
     </row>
     <row r="66" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A66" s="152"/>
+      <c r="A66" s="153"/>
       <c r="B66" s="100"/>
       <c r="C66" s="101"/>
       <c r="D66" s="101"/>
       <c r="E66" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F66" s="105"/>
     </row>
     <row r="67" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A67" s="152"/>
+      <c r="A67" s="153"/>
       <c r="B67" s="100"/>
       <c r="C67" s="101"/>
       <c r="D67" s="101"/>
       <c r="E67" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F67" s="105"/>
     </row>
     <row r="68" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A68" s="152"/>
+      <c r="A68" s="153"/>
       <c r="B68" s="100"/>
       <c r="C68" s="101"/>
       <c r="D68" s="101"/>
       <c r="E68" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F68" s="105"/>
     </row>
     <row r="69" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A69" s="152"/>
+      <c r="A69" s="153"/>
       <c r="B69" s="100"/>
       <c r="C69" s="101"/>
       <c r="D69" s="101"/>
       <c r="E69" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F69" s="105"/>
     </row>
     <row r="70" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A70" s="152"/>
+      <c r="A70" s="153"/>
       <c r="B70" s="100"/>
       <c r="C70" s="101"/>
       <c r="D70" s="101"/>
       <c r="E70" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F70" s="105"/>
     </row>
     <row r="71" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A71" s="152"/>
+      <c r="A71" s="153"/>
       <c r="B71" s="100"/>
       <c r="C71" s="101"/>
       <c r="D71" s="101"/>
       <c r="E71" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F71" s="105"/>
     </row>
     <row r="72" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A72" s="152"/>
+      <c r="A72" s="153"/>
       <c r="B72" s="100"/>
       <c r="C72" s="101"/>
       <c r="D72" s="101"/>
       <c r="E72" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F72" s="105"/>
     </row>
     <row r="73" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A73" s="152"/>
+      <c r="A73" s="153"/>
       <c r="B73" s="100"/>
       <c r="C73" s="101"/>
       <c r="D73" s="101"/>
       <c r="E73" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F73" s="105"/>
     </row>
     <row r="74" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A74" s="152"/>
+      <c r="A74" s="153"/>
       <c r="B74" s="100"/>
       <c r="C74" s="101"/>
       <c r="D74" s="101"/>
       <c r="E74" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F74" s="105"/>
     </row>
-    <row r="75" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A75" s="152"/>
-      <c r="B75" s="98" t="s">
+    <row r="75" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A75" s="153"/>
+      <c r="B75" s="100"/>
+      <c r="C75" s="101"/>
+      <c r="D75" s="101"/>
+      <c r="E75" s="123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="105"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A76" s="153"/>
+      <c r="B76" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="C75" s="99"/>
-      <c r="D75" s="99"/>
-      <c r="E75" s="125">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F75" s="104"/>
-    </row>
-    <row r="76" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
-      <c r="A76" s="117">
+      <c r="C76" s="99"/>
+      <c r="D76" s="99"/>
+      <c r="E76" s="125">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F76" s="104"/>
+    </row>
+    <row r="77" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
+      <c r="A77" s="117">
         <v>3</v>
       </c>
-      <c r="B76" s="102" t="s">
+      <c r="B77" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="C76" s="103">
-        <f>C75-C62</f>
-        <v>0</v>
-      </c>
-      <c r="D76" s="103">
-        <f>D75-D62</f>
-        <v>0</v>
-      </c>
-      <c r="E76" s="126">
-        <f>E75-E62</f>
-        <v>0</v>
-      </c>
-      <c r="F76" s="108"/>
-      <c r="G76" s="112">
-        <f>E76</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="13.5" thickBot="1"/>
-    <row r="78" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A78" s="151" t="s">
+      <c r="C77" s="103">
+        <f>C76-C63</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="103">
+        <f>D76-D63</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="126">
+        <f>E76-E63</f>
+        <v>0</v>
+      </c>
+      <c r="F77" s="108"/>
+      <c r="G77" s="112">
+        <f>E77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="13.5" thickBot="1"/>
+    <row r="79" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A79" s="152" t="s">
         <v>172</v>
       </c>
-      <c r="B78" s="113" t="s">
+      <c r="B79" s="113" t="s">
         <v>182</v>
       </c>
-      <c r="C78" s="114" t="s">
+      <c r="C79" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="D78" s="114" t="s">
+      <c r="D79" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="E78" s="114" t="s">
+      <c r="E79" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="F78" s="115" t="s">
+      <c r="F79" s="115" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A79" s="152"/>
-      <c r="B79" s="98" t="s">
+    <row r="80" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A80" s="153"/>
+      <c r="B80" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="C79" s="99"/>
-      <c r="D79" s="99"/>
-      <c r="E79" s="123">
-        <f t="shared" ref="E79:E92" si="4">IF(AND(C79&gt;0,D79&gt;0), D79-C79, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F79" s="104"/>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A80" s="152"/>
-      <c r="B80" s="100"/>
-      <c r="C80" s="101"/>
-      <c r="D80" s="101"/>
-      <c r="E80" s="124">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F80" s="105"/>
-    </row>
-    <row r="81" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A81" s="152"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="123">
+        <f t="shared" ref="E80:E93" si="5">IF(AND(C80&gt;0,D80&gt;0), D80-C80, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F80" s="104"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
+      <c r="A81" s="153"/>
       <c r="B81" s="100"/>
       <c r="C81" s="101"/>
       <c r="D81" s="101"/>
-      <c r="E81" s="123">
-        <f t="shared" si="4"/>
+      <c r="E81" s="124">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F81" s="105"/>
     </row>
     <row r="82" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A82" s="152"/>
+      <c r="A82" s="153"/>
       <c r="B82" s="100"/>
       <c r="C82" s="101"/>
       <c r="D82" s="101"/>
       <c r="E82" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F82" s="105"/>
     </row>
     <row r="83" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A83" s="152"/>
+      <c r="A83" s="153"/>
       <c r="B83" s="100"/>
       <c r="C83" s="101"/>
       <c r="D83" s="101"/>
       <c r="E83" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F83" s="105"/>
     </row>
     <row r="84" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A84" s="152"/>
+      <c r="A84" s="153"/>
       <c r="B84" s="100"/>
       <c r="C84" s="101"/>
       <c r="D84" s="101"/>
       <c r="E84" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F84" s="105"/>
     </row>
     <row r="85" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A85" s="152"/>
+      <c r="A85" s="153"/>
       <c r="B85" s="100"/>
       <c r="C85" s="101"/>
       <c r="D85" s="101"/>
       <c r="E85" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F85" s="105"/>
     </row>
     <row r="86" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A86" s="152"/>
+      <c r="A86" s="153"/>
       <c r="B86" s="100"/>
       <c r="C86" s="101"/>
       <c r="D86" s="101"/>
       <c r="E86" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F86" s="105"/>
     </row>
     <row r="87" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A87" s="152"/>
+      <c r="A87" s="153"/>
       <c r="B87" s="100"/>
       <c r="C87" s="101"/>
       <c r="D87" s="101"/>
       <c r="E87" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F87" s="105"/>
     </row>
     <row r="88" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A88" s="152"/>
+      <c r="A88" s="153"/>
       <c r="B88" s="100"/>
       <c r="C88" s="101"/>
       <c r="D88" s="101"/>
       <c r="E88" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F88" s="105"/>
     </row>
     <row r="89" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A89" s="152"/>
+      <c r="A89" s="153"/>
       <c r="B89" s="100"/>
       <c r="C89" s="101"/>
       <c r="D89" s="101"/>
       <c r="E89" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F89" s="105"/>
     </row>
     <row r="90" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A90" s="152"/>
+      <c r="A90" s="153"/>
       <c r="B90" s="100"/>
       <c r="C90" s="101"/>
       <c r="D90" s="101"/>
       <c r="E90" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F90" s="105"/>
     </row>
     <row r="91" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A91" s="152"/>
+      <c r="A91" s="153"/>
       <c r="B91" s="100"/>
       <c r="C91" s="101"/>
       <c r="D91" s="101"/>
       <c r="E91" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F91" s="105"/>
     </row>
-    <row r="92" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A92" s="152"/>
-      <c r="B92" s="98" t="s">
+    <row r="92" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A92" s="153"/>
+      <c r="B92" s="100"/>
+      <c r="C92" s="101"/>
+      <c r="D92" s="101"/>
+      <c r="E92" s="123">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="105"/>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A93" s="153"/>
+      <c r="B93" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="C92" s="99"/>
-      <c r="D92" s="99"/>
-      <c r="E92" s="125">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F92" s="104"/>
-    </row>
-    <row r="93" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
-      <c r="A93" s="116">
+      <c r="C93" s="99"/>
+      <c r="D93" s="99"/>
+      <c r="E93" s="125">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F93" s="104"/>
+    </row>
+    <row r="94" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
+      <c r="A94" s="116">
         <v>4</v>
       </c>
-      <c r="B93" s="102" t="s">
+      <c r="B94" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="C93" s="103">
-        <f>C92-C79</f>
-        <v>0</v>
-      </c>
-      <c r="D93" s="103">
-        <f>D92-D79</f>
-        <v>0</v>
-      </c>
-      <c r="E93" s="126">
-        <f>E92-E79</f>
-        <v>0</v>
-      </c>
-      <c r="F93" s="107"/>
-      <c r="G93" s="112">
-        <f>E93</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="13.5" thickBot="1"/>
-    <row r="95" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A95" s="153" t="s">
+      <c r="C94" s="103">
+        <f>C93-C80</f>
+        <v>0</v>
+      </c>
+      <c r="D94" s="103">
+        <f>D93-D80</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="126">
+        <f>E93-E80</f>
+        <v>0</v>
+      </c>
+      <c r="F94" s="107"/>
+      <c r="G94" s="112">
+        <f>E94</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="13.5" thickBot="1"/>
+    <row r="96" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A96" s="154" t="s">
         <v>173</v>
       </c>
-      <c r="B95" s="109" t="s">
+      <c r="B96" s="109" t="s">
         <v>182</v>
       </c>
-      <c r="C95" s="110" t="s">
+      <c r="C96" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="D95" s="110" t="s">
+      <c r="D96" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="E95" s="110" t="s">
+      <c r="E96" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="F95" s="111" t="s">
+      <c r="F96" s="111" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A96" s="152"/>
-      <c r="B96" s="98" t="s">
+    <row r="97" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A97" s="153"/>
+      <c r="B97" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="C96" s="99"/>
-      <c r="D96" s="99"/>
-      <c r="E96" s="123">
-        <f t="shared" ref="E96:E109" si="5">IF(AND(C96&gt;0,D96&gt;0), D96-C96, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F96" s="104"/>
-    </row>
-    <row r="97" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A97" s="152"/>
-      <c r="B97" s="100"/>
-      <c r="C97" s="101"/>
-      <c r="D97" s="101"/>
-      <c r="E97" s="124">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F97" s="105"/>
-    </row>
-    <row r="98" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A98" s="152"/>
+      <c r="C97" s="99"/>
+      <c r="D97" s="99"/>
+      <c r="E97" s="123">
+        <f t="shared" ref="E97:E110" si="6">IF(AND(C97&gt;0,D97&gt;0), D97-C97, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F97" s="104"/>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
+      <c r="A98" s="153"/>
       <c r="B98" s="100"/>
       <c r="C98" s="101"/>
       <c r="D98" s="101"/>
-      <c r="E98" s="123">
-        <f t="shared" si="5"/>
+      <c r="E98" s="124">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F98" s="105"/>
     </row>
     <row r="99" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A99" s="152"/>
+      <c r="A99" s="153"/>
       <c r="B99" s="100"/>
       <c r="C99" s="101"/>
       <c r="D99" s="101"/>
       <c r="E99" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F99" s="105"/>
     </row>
     <row r="100" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A100" s="152"/>
+      <c r="A100" s="153"/>
       <c r="B100" s="100"/>
       <c r="C100" s="101"/>
       <c r="D100" s="101"/>
       <c r="E100" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F100" s="105"/>
     </row>
     <row r="101" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A101" s="152"/>
+      <c r="A101" s="153"/>
       <c r="B101" s="100"/>
       <c r="C101" s="101"/>
       <c r="D101" s="101"/>
       <c r="E101" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F101" s="105"/>
     </row>
     <row r="102" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A102" s="152"/>
+      <c r="A102" s="153"/>
       <c r="B102" s="100"/>
       <c r="C102" s="101"/>
       <c r="D102" s="101"/>
       <c r="E102" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F102" s="105"/>
     </row>
     <row r="103" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A103" s="152"/>
+      <c r="A103" s="153"/>
       <c r="B103" s="100"/>
       <c r="C103" s="101"/>
       <c r="D103" s="101"/>
       <c r="E103" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F103" s="105"/>
     </row>
     <row r="104" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A104" s="152"/>
+      <c r="A104" s="153"/>
       <c r="B104" s="100"/>
       <c r="C104" s="101"/>
       <c r="D104" s="101"/>
       <c r="E104" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F104" s="105"/>
     </row>
     <row r="105" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A105" s="152"/>
+      <c r="A105" s="153"/>
       <c r="B105" s="100"/>
       <c r="C105" s="101"/>
       <c r="D105" s="101"/>
       <c r="E105" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F105" s="105"/>
     </row>
     <row r="106" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A106" s="152"/>
+      <c r="A106" s="153"/>
       <c r="B106" s="100"/>
       <c r="C106" s="101"/>
       <c r="D106" s="101"/>
       <c r="E106" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F106" s="105"/>
     </row>
     <row r="107" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A107" s="152"/>
+      <c r="A107" s="153"/>
       <c r="B107" s="100"/>
       <c r="C107" s="101"/>
       <c r="D107" s="101"/>
       <c r="E107" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F107" s="105"/>
     </row>
     <row r="108" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A108" s="152"/>
+      <c r="A108" s="153"/>
       <c r="B108" s="100"/>
       <c r="C108" s="101"/>
       <c r="D108" s="101"/>
       <c r="E108" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F108" s="105"/>
     </row>
-    <row r="109" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A109" s="152"/>
-      <c r="B109" s="98" t="s">
+    <row r="109" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A109" s="153"/>
+      <c r="B109" s="100"/>
+      <c r="C109" s="101"/>
+      <c r="D109" s="101"/>
+      <c r="E109" s="123">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F109" s="105"/>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A110" s="153"/>
+      <c r="B110" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="C109" s="99"/>
-      <c r="D109" s="99"/>
-      <c r="E109" s="125">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F109" s="104"/>
-    </row>
-    <row r="110" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
-      <c r="A110" s="117">
+      <c r="C110" s="99"/>
+      <c r="D110" s="99"/>
+      <c r="E110" s="125">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F110" s="104"/>
+    </row>
+    <row r="111" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
+      <c r="A111" s="117">
         <v>5</v>
       </c>
-      <c r="B110" s="102" t="s">
+      <c r="B111" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="C110" s="103">
-        <f>C109-C96</f>
-        <v>0</v>
-      </c>
-      <c r="D110" s="103">
-        <f>D109-D96</f>
-        <v>0</v>
-      </c>
-      <c r="E110" s="126">
-        <f>E109-E96</f>
-        <v>0</v>
-      </c>
-      <c r="F110" s="108"/>
-      <c r="G110" s="112">
-        <f>E110</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A112" s="151" t="s">
+      <c r="C111" s="103">
+        <f>C110-C97</f>
+        <v>0</v>
+      </c>
+      <c r="D111" s="103">
+        <f>D110-D97</f>
+        <v>0</v>
+      </c>
+      <c r="E111" s="126">
+        <f>E110-E97</f>
+        <v>0</v>
+      </c>
+      <c r="F111" s="108"/>
+      <c r="G111" s="112">
+        <f>E111</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A113" s="152" t="s">
         <v>174</v>
       </c>
-      <c r="B112" s="113" t="s">
+      <c r="B113" s="113" t="s">
         <v>182</v>
       </c>
-      <c r="C112" s="114" t="s">
+      <c r="C113" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="D112" s="114" t="s">
+      <c r="D113" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="E112" s="114" t="s">
+      <c r="E113" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="F112" s="115" t="s">
+      <c r="F113" s="115" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A113" s="152"/>
-      <c r="B113" s="98" t="s">
+    <row r="114" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A114" s="153"/>
+      <c r="B114" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="C113" s="99"/>
-      <c r="D113" s="99"/>
-      <c r="E113" s="123">
-        <f t="shared" ref="E113:E126" si="6">IF(AND(C113&gt;0,D113&gt;0), D113-C113, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F113" s="104"/>
-    </row>
-    <row r="114" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A114" s="152"/>
-      <c r="B114" s="100"/>
-      <c r="C114" s="101"/>
-      <c r="D114" s="101"/>
-      <c r="E114" s="124">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F114" s="105"/>
-    </row>
-    <row r="115" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A115" s="152"/>
+      <c r="C114" s="99"/>
+      <c r="D114" s="99"/>
+      <c r="E114" s="123">
+        <f t="shared" ref="E114:E127" si="7">IF(AND(C114&gt;0,D114&gt;0), D114-C114, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F114" s="104"/>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
+      <c r="A115" s="153"/>
       <c r="B115" s="100"/>
       <c r="C115" s="101"/>
       <c r="D115" s="101"/>
-      <c r="E115" s="123">
-        <f t="shared" si="6"/>
+      <c r="E115" s="124">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F115" s="105"/>
     </row>
     <row r="116" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A116" s="152"/>
+      <c r="A116" s="153"/>
       <c r="B116" s="100"/>
       <c r="C116" s="101"/>
       <c r="D116" s="101"/>
       <c r="E116" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F116" s="105"/>
     </row>
     <row r="117" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A117" s="152"/>
+      <c r="A117" s="153"/>
       <c r="B117" s="100"/>
       <c r="C117" s="101"/>
       <c r="D117" s="101"/>
       <c r="E117" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F117" s="105"/>
     </row>
     <row r="118" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A118" s="152"/>
+      <c r="A118" s="153"/>
       <c r="B118" s="100"/>
       <c r="C118" s="101"/>
       <c r="D118" s="101"/>
       <c r="E118" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F118" s="105"/>
     </row>
     <row r="119" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A119" s="152"/>
+      <c r="A119" s="153"/>
       <c r="B119" s="100"/>
       <c r="C119" s="101"/>
       <c r="D119" s="101"/>
       <c r="E119" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F119" s="105"/>
     </row>
     <row r="120" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A120" s="152"/>
+      <c r="A120" s="153"/>
       <c r="B120" s="100"/>
       <c r="C120" s="101"/>
       <c r="D120" s="101"/>
       <c r="E120" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F120" s="105"/>
     </row>
     <row r="121" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A121" s="152"/>
+      <c r="A121" s="153"/>
       <c r="B121" s="100"/>
       <c r="C121" s="101"/>
       <c r="D121" s="101"/>
       <c r="E121" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F121" s="105"/>
     </row>
     <row r="122" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A122" s="152"/>
+      <c r="A122" s="153"/>
       <c r="B122" s="100"/>
       <c r="C122" s="101"/>
       <c r="D122" s="101"/>
       <c r="E122" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F122" s="105"/>
     </row>
     <row r="123" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A123" s="152"/>
+      <c r="A123" s="153"/>
       <c r="B123" s="100"/>
       <c r="C123" s="101"/>
       <c r="D123" s="101"/>
       <c r="E123" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F123" s="105"/>
     </row>
     <row r="124" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A124" s="152"/>
+      <c r="A124" s="153"/>
       <c r="B124" s="100"/>
       <c r="C124" s="101"/>
       <c r="D124" s="101"/>
       <c r="E124" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F124" s="105"/>
     </row>
     <row r="125" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A125" s="152"/>
+      <c r="A125" s="153"/>
       <c r="B125" s="100"/>
       <c r="C125" s="101"/>
       <c r="D125" s="101"/>
       <c r="E125" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F125" s="105"/>
     </row>
-    <row r="126" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A126" s="152"/>
-      <c r="B126" s="98" t="s">
+    <row r="126" spans="1:7" ht="15" hidden="1" outlineLevel="1">
+      <c r="A126" s="153"/>
+      <c r="B126" s="100"/>
+      <c r="C126" s="101"/>
+      <c r="D126" s="101"/>
+      <c r="E126" s="123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F126" s="105"/>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A127" s="153"/>
+      <c r="B127" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="C126" s="99"/>
-      <c r="D126" s="99"/>
-      <c r="E126" s="125">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F126" s="104"/>
-    </row>
-    <row r="127" spans="1:7" ht="16.5" collapsed="1" thickBot="1">
-      <c r="A127" s="116">
+      <c r="C127" s="99"/>
+      <c r="D127" s="99"/>
+      <c r="E127" s="125">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F127" s="104"/>
+    </row>
+    <row r="128" spans="1:7" ht="16.5" collapsed="1" thickBot="1">
+      <c r="A128" s="116">
         <v>6</v>
       </c>
-      <c r="B127" s="102" t="s">
+      <c r="B128" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="C127" s="103">
-        <f>C126-C113</f>
-        <v>0</v>
-      </c>
-      <c r="D127" s="103">
-        <f>D126-D113</f>
-        <v>0</v>
-      </c>
-      <c r="E127" s="103">
-        <f>E126-E113</f>
-        <v>0</v>
-      </c>
-      <c r="F127" s="107"/>
-      <c r="G127" s="112">
-        <f>E127</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A129" s="153" t="s">
+      <c r="C128" s="103">
+        <f>C127-C114</f>
+        <v>0</v>
+      </c>
+      <c r="D128" s="103">
+        <f>D127-D114</f>
+        <v>0</v>
+      </c>
+      <c r="E128" s="103">
+        <f>E127-E114</f>
+        <v>0</v>
+      </c>
+      <c r="F128" s="107"/>
+      <c r="G128" s="112">
+        <f>E128</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15" hidden="1" outlineLevel="1">
+      <c r="A130" s="154" t="s">
         <v>175</v>
       </c>
-      <c r="B129" s="109" t="s">
+      <c r="B130" s="109" t="s">
         <v>182</v>
       </c>
-      <c r="C129" s="110" t="s">
+      <c r="C130" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="D129" s="110" t="s">
+      <c r="D130" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="E129" s="110" t="s">
+      <c r="E130" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="F129" s="111" t="s">
+      <c r="F130" s="111" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A130" s="152"/>
-      <c r="B130" s="98" t="s">
+    <row r="131" spans="1:6" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A131" s="153"/>
+      <c r="B131" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="C130" s="99"/>
-      <c r="D130" s="99"/>
-      <c r="E130" s="123">
-        <f t="shared" ref="E130:E143" si="7">IF(AND(C130&gt;0,D130&gt;0), D130-C130, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F130" s="104"/>
-    </row>
-    <row r="131" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A131" s="152"/>
-      <c r="B131" s="100"/>
-      <c r="C131" s="101"/>
-      <c r="D131" s="101"/>
-      <c r="E131" s="124">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F131" s="105"/>
-    </row>
-    <row r="132" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A132" s="152"/>
+      <c r="C131" s="99"/>
+      <c r="D131" s="99"/>
+      <c r="E131" s="123">
+        <f t="shared" ref="E131:E144" si="8">IF(AND(C131&gt;0,D131&gt;0), D131-C131, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F131" s="104"/>
+    </row>
+    <row r="132" spans="1:6" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
+      <c r="A132" s="153"/>
       <c r="B132" s="100"/>
       <c r="C132" s="101"/>
       <c r="D132" s="101"/>
-      <c r="E132" s="123">
-        <f t="shared" si="7"/>
+      <c r="E132" s="124">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F132" s="105"/>
     </row>
-    <row r="133" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A133" s="152"/>
+    <row r="133" spans="1:6" ht="15" hidden="1" outlineLevel="1">
+      <c r="A133" s="153"/>
       <c r="B133" s="100"/>
       <c r="C133" s="101"/>
       <c r="D133" s="101"/>
       <c r="E133" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F133" s="105"/>
     </row>
-    <row r="134" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A134" s="152"/>
+    <row r="134" spans="1:6" ht="15" hidden="1" outlineLevel="1">
+      <c r="A134" s="153"/>
       <c r="B134" s="100"/>
       <c r="C134" s="101"/>
       <c r="D134" s="101"/>
       <c r="E134" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F134" s="105"/>
     </row>
-    <row r="135" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A135" s="152"/>
+    <row r="135" spans="1:6" ht="15" hidden="1" outlineLevel="1">
+      <c r="A135" s="153"/>
       <c r="B135" s="100"/>
       <c r="C135" s="101"/>
       <c r="D135" s="101"/>
       <c r="E135" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F135" s="105"/>
     </row>
-    <row r="136" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A136" s="152"/>
+    <row r="136" spans="1:6" ht="15" hidden="1" outlineLevel="1">
+      <c r="A136" s="153"/>
       <c r="B136" s="100"/>
       <c r="C136" s="101"/>
       <c r="D136" s="101"/>
       <c r="E136" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F136" s="105"/>
     </row>
-    <row r="137" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A137" s="152"/>
+    <row r="137" spans="1:6" ht="15" hidden="1" outlineLevel="1">
+      <c r="A137" s="153"/>
       <c r="B137" s="100"/>
       <c r="C137" s="101"/>
       <c r="D137" s="101"/>
       <c r="E137" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F137" s="105"/>
     </row>
-    <row r="138" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A138" s="152"/>
+    <row r="138" spans="1:6" ht="15" hidden="1" outlineLevel="1">
+      <c r="A138" s="153"/>
       <c r="B138" s="100"/>
       <c r="C138" s="101"/>
       <c r="D138" s="101"/>
       <c r="E138" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F138" s="105"/>
     </row>
-    <row r="139" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A139" s="152"/>
+    <row r="139" spans="1:6" ht="15" hidden="1" outlineLevel="1">
+      <c r="A139" s="153"/>
       <c r="B139" s="100"/>
       <c r="C139" s="101"/>
       <c r="D139" s="101"/>
       <c r="E139" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F139" s="105"/>
     </row>
-    <row r="140" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A140" s="152"/>
+    <row r="140" spans="1:6" ht="15" hidden="1" outlineLevel="1">
+      <c r="A140" s="153"/>
       <c r="B140" s="100"/>
       <c r="C140" s="101"/>
       <c r="D140" s="101"/>
       <c r="E140" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F140" s="105"/>
     </row>
-    <row r="141" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A141" s="152"/>
+    <row r="141" spans="1:6" ht="15" hidden="1" outlineLevel="1">
+      <c r="A141" s="153"/>
       <c r="B141" s="100"/>
       <c r="C141" s="101"/>
       <c r="D141" s="101"/>
       <c r="E141" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F141" s="105"/>
     </row>
-    <row r="142" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A142" s="152"/>
+    <row r="142" spans="1:6" ht="15" hidden="1" outlineLevel="1">
+      <c r="A142" s="153"/>
       <c r="B142" s="100"/>
       <c r="C142" s="101"/>
       <c r="D142" s="101"/>
       <c r="E142" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F142" s="105"/>
     </row>
-    <row r="143" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A143" s="152"/>
-      <c r="B143" s="98" t="s">
+    <row r="143" spans="1:6" ht="15" hidden="1" outlineLevel="1">
+      <c r="A143" s="153"/>
+      <c r="B143" s="100"/>
+      <c r="C143" s="101"/>
+      <c r="D143" s="101"/>
+      <c r="E143" s="123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F143" s="105"/>
+    </row>
+    <row r="144" spans="1:6" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A144" s="153"/>
+      <c r="B144" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="C143" s="99"/>
-      <c r="D143" s="99"/>
-      <c r="E143" s="125">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F143" s="104"/>
-    </row>
-    <row r="144" spans="1:7" ht="16.5" collapsed="1" thickBot="1">
-      <c r="A144" s="117">
+      <c r="C144" s="99"/>
+      <c r="D144" s="99"/>
+      <c r="E144" s="125">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F144" s="104"/>
+    </row>
+    <row r="145" spans="1:7" ht="16.5" collapsed="1" thickBot="1">
+      <c r="A145" s="117">
         <v>7</v>
       </c>
-      <c r="B144" s="102" t="s">
+      <c r="B145" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="C144" s="103">
-        <f>C143-C130</f>
-        <v>0</v>
-      </c>
-      <c r="D144" s="103">
-        <f>D143-D130</f>
-        <v>0</v>
-      </c>
-      <c r="E144" s="103">
-        <f>E143-E130</f>
-        <v>0</v>
-      </c>
-      <c r="F144" s="108"/>
-      <c r="G144" s="112">
-        <f>E144</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="15" hidden="1" outlineLevel="2">
-      <c r="A146" s="151" t="s">
+      <c r="C145" s="103">
+        <f>C144-C131</f>
+        <v>0</v>
+      </c>
+      <c r="D145" s="103">
+        <f>D144-D131</f>
+        <v>0</v>
+      </c>
+      <c r="E145" s="103">
+        <f>E144-E131</f>
+        <v>0</v>
+      </c>
+      <c r="F145" s="108"/>
+      <c r="G145" s="112">
+        <f>E145</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15" hidden="1" outlineLevel="2">
+      <c r="A147" s="152" t="s">
         <v>176</v>
       </c>
-      <c r="B146" s="113" t="s">
+      <c r="B147" s="113" t="s">
         <v>182</v>
       </c>
-      <c r="C146" s="114" t="s">
+      <c r="C147" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="D146" s="114" t="s">
+      <c r="D147" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="E146" s="114" t="s">
+      <c r="E147" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="F146" s="115" t="s">
+      <c r="F147" s="115" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15.75" hidden="1" outlineLevel="2" thickBot="1">
-      <c r="A147" s="152"/>
-      <c r="B147" s="98" t="s">
+    <row r="148" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickBot="1">
+      <c r="A148" s="153"/>
+      <c r="B148" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="C147" s="99"/>
-      <c r="D147" s="99"/>
-      <c r="E147" s="123">
-        <f t="shared" ref="E147:E160" si="8">IF(AND(C147&gt;0,D147&gt;0), D147-C147, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F147" s="104"/>
-    </row>
-    <row r="148" spans="1:6" ht="15.75" hidden="1" outlineLevel="2" thickTop="1">
-      <c r="A148" s="152"/>
-      <c r="B148" s="100"/>
-      <c r="C148" s="101"/>
-      <c r="D148" s="101"/>
-      <c r="E148" s="124">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F148" s="105"/>
-    </row>
-    <row r="149" spans="1:6" ht="15" hidden="1" outlineLevel="2">
-      <c r="A149" s="152"/>
+      <c r="C148" s="99"/>
+      <c r="D148" s="99"/>
+      <c r="E148" s="123">
+        <f t="shared" ref="E148:E161" si="9">IF(AND(C148&gt;0,D148&gt;0), D148-C148, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F148" s="104"/>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickTop="1">
+      <c r="A149" s="153"/>
       <c r="B149" s="100"/>
       <c r="C149" s="101"/>
       <c r="D149" s="101"/>
-      <c r="E149" s="123">
-        <f t="shared" si="8"/>
+      <c r="E149" s="124">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F149" s="105"/>
     </row>
-    <row r="150" spans="1:6" ht="15" hidden="1" outlineLevel="2">
-      <c r="A150" s="152"/>
+    <row r="150" spans="1:7" ht="15" hidden="1" outlineLevel="2">
+      <c r="A150" s="153"/>
       <c r="B150" s="100"/>
       <c r="C150" s="101"/>
       <c r="D150" s="101"/>
       <c r="E150" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F150" s="105"/>
     </row>
-    <row r="151" spans="1:6" ht="15" hidden="1" outlineLevel="2">
-      <c r="A151" s="152"/>
+    <row r="151" spans="1:7" ht="15" hidden="1" outlineLevel="2">
+      <c r="A151" s="153"/>
       <c r="B151" s="100"/>
       <c r="C151" s="101"/>
       <c r="D151" s="101"/>
       <c r="E151" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F151" s="105"/>
     </row>
-    <row r="152" spans="1:6" ht="15" hidden="1" outlineLevel="2">
-      <c r="A152" s="152"/>
+    <row r="152" spans="1:7" ht="15" hidden="1" outlineLevel="2">
+      <c r="A152" s="153"/>
       <c r="B152" s="100"/>
       <c r="C152" s="101"/>
       <c r="D152" s="101"/>
       <c r="E152" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F152" s="105"/>
     </row>
-    <row r="153" spans="1:6" ht="15" hidden="1" outlineLevel="2">
-      <c r="A153" s="152"/>
+    <row r="153" spans="1:7" ht="15" hidden="1" outlineLevel="2">
+      <c r="A153" s="153"/>
       <c r="B153" s="100"/>
       <c r="C153" s="101"/>
       <c r="D153" s="101"/>
       <c r="E153" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F153" s="105"/>
     </row>
-    <row r="154" spans="1:6" ht="15" hidden="1" outlineLevel="2">
-      <c r="A154" s="152"/>
+    <row r="154" spans="1:7" ht="15" hidden="1" outlineLevel="2">
+      <c r="A154" s="153"/>
       <c r="B154" s="100"/>
       <c r="C154" s="101"/>
       <c r="D154" s="101"/>
       <c r="E154" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F154" s="105"/>
     </row>
-    <row r="155" spans="1:6" ht="15" hidden="1" outlineLevel="2">
-      <c r="A155" s="152"/>
+    <row r="155" spans="1:7" ht="15" hidden="1" outlineLevel="2">
+      <c r="A155" s="153"/>
       <c r="B155" s="100"/>
       <c r="C155" s="101"/>
       <c r="D155" s="101"/>
       <c r="E155" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F155" s="105"/>
     </row>
-    <row r="156" spans="1:6" ht="15" hidden="1" outlineLevel="2">
-      <c r="A156" s="152"/>
+    <row r="156" spans="1:7" ht="15" hidden="1" outlineLevel="2">
+      <c r="A156" s="153"/>
       <c r="B156" s="100"/>
       <c r="C156" s="101"/>
       <c r="D156" s="101"/>
       <c r="E156" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F156" s="105"/>
     </row>
-    <row r="157" spans="1:6" ht="15" hidden="1" outlineLevel="2">
-      <c r="A157" s="152"/>
+    <row r="157" spans="1:7" ht="15" hidden="1" outlineLevel="2">
+      <c r="A157" s="153"/>
       <c r="B157" s="100"/>
       <c r="C157" s="101"/>
       <c r="D157" s="101"/>
       <c r="E157" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F157" s="105"/>
     </row>
-    <row r="158" spans="1:6" ht="15" hidden="1" outlineLevel="2">
-      <c r="A158" s="152"/>
+    <row r="158" spans="1:7" ht="15" hidden="1" outlineLevel="2">
+      <c r="A158" s="153"/>
       <c r="B158" s="100"/>
       <c r="C158" s="101"/>
       <c r="D158" s="101"/>
       <c r="E158" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F158" s="105"/>
     </row>
-    <row r="159" spans="1:6" ht="15" hidden="1" outlineLevel="2">
-      <c r="A159" s="152"/>
+    <row r="159" spans="1:7" ht="15" hidden="1" outlineLevel="2">
+      <c r="A159" s="153"/>
       <c r="B159" s="100"/>
       <c r="C159" s="101"/>
       <c r="D159" s="101"/>
       <c r="E159" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F159" s="105"/>
     </row>
-    <row r="160" spans="1:6" ht="15.75" hidden="1" outlineLevel="2" thickBot="1">
-      <c r="A160" s="152"/>
-      <c r="B160" s="98" t="s">
+    <row r="160" spans="1:7" ht="15" hidden="1" outlineLevel="2">
+      <c r="A160" s="153"/>
+      <c r="B160" s="100"/>
+      <c r="C160" s="101"/>
+      <c r="D160" s="101"/>
+      <c r="E160" s="123">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F160" s="105"/>
+    </row>
+    <row r="161" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickBot="1">
+      <c r="A161" s="153"/>
+      <c r="B161" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="C160" s="99"/>
-      <c r="D160" s="99"/>
-      <c r="E160" s="125">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F160" s="104"/>
-    </row>
-    <row r="161" spans="1:7" ht="16.5" collapsed="1" thickBot="1">
-      <c r="A161" s="116">
+      <c r="C161" s="99"/>
+      <c r="D161" s="99"/>
+      <c r="E161" s="125">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F161" s="104"/>
+    </row>
+    <row r="162" spans="1:7" ht="16.5" collapsed="1" thickBot="1">
+      <c r="A162" s="116">
         <v>8</v>
       </c>
-      <c r="B161" s="102" t="s">
+      <c r="B162" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="C161" s="103">
-        <f>C160-C147</f>
-        <v>0</v>
-      </c>
-      <c r="D161" s="103">
-        <f>D160-D147</f>
-        <v>0</v>
-      </c>
-      <c r="E161" s="103">
-        <f>E160-E147</f>
-        <v>0</v>
-      </c>
-      <c r="F161" s="107"/>
-      <c r="G161" s="112">
-        <f>E161</f>
+      <c r="C162" s="103">
+        <f>C161-C148</f>
+        <v>0</v>
+      </c>
+      <c r="D162" s="103">
+        <f>D161-D148</f>
+        <v>0</v>
+      </c>
+      <c r="E162" s="103">
+        <f>E161-E148</f>
+        <v>0</v>
+      </c>
+      <c r="F162" s="107"/>
+      <c r="G162" s="112">
+        <f>E162</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A146:A160"/>
-    <mergeCell ref="A112:A126"/>
-    <mergeCell ref="A78:A92"/>
-    <mergeCell ref="A129:A143"/>
-    <mergeCell ref="A95:A109"/>
-    <mergeCell ref="A44:A58"/>
-    <mergeCell ref="A61:A75"/>
+    <mergeCell ref="A45:A59"/>
+    <mergeCell ref="A62:A76"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A19:A41"/>
+    <mergeCell ref="A19:A42"/>
+    <mergeCell ref="A147:A161"/>
+    <mergeCell ref="A113:A127"/>
+    <mergeCell ref="A79:A93"/>
+    <mergeCell ref="A130:A144"/>
+    <mergeCell ref="A96:A110"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4524,13 +4555,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
       <c r="F1" s="7"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4560,18 +4591,18 @@
         <v>8</v>
       </c>
       <c r="B3" s="36"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
     </row>
     <row r="4" spans="1:8" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A4" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="87"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:8" hidden="1" outlineLevel="2">
@@ -4723,9 +4754,9 @@
         <v>9</v>
       </c>
       <c r="B21" s="90"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="166"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
     </row>
     <row r="22" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A22" s="47">
@@ -4876,9 +4907,9 @@
         <v>10</v>
       </c>
       <c r="B38" s="87"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="164"/>
-      <c r="E38" s="164"/>
+      <c r="C38" s="161"/>
+      <c r="D38" s="162"/>
+      <c r="E38" s="162"/>
     </row>
     <row r="39" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A39" s="47">
@@ -5029,9 +5060,9 @@
         <v>11</v>
       </c>
       <c r="B55" s="87"/>
-      <c r="C55" s="163"/>
-      <c r="D55" s="164"/>
-      <c r="E55" s="164"/>
+      <c r="C55" s="161"/>
+      <c r="D55" s="162"/>
+      <c r="E55" s="162"/>
     </row>
     <row r="56" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A56" s="47">
@@ -5182,9 +5213,9 @@
         <v>12</v>
       </c>
       <c r="B72" s="87"/>
-      <c r="C72" s="163"/>
-      <c r="D72" s="164"/>
-      <c r="E72" s="164"/>
+      <c r="C72" s="161"/>
+      <c r="D72" s="162"/>
+      <c r="E72" s="162"/>
     </row>
     <row r="73" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A73" s="47">
@@ -5335,9 +5366,9 @@
         <v>13</v>
       </c>
       <c r="B89" s="87"/>
-      <c r="C89" s="163"/>
-      <c r="D89" s="164"/>
-      <c r="E89" s="164"/>
+      <c r="C89" s="161"/>
+      <c r="D89" s="162"/>
+      <c r="E89" s="162"/>
     </row>
     <row r="90" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A90" s="47">
@@ -5488,9 +5519,9 @@
         <v>14</v>
       </c>
       <c r="B106" s="87"/>
-      <c r="C106" s="163"/>
-      <c r="D106" s="164"/>
-      <c r="E106" s="164"/>
+      <c r="C106" s="161"/>
+      <c r="D106" s="162"/>
+      <c r="E106" s="162"/>
     </row>
     <row r="107" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A107" s="47">
@@ -5641,9 +5672,9 @@
         <v>15</v>
       </c>
       <c r="B123" s="87"/>
-      <c r="C123" s="163"/>
-      <c r="D123" s="164"/>
-      <c r="E123" s="164"/>
+      <c r="C123" s="161"/>
+      <c r="D123" s="162"/>
+      <c r="E123" s="162"/>
     </row>
     <row r="124" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A124" s="47">
@@ -5794,9 +5825,9 @@
         <v>16</v>
       </c>
       <c r="B140" s="87"/>
-      <c r="C140" s="163"/>
-      <c r="D140" s="164"/>
-      <c r="E140" s="164"/>
+      <c r="C140" s="161"/>
+      <c r="D140" s="162"/>
+      <c r="E140" s="162"/>
     </row>
     <row r="141" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A141" s="47">
@@ -5947,9 +5978,9 @@
         <v>17</v>
       </c>
       <c r="B157" s="87"/>
-      <c r="C157" s="163"/>
-      <c r="D157" s="164"/>
-      <c r="E157" s="164"/>
+      <c r="C157" s="161"/>
+      <c r="D157" s="162"/>
+      <c r="E157" s="162"/>
     </row>
     <row r="158" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A158" s="47">
@@ -6100,9 +6131,9 @@
         <v>18</v>
       </c>
       <c r="B174" s="87"/>
-      <c r="C174" s="163"/>
-      <c r="D174" s="164"/>
-      <c r="E174" s="164"/>
+      <c r="C174" s="161"/>
+      <c r="D174" s="162"/>
+      <c r="E174" s="162"/>
     </row>
     <row r="175" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A175" s="47">
@@ -6253,9 +6284,9 @@
         <v>19</v>
       </c>
       <c r="B191" s="87"/>
-      <c r="C191" s="163"/>
-      <c r="D191" s="164"/>
-      <c r="E191" s="164"/>
+      <c r="C191" s="161"/>
+      <c r="D191" s="162"/>
+      <c r="E191" s="162"/>
     </row>
     <row r="192" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A192" s="47">
@@ -6406,9 +6437,9 @@
         <v>20</v>
       </c>
       <c r="B208" s="87"/>
-      <c r="C208" s="163"/>
-      <c r="D208" s="164"/>
-      <c r="E208" s="164"/>
+      <c r="C208" s="161"/>
+      <c r="D208" s="162"/>
+      <c r="E208" s="162"/>
     </row>
     <row r="209" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A209" s="47">
@@ -6559,9 +6590,9 @@
         <v>21</v>
       </c>
       <c r="B225" s="87"/>
-      <c r="C225" s="163"/>
-      <c r="D225" s="164"/>
-      <c r="E225" s="164"/>
+      <c r="C225" s="161"/>
+      <c r="D225" s="162"/>
+      <c r="E225" s="162"/>
     </row>
     <row r="226" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A226" s="47">
@@ -6712,9 +6743,9 @@
         <v>22</v>
       </c>
       <c r="B242" s="87"/>
-      <c r="C242" s="163"/>
-      <c r="D242" s="164"/>
-      <c r="E242" s="164"/>
+      <c r="C242" s="161"/>
+      <c r="D242" s="162"/>
+      <c r="E242" s="162"/>
     </row>
     <row r="243" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A243" s="47">
@@ -6865,9 +6896,9 @@
         <v>23</v>
       </c>
       <c r="B259" s="87"/>
-      <c r="C259" s="163"/>
-      <c r="D259" s="164"/>
-      <c r="E259" s="164"/>
+      <c r="C259" s="161"/>
+      <c r="D259" s="162"/>
+      <c r="E259" s="162"/>
     </row>
     <row r="260" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A260" s="47">
@@ -7018,18 +7049,18 @@
         <v>24</v>
       </c>
       <c r="B276" s="37"/>
-      <c r="C276" s="167"/>
-      <c r="D276" s="168"/>
-      <c r="E276" s="168"/>
+      <c r="C276" s="177"/>
+      <c r="D276" s="178"/>
+      <c r="E276" s="178"/>
     </row>
     <row r="277" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A277" s="51" t="s">
         <v>25</v>
       </c>
       <c r="B277" s="87"/>
-      <c r="C277" s="163"/>
-      <c r="D277" s="164"/>
-      <c r="E277" s="164"/>
+      <c r="C277" s="161"/>
+      <c r="D277" s="162"/>
+      <c r="E277" s="162"/>
     </row>
     <row r="278" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A278" s="52">
@@ -7180,9 +7211,9 @@
         <v>26</v>
       </c>
       <c r="B294" s="90"/>
-      <c r="C294" s="165"/>
-      <c r="D294" s="166"/>
-      <c r="E294" s="166"/>
+      <c r="C294" s="163"/>
+      <c r="D294" s="164"/>
+      <c r="E294" s="164"/>
     </row>
     <row r="295" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A295" s="52">
@@ -7333,9 +7364,9 @@
         <v>27</v>
       </c>
       <c r="B311" s="87"/>
-      <c r="C311" s="163"/>
-      <c r="D311" s="164"/>
-      <c r="E311" s="164"/>
+      <c r="C311" s="161"/>
+      <c r="D311" s="162"/>
+      <c r="E311" s="162"/>
     </row>
     <row r="312" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A312" s="52">
@@ -7486,9 +7517,9 @@
         <v>28</v>
       </c>
       <c r="B328" s="87"/>
-      <c r="C328" s="163"/>
-      <c r="D328" s="164"/>
-      <c r="E328" s="164"/>
+      <c r="C328" s="161"/>
+      <c r="D328" s="162"/>
+      <c r="E328" s="162"/>
     </row>
     <row r="329" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A329" s="52">
@@ -7639,9 +7670,9 @@
         <v>29</v>
       </c>
       <c r="B345" s="87"/>
-      <c r="C345" s="163"/>
-      <c r="D345" s="164"/>
-      <c r="E345" s="164"/>
+      <c r="C345" s="161"/>
+      <c r="D345" s="162"/>
+      <c r="E345" s="162"/>
     </row>
     <row r="346" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A346" s="52">
@@ -7792,9 +7823,9 @@
         <v>30</v>
       </c>
       <c r="B362" s="87"/>
-      <c r="C362" s="163"/>
-      <c r="D362" s="164"/>
-      <c r="E362" s="164"/>
+      <c r="C362" s="161"/>
+      <c r="D362" s="162"/>
+      <c r="E362" s="162"/>
     </row>
     <row r="363" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A363" s="52">
@@ -7945,9 +7976,9 @@
         <v>31</v>
       </c>
       <c r="B379" s="87"/>
-      <c r="C379" s="163"/>
-      <c r="D379" s="164"/>
-      <c r="E379" s="164"/>
+      <c r="C379" s="161"/>
+      <c r="D379" s="162"/>
+      <c r="E379" s="162"/>
     </row>
     <row r="380" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A380" s="52">
@@ -8098,9 +8129,9 @@
         <v>32</v>
       </c>
       <c r="B396" s="87"/>
-      <c r="C396" s="163"/>
-      <c r="D396" s="164"/>
-      <c r="E396" s="164"/>
+      <c r="C396" s="161"/>
+      <c r="D396" s="162"/>
+      <c r="E396" s="162"/>
     </row>
     <row r="397" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A397" s="52">
@@ -8251,9 +8282,9 @@
         <v>33</v>
       </c>
       <c r="B413" s="87"/>
-      <c r="C413" s="163"/>
-      <c r="D413" s="164"/>
-      <c r="E413" s="164"/>
+      <c r="C413" s="161"/>
+      <c r="D413" s="162"/>
+      <c r="E413" s="162"/>
     </row>
     <row r="414" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A414" s="52">
@@ -8404,9 +8435,9 @@
         <v>34</v>
       </c>
       <c r="B430" s="87"/>
-      <c r="C430" s="163"/>
-      <c r="D430" s="164"/>
-      <c r="E430" s="164"/>
+      <c r="C430" s="161"/>
+      <c r="D430" s="162"/>
+      <c r="E430" s="162"/>
     </row>
     <row r="431" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A431" s="52">
@@ -8557,9 +8588,9 @@
         <v>35</v>
       </c>
       <c r="B447" s="87"/>
-      <c r="C447" s="163"/>
-      <c r="D447" s="164"/>
-      <c r="E447" s="164"/>
+      <c r="C447" s="161"/>
+      <c r="D447" s="162"/>
+      <c r="E447" s="162"/>
     </row>
     <row r="448" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A448" s="52">
@@ -8710,9 +8741,9 @@
         <v>36</v>
       </c>
       <c r="B464" s="87"/>
-      <c r="C464" s="163"/>
-      <c r="D464" s="164"/>
-      <c r="E464" s="164"/>
+      <c r="C464" s="161"/>
+      <c r="D464" s="162"/>
+      <c r="E464" s="162"/>
     </row>
     <row r="465" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A465" s="52">
@@ -8863,9 +8894,9 @@
         <v>37</v>
       </c>
       <c r="B481" s="87"/>
-      <c r="C481" s="163"/>
-      <c r="D481" s="164"/>
-      <c r="E481" s="164"/>
+      <c r="C481" s="161"/>
+      <c r="D481" s="162"/>
+      <c r="E481" s="162"/>
     </row>
     <row r="482" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A482" s="52">
@@ -9016,9 +9047,9 @@
         <v>38</v>
       </c>
       <c r="B498" s="87"/>
-      <c r="C498" s="163"/>
-      <c r="D498" s="164"/>
-      <c r="E498" s="164"/>
+      <c r="C498" s="161"/>
+      <c r="D498" s="162"/>
+      <c r="E498" s="162"/>
     </row>
     <row r="499" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A499" s="52">
@@ -9169,9 +9200,9 @@
         <v>39</v>
       </c>
       <c r="B515" s="87"/>
-      <c r="C515" s="163"/>
-      <c r="D515" s="164"/>
-      <c r="E515" s="164"/>
+      <c r="C515" s="161"/>
+      <c r="D515" s="162"/>
+      <c r="E515" s="162"/>
     </row>
     <row r="516" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A516" s="52">
@@ -9322,9 +9353,9 @@
         <v>40</v>
       </c>
       <c r="B532" s="87"/>
-      <c r="C532" s="163"/>
-      <c r="D532" s="164"/>
-      <c r="E532" s="164"/>
+      <c r="C532" s="161"/>
+      <c r="D532" s="162"/>
+      <c r="E532" s="162"/>
     </row>
     <row r="533" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A533" s="55">
@@ -9475,18 +9506,18 @@
         <v>50</v>
       </c>
       <c r="B549" s="38"/>
-      <c r="C549" s="169"/>
-      <c r="D549" s="170"/>
-      <c r="E549" s="170"/>
+      <c r="C549" s="175"/>
+      <c r="D549" s="176"/>
+      <c r="E549" s="176"/>
     </row>
     <row r="550" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A550" s="58" t="s">
         <v>51</v>
       </c>
       <c r="B550" s="87"/>
-      <c r="C550" s="163"/>
-      <c r="D550" s="164"/>
-      <c r="E550" s="164"/>
+      <c r="C550" s="161"/>
+      <c r="D550" s="162"/>
+      <c r="E550" s="162"/>
     </row>
     <row r="551" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A551" s="59">
@@ -9637,9 +9668,9 @@
         <v>52</v>
       </c>
       <c r="B567" s="90"/>
-      <c r="C567" s="165"/>
-      <c r="D567" s="166"/>
-      <c r="E567" s="166"/>
+      <c r="C567" s="163"/>
+      <c r="D567" s="164"/>
+      <c r="E567" s="164"/>
     </row>
     <row r="568" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A568" s="59">
@@ -9790,9 +9821,9 @@
         <v>53</v>
       </c>
       <c r="B584" s="87"/>
-      <c r="C584" s="163"/>
-      <c r="D584" s="164"/>
-      <c r="E584" s="164"/>
+      <c r="C584" s="161"/>
+      <c r="D584" s="162"/>
+      <c r="E584" s="162"/>
     </row>
     <row r="585" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A585" s="59">
@@ -9943,9 +9974,9 @@
         <v>54</v>
       </c>
       <c r="B601" s="87"/>
-      <c r="C601" s="163"/>
-      <c r="D601" s="164"/>
-      <c r="E601" s="164"/>
+      <c r="C601" s="161"/>
+      <c r="D601" s="162"/>
+      <c r="E601" s="162"/>
     </row>
     <row r="602" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A602" s="59">
@@ -10096,9 +10127,9 @@
         <v>55</v>
       </c>
       <c r="B618" s="87"/>
-      <c r="C618" s="163"/>
-      <c r="D618" s="164"/>
-      <c r="E618" s="164"/>
+      <c r="C618" s="161"/>
+      <c r="D618" s="162"/>
+      <c r="E618" s="162"/>
     </row>
     <row r="619" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A619" s="59">
@@ -10249,9 +10280,9 @@
         <v>56</v>
       </c>
       <c r="B635" s="87"/>
-      <c r="C635" s="163"/>
-      <c r="D635" s="164"/>
-      <c r="E635" s="164"/>
+      <c r="C635" s="161"/>
+      <c r="D635" s="162"/>
+      <c r="E635" s="162"/>
     </row>
     <row r="636" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A636" s="59">
@@ -10402,9 +10433,9 @@
         <v>57</v>
       </c>
       <c r="B652" s="87"/>
-      <c r="C652" s="163"/>
-      <c r="D652" s="164"/>
-      <c r="E652" s="164"/>
+      <c r="C652" s="161"/>
+      <c r="D652" s="162"/>
+      <c r="E652" s="162"/>
     </row>
     <row r="653" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A653" s="59">
@@ -10555,9 +10586,9 @@
         <v>58</v>
       </c>
       <c r="B669" s="87"/>
-      <c r="C669" s="163"/>
-      <c r="D669" s="164"/>
-      <c r="E669" s="164"/>
+      <c r="C669" s="161"/>
+      <c r="D669" s="162"/>
+      <c r="E669" s="162"/>
     </row>
     <row r="670" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A670" s="59">
@@ -10708,9 +10739,9 @@
         <v>59</v>
       </c>
       <c r="B686" s="87"/>
-      <c r="C686" s="163"/>
-      <c r="D686" s="164"/>
-      <c r="E686" s="164"/>
+      <c r="C686" s="161"/>
+      <c r="D686" s="162"/>
+      <c r="E686" s="162"/>
     </row>
     <row r="687" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A687" s="59">
@@ -10861,9 +10892,9 @@
         <v>60</v>
       </c>
       <c r="B703" s="87"/>
-      <c r="C703" s="163"/>
-      <c r="D703" s="164"/>
-      <c r="E703" s="164"/>
+      <c r="C703" s="161"/>
+      <c r="D703" s="162"/>
+      <c r="E703" s="162"/>
     </row>
     <row r="704" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A704" s="59">
@@ -11014,9 +11045,9 @@
         <v>61</v>
       </c>
       <c r="B720" s="87"/>
-      <c r="C720" s="163"/>
-      <c r="D720" s="164"/>
-      <c r="E720" s="164"/>
+      <c r="C720" s="161"/>
+      <c r="D720" s="162"/>
+      <c r="E720" s="162"/>
     </row>
     <row r="721" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A721" s="59">
@@ -11167,9 +11198,9 @@
         <v>62</v>
       </c>
       <c r="B737" s="87"/>
-      <c r="C737" s="163"/>
-      <c r="D737" s="164"/>
-      <c r="E737" s="164"/>
+      <c r="C737" s="161"/>
+      <c r="D737" s="162"/>
+      <c r="E737" s="162"/>
     </row>
     <row r="738" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A738" s="59">
@@ -11320,9 +11351,9 @@
         <v>63</v>
       </c>
       <c r="B754" s="87"/>
-      <c r="C754" s="163"/>
-      <c r="D754" s="164"/>
-      <c r="E754" s="164"/>
+      <c r="C754" s="161"/>
+      <c r="D754" s="162"/>
+      <c r="E754" s="162"/>
     </row>
     <row r="755" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A755" s="59">
@@ -11473,9 +11504,9 @@
         <v>64</v>
       </c>
       <c r="B771" s="87"/>
-      <c r="C771" s="163"/>
-      <c r="D771" s="164"/>
-      <c r="E771" s="164"/>
+      <c r="C771" s="161"/>
+      <c r="D771" s="162"/>
+      <c r="E771" s="162"/>
     </row>
     <row r="772" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A772" s="59">
@@ -11626,9 +11657,9 @@
         <v>65</v>
       </c>
       <c r="B788" s="87"/>
-      <c r="C788" s="163"/>
-      <c r="D788" s="164"/>
-      <c r="E788" s="164"/>
+      <c r="C788" s="161"/>
+      <c r="D788" s="162"/>
+      <c r="E788" s="162"/>
     </row>
     <row r="789" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A789" s="59">
@@ -11779,9 +11810,9 @@
         <v>66</v>
       </c>
       <c r="B805" s="87"/>
-      <c r="C805" s="163"/>
-      <c r="D805" s="164"/>
-      <c r="E805" s="164"/>
+      <c r="C805" s="161"/>
+      <c r="D805" s="162"/>
+      <c r="E805" s="162"/>
     </row>
     <row r="806" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A806" s="59">
@@ -11932,18 +11963,18 @@
         <v>67</v>
       </c>
       <c r="B822" s="39"/>
-      <c r="C822" s="171"/>
-      <c r="D822" s="172"/>
-      <c r="E822" s="172"/>
+      <c r="C822" s="173"/>
+      <c r="D822" s="174"/>
+      <c r="E822" s="174"/>
     </row>
     <row r="823" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A823" s="63" t="s">
         <v>68</v>
       </c>
       <c r="B823" s="87"/>
-      <c r="C823" s="163"/>
-      <c r="D823" s="164"/>
-      <c r="E823" s="164"/>
+      <c r="C823" s="161"/>
+      <c r="D823" s="162"/>
+      <c r="E823" s="162"/>
     </row>
     <row r="824" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A824" s="64">
@@ -12094,9 +12125,9 @@
         <v>69</v>
       </c>
       <c r="B840" s="90"/>
-      <c r="C840" s="165"/>
-      <c r="D840" s="166"/>
-      <c r="E840" s="166"/>
+      <c r="C840" s="163"/>
+      <c r="D840" s="164"/>
+      <c r="E840" s="164"/>
     </row>
     <row r="841" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A841" s="64">
@@ -12247,9 +12278,9 @@
         <v>70</v>
       </c>
       <c r="B857" s="87"/>
-      <c r="C857" s="163"/>
-      <c r="D857" s="164"/>
-      <c r="E857" s="164"/>
+      <c r="C857" s="161"/>
+      <c r="D857" s="162"/>
+      <c r="E857" s="162"/>
     </row>
     <row r="858" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A858" s="64">
@@ -12400,9 +12431,9 @@
         <v>71</v>
       </c>
       <c r="B874" s="87"/>
-      <c r="C874" s="163"/>
-      <c r="D874" s="164"/>
-      <c r="E874" s="164"/>
+      <c r="C874" s="161"/>
+      <c r="D874" s="162"/>
+      <c r="E874" s="162"/>
     </row>
     <row r="875" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A875" s="64">
@@ -12553,9 +12584,9 @@
         <v>72</v>
       </c>
       <c r="B891" s="87"/>
-      <c r="C891" s="163"/>
-      <c r="D891" s="164"/>
-      <c r="E891" s="164"/>
+      <c r="C891" s="161"/>
+      <c r="D891" s="162"/>
+      <c r="E891" s="162"/>
     </row>
     <row r="892" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A892" s="64">
@@ -12706,9 +12737,9 @@
         <v>73</v>
       </c>
       <c r="B908" s="87"/>
-      <c r="C908" s="163"/>
-      <c r="D908" s="164"/>
-      <c r="E908" s="164"/>
+      <c r="C908" s="161"/>
+      <c r="D908" s="162"/>
+      <c r="E908" s="162"/>
     </row>
     <row r="909" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A909" s="64">
@@ -12859,9 +12890,9 @@
         <v>74</v>
       </c>
       <c r="B925" s="87"/>
-      <c r="C925" s="163"/>
-      <c r="D925" s="164"/>
-      <c r="E925" s="164"/>
+      <c r="C925" s="161"/>
+      <c r="D925" s="162"/>
+      <c r="E925" s="162"/>
     </row>
     <row r="926" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A926" s="64">
@@ -13012,9 +13043,9 @@
         <v>75</v>
       </c>
       <c r="B942" s="87"/>
-      <c r="C942" s="163"/>
-      <c r="D942" s="164"/>
-      <c r="E942" s="164"/>
+      <c r="C942" s="161"/>
+      <c r="D942" s="162"/>
+      <c r="E942" s="162"/>
     </row>
     <row r="943" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A943" s="64">
@@ -13165,9 +13196,9 @@
         <v>76</v>
       </c>
       <c r="B959" s="87"/>
-      <c r="C959" s="163"/>
-      <c r="D959" s="164"/>
-      <c r="E959" s="164"/>
+      <c r="C959" s="161"/>
+      <c r="D959" s="162"/>
+      <c r="E959" s="162"/>
     </row>
     <row r="960" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A960" s="64">
@@ -13318,9 +13349,9 @@
         <v>77</v>
       </c>
       <c r="B976" s="87"/>
-      <c r="C976" s="163"/>
-      <c r="D976" s="164"/>
-      <c r="E976" s="164"/>
+      <c r="C976" s="161"/>
+      <c r="D976" s="162"/>
+      <c r="E976" s="162"/>
     </row>
     <row r="977" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A977" s="64">
@@ -13471,9 +13502,9 @@
         <v>78</v>
       </c>
       <c r="B993" s="87"/>
-      <c r="C993" s="163"/>
-      <c r="D993" s="164"/>
-      <c r="E993" s="164"/>
+      <c r="C993" s="161"/>
+      <c r="D993" s="162"/>
+      <c r="E993" s="162"/>
     </row>
     <row r="994" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A994" s="64">
@@ -13624,9 +13655,9 @@
         <v>79</v>
       </c>
       <c r="B1010" s="87"/>
-      <c r="C1010" s="163"/>
-      <c r="D1010" s="164"/>
-      <c r="E1010" s="164"/>
+      <c r="C1010" s="161"/>
+      <c r="D1010" s="162"/>
+      <c r="E1010" s="162"/>
     </row>
     <row r="1011" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1011" s="64">
@@ -13777,9 +13808,9 @@
         <v>80</v>
       </c>
       <c r="B1027" s="87"/>
-      <c r="C1027" s="163"/>
-      <c r="D1027" s="164"/>
-      <c r="E1027" s="164"/>
+      <c r="C1027" s="161"/>
+      <c r="D1027" s="162"/>
+      <c r="E1027" s="162"/>
     </row>
     <row r="1028" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1028" s="64">
@@ -13930,9 +13961,9 @@
         <v>83</v>
       </c>
       <c r="B1044" s="87"/>
-      <c r="C1044" s="163"/>
-      <c r="D1044" s="164"/>
-      <c r="E1044" s="164"/>
+      <c r="C1044" s="161"/>
+      <c r="D1044" s="162"/>
+      <c r="E1044" s="162"/>
     </row>
     <row r="1045" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1045" s="64">
@@ -14083,9 +14114,9 @@
         <v>82</v>
       </c>
       <c r="B1061" s="87"/>
-      <c r="C1061" s="163"/>
-      <c r="D1061" s="164"/>
-      <c r="E1061" s="164"/>
+      <c r="C1061" s="161"/>
+      <c r="D1061" s="162"/>
+      <c r="E1061" s="162"/>
     </row>
     <row r="1062" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1062" s="64">
@@ -14236,9 +14267,9 @@
         <v>84</v>
       </c>
       <c r="B1078" s="87"/>
-      <c r="C1078" s="163"/>
-      <c r="D1078" s="164"/>
-      <c r="E1078" s="164"/>
+      <c r="C1078" s="161"/>
+      <c r="D1078" s="162"/>
+      <c r="E1078" s="162"/>
     </row>
     <row r="1079" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1079" s="64">
@@ -14389,18 +14420,18 @@
         <v>104</v>
       </c>
       <c r="B1095" s="40"/>
-      <c r="C1095" s="173"/>
-      <c r="D1095" s="174"/>
-      <c r="E1095" s="174"/>
+      <c r="C1095" s="171"/>
+      <c r="D1095" s="172"/>
+      <c r="E1095" s="172"/>
     </row>
     <row r="1096" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1096" s="68" t="s">
         <v>85</v>
       </c>
       <c r="B1096" s="87"/>
-      <c r="C1096" s="163"/>
-      <c r="D1096" s="164"/>
-      <c r="E1096" s="164"/>
+      <c r="C1096" s="161"/>
+      <c r="D1096" s="162"/>
+      <c r="E1096" s="162"/>
     </row>
     <row r="1097" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1097" s="69">
@@ -14551,9 +14582,9 @@
         <v>86</v>
       </c>
       <c r="B1113" s="90"/>
-      <c r="C1113" s="165"/>
-      <c r="D1113" s="166"/>
-      <c r="E1113" s="166"/>
+      <c r="C1113" s="163"/>
+      <c r="D1113" s="164"/>
+      <c r="E1113" s="164"/>
     </row>
     <row r="1114" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1114" s="69">
@@ -14704,9 +14735,9 @@
         <v>87</v>
       </c>
       <c r="B1130" s="87"/>
-      <c r="C1130" s="163"/>
-      <c r="D1130" s="164"/>
-      <c r="E1130" s="164"/>
+      <c r="C1130" s="161"/>
+      <c r="D1130" s="162"/>
+      <c r="E1130" s="162"/>
     </row>
     <row r="1131" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1131" s="69">
@@ -14857,9 +14888,9 @@
         <v>88</v>
       </c>
       <c r="B1147" s="87"/>
-      <c r="C1147" s="163"/>
-      <c r="D1147" s="164"/>
-      <c r="E1147" s="164"/>
+      <c r="C1147" s="161"/>
+      <c r="D1147" s="162"/>
+      <c r="E1147" s="162"/>
     </row>
     <row r="1148" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1148" s="69">
@@ -15010,9 +15041,9 @@
         <v>89</v>
       </c>
       <c r="B1164" s="87"/>
-      <c r="C1164" s="163"/>
-      <c r="D1164" s="164"/>
-      <c r="E1164" s="164"/>
+      <c r="C1164" s="161"/>
+      <c r="D1164" s="162"/>
+      <c r="E1164" s="162"/>
     </row>
     <row r="1165" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1165" s="69">
@@ -15163,9 +15194,9 @@
         <v>90</v>
       </c>
       <c r="B1181" s="87"/>
-      <c r="C1181" s="163"/>
-      <c r="D1181" s="164"/>
-      <c r="E1181" s="164"/>
+      <c r="C1181" s="161"/>
+      <c r="D1181" s="162"/>
+      <c r="E1181" s="162"/>
     </row>
     <row r="1182" spans="1:5" hidden="1" outlineLevel="3">
       <c r="A1182" s="69">
@@ -15316,9 +15347,9 @@
         <v>91</v>
       </c>
       <c r="B1198" s="87"/>
-      <c r="C1198" s="163"/>
-      <c r="D1198" s="164"/>
-      <c r="E1198" s="164"/>
+      <c r="C1198" s="161"/>
+      <c r="D1198" s="162"/>
+      <c r="E1198" s="162"/>
     </row>
     <row r="1199" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1199" s="69">
@@ -15469,9 +15500,9 @@
         <v>92</v>
       </c>
       <c r="B1215" s="87"/>
-      <c r="C1215" s="163"/>
-      <c r="D1215" s="164"/>
-      <c r="E1215" s="164"/>
+      <c r="C1215" s="161"/>
+      <c r="D1215" s="162"/>
+      <c r="E1215" s="162"/>
     </row>
     <row r="1216" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1216" s="69">
@@ -15622,9 +15653,9 @@
         <v>93</v>
       </c>
       <c r="B1232" s="87"/>
-      <c r="C1232" s="163"/>
-      <c r="D1232" s="164"/>
-      <c r="E1232" s="164"/>
+      <c r="C1232" s="161"/>
+      <c r="D1232" s="162"/>
+      <c r="E1232" s="162"/>
     </row>
     <row r="1233" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1233" s="69">
@@ -15775,9 +15806,9 @@
         <v>94</v>
       </c>
       <c r="B1249" s="87"/>
-      <c r="C1249" s="163"/>
-      <c r="D1249" s="164"/>
-      <c r="E1249" s="164"/>
+      <c r="C1249" s="161"/>
+      <c r="D1249" s="162"/>
+      <c r="E1249" s="162"/>
     </row>
     <row r="1250" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1250" s="69">
@@ -15928,9 +15959,9 @@
         <v>99</v>
       </c>
       <c r="B1266" s="87"/>
-      <c r="C1266" s="163"/>
-      <c r="D1266" s="164"/>
-      <c r="E1266" s="164"/>
+      <c r="C1266" s="161"/>
+      <c r="D1266" s="162"/>
+      <c r="E1266" s="162"/>
     </row>
     <row r="1267" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1267" s="69">
@@ -16081,9 +16112,9 @@
         <v>100</v>
       </c>
       <c r="B1283" s="87"/>
-      <c r="C1283" s="163"/>
-      <c r="D1283" s="164"/>
-      <c r="E1283" s="164"/>
+      <c r="C1283" s="161"/>
+      <c r="D1283" s="162"/>
+      <c r="E1283" s="162"/>
     </row>
     <row r="1284" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1284" s="69">
@@ -16234,9 +16265,9 @@
         <v>101</v>
       </c>
       <c r="B1300" s="87"/>
-      <c r="C1300" s="163"/>
-      <c r="D1300" s="164"/>
-      <c r="E1300" s="164"/>
+      <c r="C1300" s="161"/>
+      <c r="D1300" s="162"/>
+      <c r="E1300" s="162"/>
     </row>
     <row r="1301" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1301" s="69">
@@ -16387,9 +16418,9 @@
         <v>81</v>
       </c>
       <c r="B1317" s="87"/>
-      <c r="C1317" s="163"/>
-      <c r="D1317" s="164"/>
-      <c r="E1317" s="164"/>
+      <c r="C1317" s="161"/>
+      <c r="D1317" s="162"/>
+      <c r="E1317" s="162"/>
     </row>
     <row r="1318" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1318" s="69">
@@ -16540,9 +16571,9 @@
         <v>102</v>
       </c>
       <c r="B1334" s="87"/>
-      <c r="C1334" s="163"/>
-      <c r="D1334" s="164"/>
-      <c r="E1334" s="164"/>
+      <c r="C1334" s="161"/>
+      <c r="D1334" s="162"/>
+      <c r="E1334" s="162"/>
     </row>
     <row r="1335" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1335" s="69">
@@ -16693,9 +16724,9 @@
         <v>98</v>
       </c>
       <c r="B1351" s="87"/>
-      <c r="C1351" s="163"/>
-      <c r="D1351" s="164"/>
-      <c r="E1351" s="164"/>
+      <c r="C1351" s="161"/>
+      <c r="D1351" s="162"/>
+      <c r="E1351" s="162"/>
     </row>
     <row r="1352" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1352" s="69">
@@ -16846,18 +16877,18 @@
         <v>103</v>
       </c>
       <c r="B1368" s="41"/>
-      <c r="C1368" s="175"/>
-      <c r="D1368" s="176"/>
-      <c r="E1368" s="176"/>
+      <c r="C1368" s="169"/>
+      <c r="D1368" s="170"/>
+      <c r="E1368" s="170"/>
     </row>
     <row r="1369" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1369" s="73" t="s">
         <v>105</v>
       </c>
       <c r="B1369" s="87"/>
-      <c r="C1369" s="163"/>
-      <c r="D1369" s="164"/>
-      <c r="E1369" s="164"/>
+      <c r="C1369" s="161"/>
+      <c r="D1369" s="162"/>
+      <c r="E1369" s="162"/>
     </row>
     <row r="1370" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1370" s="74">
@@ -17008,9 +17039,9 @@
         <v>106</v>
       </c>
       <c r="B1386" s="90"/>
-      <c r="C1386" s="165"/>
-      <c r="D1386" s="166"/>
-      <c r="E1386" s="166"/>
+      <c r="C1386" s="163"/>
+      <c r="D1386" s="164"/>
+      <c r="E1386" s="164"/>
     </row>
     <row r="1387" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1387" s="74">
@@ -17161,9 +17192,9 @@
         <v>107</v>
       </c>
       <c r="B1403" s="87"/>
-      <c r="C1403" s="163"/>
-      <c r="D1403" s="164"/>
-      <c r="E1403" s="164"/>
+      <c r="C1403" s="161"/>
+      <c r="D1403" s="162"/>
+      <c r="E1403" s="162"/>
     </row>
     <row r="1404" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1404" s="74">
@@ -17314,9 +17345,9 @@
         <v>108</v>
       </c>
       <c r="B1420" s="87"/>
-      <c r="C1420" s="163"/>
-      <c r="D1420" s="164"/>
-      <c r="E1420" s="164"/>
+      <c r="C1420" s="161"/>
+      <c r="D1420" s="162"/>
+      <c r="E1420" s="162"/>
     </row>
     <row r="1421" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1421" s="74">
@@ -17467,9 +17498,9 @@
         <v>109</v>
       </c>
       <c r="B1437" s="87"/>
-      <c r="C1437" s="163"/>
-      <c r="D1437" s="164"/>
-      <c r="E1437" s="164"/>
+      <c r="C1437" s="161"/>
+      <c r="D1437" s="162"/>
+      <c r="E1437" s="162"/>
     </row>
     <row r="1438" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1438" s="74">
@@ -17620,9 +17651,9 @@
         <v>110</v>
       </c>
       <c r="B1454" s="87"/>
-      <c r="C1454" s="163"/>
-      <c r="D1454" s="164"/>
-      <c r="E1454" s="164"/>
+      <c r="C1454" s="161"/>
+      <c r="D1454" s="162"/>
+      <c r="E1454" s="162"/>
     </row>
     <row r="1455" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1455" s="74">
@@ -17773,9 +17804,9 @@
         <v>111</v>
       </c>
       <c r="B1471" s="87"/>
-      <c r="C1471" s="163"/>
-      <c r="D1471" s="164"/>
-      <c r="E1471" s="164"/>
+      <c r="C1471" s="161"/>
+      <c r="D1471" s="162"/>
+      <c r="E1471" s="162"/>
     </row>
     <row r="1472" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1472" s="74">
@@ -17926,9 +17957,9 @@
         <v>112</v>
       </c>
       <c r="B1488" s="87"/>
-      <c r="C1488" s="163"/>
-      <c r="D1488" s="164"/>
-      <c r="E1488" s="164"/>
+      <c r="C1488" s="161"/>
+      <c r="D1488" s="162"/>
+      <c r="E1488" s="162"/>
     </row>
     <row r="1489" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1489" s="74">
@@ -18079,9 +18110,9 @@
         <v>113</v>
       </c>
       <c r="B1505" s="87"/>
-      <c r="C1505" s="163"/>
-      <c r="D1505" s="164"/>
-      <c r="E1505" s="164"/>
+      <c r="C1505" s="161"/>
+      <c r="D1505" s="162"/>
+      <c r="E1505" s="162"/>
     </row>
     <row r="1506" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1506" s="74">
@@ -18232,9 +18263,9 @@
         <v>114</v>
       </c>
       <c r="B1522" s="87"/>
-      <c r="C1522" s="163"/>
-      <c r="D1522" s="164"/>
-      <c r="E1522" s="164"/>
+      <c r="C1522" s="161"/>
+      <c r="D1522" s="162"/>
+      <c r="E1522" s="162"/>
     </row>
     <row r="1523" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1523" s="74">
@@ -18385,9 +18416,9 @@
         <v>95</v>
       </c>
       <c r="B1539" s="87"/>
-      <c r="C1539" s="163"/>
-      <c r="D1539" s="164"/>
-      <c r="E1539" s="164"/>
+      <c r="C1539" s="161"/>
+      <c r="D1539" s="162"/>
+      <c r="E1539" s="162"/>
     </row>
     <row r="1540" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1540" s="74">
@@ -18538,9 +18569,9 @@
         <v>115</v>
       </c>
       <c r="B1556" s="87"/>
-      <c r="C1556" s="163"/>
-      <c r="D1556" s="164"/>
-      <c r="E1556" s="164"/>
+      <c r="C1556" s="161"/>
+      <c r="D1556" s="162"/>
+      <c r="E1556" s="162"/>
     </row>
     <row r="1557" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1557" s="74">
@@ -18691,9 +18722,9 @@
         <v>116</v>
       </c>
       <c r="B1573" s="87"/>
-      <c r="C1573" s="163"/>
-      <c r="D1573" s="164"/>
-      <c r="E1573" s="164"/>
+      <c r="C1573" s="161"/>
+      <c r="D1573" s="162"/>
+      <c r="E1573" s="162"/>
     </row>
     <row r="1574" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1574" s="74">
@@ -18844,9 +18875,9 @@
         <v>117</v>
       </c>
       <c r="B1590" s="87"/>
-      <c r="C1590" s="163"/>
-      <c r="D1590" s="164"/>
-      <c r="E1590" s="164"/>
+      <c r="C1590" s="161"/>
+      <c r="D1590" s="162"/>
+      <c r="E1590" s="162"/>
     </row>
     <row r="1591" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1591" s="74">
@@ -18997,9 +19028,9 @@
         <v>118</v>
       </c>
       <c r="B1607" s="87"/>
-      <c r="C1607" s="163"/>
-      <c r="D1607" s="164"/>
-      <c r="E1607" s="164"/>
+      <c r="C1607" s="161"/>
+      <c r="D1607" s="162"/>
+      <c r="E1607" s="162"/>
     </row>
     <row r="1608" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1608" s="74">
@@ -19150,9 +19181,9 @@
         <v>119</v>
       </c>
       <c r="B1624" s="87"/>
-      <c r="C1624" s="163"/>
-      <c r="D1624" s="164"/>
-      <c r="E1624" s="164"/>
+      <c r="C1624" s="161"/>
+      <c r="D1624" s="162"/>
+      <c r="E1624" s="162"/>
     </row>
     <row r="1625" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1625" s="74">
@@ -19303,18 +19334,18 @@
         <v>120</v>
       </c>
       <c r="B1641" s="42"/>
-      <c r="C1641" s="177"/>
-      <c r="D1641" s="178"/>
-      <c r="E1641" s="178"/>
+      <c r="C1641" s="167"/>
+      <c r="D1641" s="168"/>
+      <c r="E1641" s="168"/>
     </row>
     <row r="1642" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1642" s="78" t="s">
         <v>121</v>
       </c>
       <c r="B1642" s="87"/>
-      <c r="C1642" s="163"/>
-      <c r="D1642" s="164"/>
-      <c r="E1642" s="164"/>
+      <c r="C1642" s="161"/>
+      <c r="D1642" s="162"/>
+      <c r="E1642" s="162"/>
     </row>
     <row r="1643" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1643" s="79">
@@ -19465,9 +19496,9 @@
         <v>122</v>
       </c>
       <c r="B1659" s="90"/>
-      <c r="C1659" s="165"/>
-      <c r="D1659" s="166"/>
-      <c r="E1659" s="166"/>
+      <c r="C1659" s="163"/>
+      <c r="D1659" s="164"/>
+      <c r="E1659" s="164"/>
     </row>
     <row r="1660" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1660" s="79">
@@ -19618,9 +19649,9 @@
         <v>123</v>
       </c>
       <c r="B1676" s="87"/>
-      <c r="C1676" s="163"/>
-      <c r="D1676" s="164"/>
-      <c r="E1676" s="164"/>
+      <c r="C1676" s="161"/>
+      <c r="D1676" s="162"/>
+      <c r="E1676" s="162"/>
     </row>
     <row r="1677" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1677" s="79">
@@ -19771,9 +19802,9 @@
         <v>124</v>
       </c>
       <c r="B1693" s="87"/>
-      <c r="C1693" s="163"/>
-      <c r="D1693" s="164"/>
-      <c r="E1693" s="164"/>
+      <c r="C1693" s="161"/>
+      <c r="D1693" s="162"/>
+      <c r="E1693" s="162"/>
     </row>
     <row r="1694" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1694" s="79">
@@ -19924,9 +19955,9 @@
         <v>125</v>
       </c>
       <c r="B1710" s="87"/>
-      <c r="C1710" s="163"/>
-      <c r="D1710" s="164"/>
-      <c r="E1710" s="164"/>
+      <c r="C1710" s="161"/>
+      <c r="D1710" s="162"/>
+      <c r="E1710" s="162"/>
     </row>
     <row r="1711" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1711" s="79">
@@ -20077,9 +20108,9 @@
         <v>126</v>
       </c>
       <c r="B1727" s="87"/>
-      <c r="C1727" s="163"/>
-      <c r="D1727" s="164"/>
-      <c r="E1727" s="164"/>
+      <c r="C1727" s="161"/>
+      <c r="D1727" s="162"/>
+      <c r="E1727" s="162"/>
     </row>
     <row r="1728" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1728" s="79">
@@ -20230,9 +20261,9 @@
         <v>127</v>
       </c>
       <c r="B1744" s="87"/>
-      <c r="C1744" s="163"/>
-      <c r="D1744" s="164"/>
-      <c r="E1744" s="164"/>
+      <c r="C1744" s="161"/>
+      <c r="D1744" s="162"/>
+      <c r="E1744" s="162"/>
     </row>
     <row r="1745" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1745" s="79">
@@ -20383,9 +20414,9 @@
         <v>128</v>
       </c>
       <c r="B1761" s="87"/>
-      <c r="C1761" s="163"/>
-      <c r="D1761" s="164"/>
-      <c r="E1761" s="164"/>
+      <c r="C1761" s="161"/>
+      <c r="D1761" s="162"/>
+      <c r="E1761" s="162"/>
     </row>
     <row r="1762" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1762" s="79">
@@ -20536,9 +20567,9 @@
         <v>129</v>
       </c>
       <c r="B1778" s="87"/>
-      <c r="C1778" s="163"/>
-      <c r="D1778" s="164"/>
-      <c r="E1778" s="164"/>
+      <c r="C1778" s="161"/>
+      <c r="D1778" s="162"/>
+      <c r="E1778" s="162"/>
     </row>
     <row r="1779" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1779" s="79">
@@ -20689,9 +20720,9 @@
         <v>130</v>
       </c>
       <c r="B1795" s="87"/>
-      <c r="C1795" s="163"/>
-      <c r="D1795" s="164"/>
-      <c r="E1795" s="164"/>
+      <c r="C1795" s="161"/>
+      <c r="D1795" s="162"/>
+      <c r="E1795" s="162"/>
     </row>
     <row r="1796" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1796" s="79">
@@ -20842,9 +20873,9 @@
         <v>131</v>
       </c>
       <c r="B1812" s="87"/>
-      <c r="C1812" s="163"/>
-      <c r="D1812" s="164"/>
-      <c r="E1812" s="164"/>
+      <c r="C1812" s="161"/>
+      <c r="D1812" s="162"/>
+      <c r="E1812" s="162"/>
     </row>
     <row r="1813" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1813" s="79">
@@ -20995,9 +21026,9 @@
         <v>96</v>
       </c>
       <c r="B1829" s="87"/>
-      <c r="C1829" s="163"/>
-      <c r="D1829" s="164"/>
-      <c r="E1829" s="164"/>
+      <c r="C1829" s="161"/>
+      <c r="D1829" s="162"/>
+      <c r="E1829" s="162"/>
     </row>
     <row r="1830" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1830" s="79">
@@ -21148,9 +21179,9 @@
         <v>132</v>
       </c>
       <c r="B1846" s="87"/>
-      <c r="C1846" s="163"/>
-      <c r="D1846" s="164"/>
-      <c r="E1846" s="164"/>
+      <c r="C1846" s="161"/>
+      <c r="D1846" s="162"/>
+      <c r="E1846" s="162"/>
     </row>
     <row r="1847" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1847" s="79">
@@ -21301,9 +21332,9 @@
         <v>133</v>
       </c>
       <c r="B1863" s="87"/>
-      <c r="C1863" s="163"/>
-      <c r="D1863" s="164"/>
-      <c r="E1863" s="164"/>
+      <c r="C1863" s="161"/>
+      <c r="D1863" s="162"/>
+      <c r="E1863" s="162"/>
     </row>
     <row r="1864" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1864" s="79">
@@ -21454,9 +21485,9 @@
         <v>134</v>
       </c>
       <c r="B1880" s="87"/>
-      <c r="C1880" s="163"/>
-      <c r="D1880" s="164"/>
-      <c r="E1880" s="164"/>
+      <c r="C1880" s="161"/>
+      <c r="D1880" s="162"/>
+      <c r="E1880" s="162"/>
     </row>
     <row r="1881" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1881" s="79">
@@ -21607,9 +21638,9 @@
         <v>135</v>
       </c>
       <c r="B1897" s="87"/>
-      <c r="C1897" s="163"/>
-      <c r="D1897" s="164"/>
-      <c r="E1897" s="164"/>
+      <c r="C1897" s="161"/>
+      <c r="D1897" s="162"/>
+      <c r="E1897" s="162"/>
     </row>
     <row r="1898" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1898" s="79">
@@ -21760,18 +21791,18 @@
         <v>136</v>
       </c>
       <c r="B1914" s="43"/>
-      <c r="C1914" s="179"/>
-      <c r="D1914" s="180"/>
-      <c r="E1914" s="180"/>
+      <c r="C1914" s="165"/>
+      <c r="D1914" s="166"/>
+      <c r="E1914" s="166"/>
     </row>
     <row r="1915" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1915" s="83" t="s">
         <v>137</v>
       </c>
       <c r="B1915" s="87"/>
-      <c r="C1915" s="163"/>
-      <c r="D1915" s="164"/>
-      <c r="E1915" s="164"/>
+      <c r="C1915" s="161"/>
+      <c r="D1915" s="162"/>
+      <c r="E1915" s="162"/>
     </row>
     <row r="1916" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1916" s="84">
@@ -21922,9 +21953,9 @@
         <v>138</v>
       </c>
       <c r="B1932" s="90"/>
-      <c r="C1932" s="165"/>
-      <c r="D1932" s="166"/>
-      <c r="E1932" s="166"/>
+      <c r="C1932" s="163"/>
+      <c r="D1932" s="164"/>
+      <c r="E1932" s="164"/>
     </row>
     <row r="1933" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1933" s="84">
@@ -22075,9 +22106,9 @@
         <v>139</v>
       </c>
       <c r="B1949" s="87"/>
-      <c r="C1949" s="163"/>
-      <c r="D1949" s="164"/>
-      <c r="E1949" s="164"/>
+      <c r="C1949" s="161"/>
+      <c r="D1949" s="162"/>
+      <c r="E1949" s="162"/>
     </row>
     <row r="1950" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1950" s="84">
@@ -22228,9 +22259,9 @@
         <v>140</v>
       </c>
       <c r="B1966" s="87"/>
-      <c r="C1966" s="163"/>
-      <c r="D1966" s="164"/>
-      <c r="E1966" s="164"/>
+      <c r="C1966" s="161"/>
+      <c r="D1966" s="162"/>
+      <c r="E1966" s="162"/>
     </row>
     <row r="1967" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1967" s="84">
@@ -22381,9 +22412,9 @@
         <v>141</v>
       </c>
       <c r="B1983" s="87"/>
-      <c r="C1983" s="163"/>
-      <c r="D1983" s="164"/>
-      <c r="E1983" s="164"/>
+      <c r="C1983" s="161"/>
+      <c r="D1983" s="162"/>
+      <c r="E1983" s="162"/>
     </row>
     <row r="1984" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1984" s="84">
@@ -22534,9 +22565,9 @@
         <v>142</v>
       </c>
       <c r="B2000" s="87"/>
-      <c r="C2000" s="163"/>
-      <c r="D2000" s="164"/>
-      <c r="E2000" s="164"/>
+      <c r="C2000" s="161"/>
+      <c r="D2000" s="162"/>
+      <c r="E2000" s="162"/>
     </row>
     <row r="2001" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2001" s="84">
@@ -22687,9 +22718,9 @@
         <v>143</v>
       </c>
       <c r="B2017" s="87"/>
-      <c r="C2017" s="163"/>
-      <c r="D2017" s="164"/>
-      <c r="E2017" s="164"/>
+      <c r="C2017" s="161"/>
+      <c r="D2017" s="162"/>
+      <c r="E2017" s="162"/>
     </row>
     <row r="2018" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2018" s="84">
@@ -22840,9 +22871,9 @@
         <v>144</v>
       </c>
       <c r="B2034" s="87"/>
-      <c r="C2034" s="163"/>
-      <c r="D2034" s="164"/>
-      <c r="E2034" s="164"/>
+      <c r="C2034" s="161"/>
+      <c r="D2034" s="162"/>
+      <c r="E2034" s="162"/>
     </row>
     <row r="2035" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2035" s="84">
@@ -22993,9 +23024,9 @@
         <v>145</v>
       </c>
       <c r="B2051" s="87"/>
-      <c r="C2051" s="163"/>
-      <c r="D2051" s="164"/>
-      <c r="E2051" s="164"/>
+      <c r="C2051" s="161"/>
+      <c r="D2051" s="162"/>
+      <c r="E2051" s="162"/>
     </row>
     <row r="2052" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2052" s="84">
@@ -23146,9 +23177,9 @@
         <v>146</v>
       </c>
       <c r="B2068" s="87"/>
-      <c r="C2068" s="163"/>
-      <c r="D2068" s="164"/>
-      <c r="E2068" s="164"/>
+      <c r="C2068" s="161"/>
+      <c r="D2068" s="162"/>
+      <c r="E2068" s="162"/>
     </row>
     <row r="2069" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2069" s="84">
@@ -23299,9 +23330,9 @@
         <v>147</v>
       </c>
       <c r="B2085" s="87"/>
-      <c r="C2085" s="163"/>
-      <c r="D2085" s="164"/>
-      <c r="E2085" s="164"/>
+      <c r="C2085" s="161"/>
+      <c r="D2085" s="162"/>
+      <c r="E2085" s="162"/>
     </row>
     <row r="2086" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2086" s="84">
@@ -23452,9 +23483,9 @@
         <v>148</v>
       </c>
       <c r="B2102" s="87"/>
-      <c r="C2102" s="163"/>
-      <c r="D2102" s="164"/>
-      <c r="E2102" s="164"/>
+      <c r="C2102" s="161"/>
+      <c r="D2102" s="162"/>
+      <c r="E2102" s="162"/>
     </row>
     <row r="2103" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2103" s="84">
@@ -23605,9 +23636,9 @@
         <v>97</v>
       </c>
       <c r="B2119" s="87"/>
-      <c r="C2119" s="163"/>
-      <c r="D2119" s="164"/>
-      <c r="E2119" s="164"/>
+      <c r="C2119" s="161"/>
+      <c r="D2119" s="162"/>
+      <c r="E2119" s="162"/>
     </row>
     <row r="2120" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2120" s="84">
@@ -23758,9 +23789,9 @@
         <v>149</v>
       </c>
       <c r="B2136" s="87"/>
-      <c r="C2136" s="163"/>
-      <c r="D2136" s="164"/>
-      <c r="E2136" s="164"/>
+      <c r="C2136" s="161"/>
+      <c r="D2136" s="162"/>
+      <c r="E2136" s="162"/>
     </row>
     <row r="2137" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2137" s="84">
@@ -23911,9 +23942,9 @@
         <v>150</v>
       </c>
       <c r="B2153" s="87"/>
-      <c r="C2153" s="163"/>
-      <c r="D2153" s="164"/>
-      <c r="E2153" s="164"/>
+      <c r="C2153" s="161"/>
+      <c r="D2153" s="162"/>
+      <c r="E2153" s="162"/>
     </row>
     <row r="2154" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2154" s="84">
@@ -24064,9 +24095,9 @@
         <v>151</v>
       </c>
       <c r="B2170" s="87"/>
-      <c r="C2170" s="163"/>
-      <c r="D2170" s="164"/>
-      <c r="E2170" s="164"/>
+      <c r="C2170" s="161"/>
+      <c r="D2170" s="162"/>
+      <c r="E2170" s="162"/>
     </row>
     <row r="2171" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2171" s="84">
@@ -24214,15 +24245,122 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="C2034:E2034"/>
-    <mergeCell ref="C2051:E2051"/>
-    <mergeCell ref="C2068:E2068"/>
-    <mergeCell ref="C2085:E2085"/>
-    <mergeCell ref="C2170:E2170"/>
-    <mergeCell ref="C2102:E2102"/>
-    <mergeCell ref="C2119:E2119"/>
-    <mergeCell ref="C2136:E2136"/>
-    <mergeCell ref="C2153:E2153"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="C242:E242"/>
+    <mergeCell ref="C259:E259"/>
+    <mergeCell ref="C276:E276"/>
+    <mergeCell ref="C277:E277"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="C396:E396"/>
+    <mergeCell ref="C413:E413"/>
+    <mergeCell ref="C430:E430"/>
+    <mergeCell ref="C447:E447"/>
+    <mergeCell ref="C464:E464"/>
+    <mergeCell ref="C481:E481"/>
+    <mergeCell ref="C294:E294"/>
+    <mergeCell ref="C311:E311"/>
+    <mergeCell ref="C328:E328"/>
+    <mergeCell ref="C345:E345"/>
+    <mergeCell ref="C362:E362"/>
+    <mergeCell ref="C379:E379"/>
+    <mergeCell ref="C584:E584"/>
+    <mergeCell ref="C601:E601"/>
+    <mergeCell ref="C618:E618"/>
+    <mergeCell ref="C635:E635"/>
+    <mergeCell ref="C652:E652"/>
+    <mergeCell ref="C669:E669"/>
+    <mergeCell ref="C498:E498"/>
+    <mergeCell ref="C515:E515"/>
+    <mergeCell ref="C532:E532"/>
+    <mergeCell ref="C549:E549"/>
+    <mergeCell ref="C550:E550"/>
+    <mergeCell ref="C567:E567"/>
+    <mergeCell ref="C788:E788"/>
+    <mergeCell ref="C805:E805"/>
+    <mergeCell ref="C822:E822"/>
+    <mergeCell ref="C823:E823"/>
+    <mergeCell ref="C840:E840"/>
+    <mergeCell ref="C857:E857"/>
+    <mergeCell ref="C686:E686"/>
+    <mergeCell ref="C703:E703"/>
+    <mergeCell ref="C720:E720"/>
+    <mergeCell ref="C737:E737"/>
+    <mergeCell ref="C754:E754"/>
+    <mergeCell ref="C771:E771"/>
+    <mergeCell ref="C976:E976"/>
+    <mergeCell ref="C993:E993"/>
+    <mergeCell ref="C1010:E1010"/>
+    <mergeCell ref="C1027:E1027"/>
+    <mergeCell ref="C1044:E1044"/>
+    <mergeCell ref="C1061:E1061"/>
+    <mergeCell ref="C874:E874"/>
+    <mergeCell ref="C891:E891"/>
+    <mergeCell ref="C908:E908"/>
+    <mergeCell ref="C925:E925"/>
+    <mergeCell ref="C942:E942"/>
+    <mergeCell ref="C959:E959"/>
+    <mergeCell ref="C1164:E1164"/>
+    <mergeCell ref="C1181:E1181"/>
+    <mergeCell ref="C1198:E1198"/>
+    <mergeCell ref="C1215:E1215"/>
+    <mergeCell ref="C1232:E1232"/>
+    <mergeCell ref="C1249:E1249"/>
+    <mergeCell ref="C1078:E1078"/>
+    <mergeCell ref="C1095:E1095"/>
+    <mergeCell ref="C1096:E1096"/>
+    <mergeCell ref="C1113:E1113"/>
+    <mergeCell ref="C1130:E1130"/>
+    <mergeCell ref="C1147:E1147"/>
+    <mergeCell ref="C1368:E1368"/>
+    <mergeCell ref="C1369:E1369"/>
+    <mergeCell ref="C1386:E1386"/>
+    <mergeCell ref="C1403:E1403"/>
+    <mergeCell ref="C1420:E1420"/>
+    <mergeCell ref="C1437:E1437"/>
+    <mergeCell ref="C1266:E1266"/>
+    <mergeCell ref="C1283:E1283"/>
+    <mergeCell ref="C1300:E1300"/>
+    <mergeCell ref="C1317:E1317"/>
+    <mergeCell ref="C1334:E1334"/>
+    <mergeCell ref="C1351:E1351"/>
+    <mergeCell ref="C1556:E1556"/>
+    <mergeCell ref="C1573:E1573"/>
+    <mergeCell ref="C1590:E1590"/>
+    <mergeCell ref="C1607:E1607"/>
+    <mergeCell ref="C1624:E1624"/>
+    <mergeCell ref="C1641:E1641"/>
+    <mergeCell ref="C1454:E1454"/>
+    <mergeCell ref="C1471:E1471"/>
+    <mergeCell ref="C1488:E1488"/>
+    <mergeCell ref="C1505:E1505"/>
+    <mergeCell ref="C1522:E1522"/>
+    <mergeCell ref="C1539:E1539"/>
+    <mergeCell ref="C1744:E1744"/>
+    <mergeCell ref="C1761:E1761"/>
+    <mergeCell ref="C1778:E1778"/>
+    <mergeCell ref="C1795:E1795"/>
+    <mergeCell ref="C1812:E1812"/>
+    <mergeCell ref="C1829:E1829"/>
+    <mergeCell ref="C1642:E1642"/>
+    <mergeCell ref="C1659:E1659"/>
+    <mergeCell ref="C1676:E1676"/>
+    <mergeCell ref="C1693:E1693"/>
+    <mergeCell ref="C1710:E1710"/>
+    <mergeCell ref="C1727:E1727"/>
     <mergeCell ref="C1932:E1932"/>
     <mergeCell ref="C1949:E1949"/>
     <mergeCell ref="C1966:E1966"/>
@@ -24235,124 +24373,17 @@
     <mergeCell ref="C1897:E1897"/>
     <mergeCell ref="C1914:E1914"/>
     <mergeCell ref="C1915:E1915"/>
-    <mergeCell ref="C1744:E1744"/>
-    <mergeCell ref="C1761:E1761"/>
-    <mergeCell ref="C1778:E1778"/>
-    <mergeCell ref="C1795:E1795"/>
-    <mergeCell ref="C1812:E1812"/>
-    <mergeCell ref="C1829:E1829"/>
-    <mergeCell ref="C1642:E1642"/>
-    <mergeCell ref="C1659:E1659"/>
-    <mergeCell ref="C1676:E1676"/>
-    <mergeCell ref="C1693:E1693"/>
-    <mergeCell ref="C1710:E1710"/>
-    <mergeCell ref="C1727:E1727"/>
-    <mergeCell ref="C1556:E1556"/>
-    <mergeCell ref="C1573:E1573"/>
-    <mergeCell ref="C1590:E1590"/>
-    <mergeCell ref="C1607:E1607"/>
-    <mergeCell ref="C1624:E1624"/>
-    <mergeCell ref="C1641:E1641"/>
-    <mergeCell ref="C1454:E1454"/>
-    <mergeCell ref="C1471:E1471"/>
-    <mergeCell ref="C1488:E1488"/>
-    <mergeCell ref="C1505:E1505"/>
-    <mergeCell ref="C1522:E1522"/>
-    <mergeCell ref="C1539:E1539"/>
-    <mergeCell ref="C1368:E1368"/>
-    <mergeCell ref="C1369:E1369"/>
-    <mergeCell ref="C1386:E1386"/>
-    <mergeCell ref="C1403:E1403"/>
-    <mergeCell ref="C1420:E1420"/>
-    <mergeCell ref="C1437:E1437"/>
-    <mergeCell ref="C1266:E1266"/>
-    <mergeCell ref="C1283:E1283"/>
-    <mergeCell ref="C1300:E1300"/>
-    <mergeCell ref="C1317:E1317"/>
-    <mergeCell ref="C1334:E1334"/>
-    <mergeCell ref="C1351:E1351"/>
-    <mergeCell ref="C1164:E1164"/>
-    <mergeCell ref="C1181:E1181"/>
-    <mergeCell ref="C1198:E1198"/>
-    <mergeCell ref="C1215:E1215"/>
-    <mergeCell ref="C1232:E1232"/>
-    <mergeCell ref="C1249:E1249"/>
-    <mergeCell ref="C1078:E1078"/>
-    <mergeCell ref="C1095:E1095"/>
-    <mergeCell ref="C1096:E1096"/>
-    <mergeCell ref="C1113:E1113"/>
-    <mergeCell ref="C1130:E1130"/>
-    <mergeCell ref="C1147:E1147"/>
-    <mergeCell ref="C976:E976"/>
-    <mergeCell ref="C993:E993"/>
-    <mergeCell ref="C1010:E1010"/>
-    <mergeCell ref="C1027:E1027"/>
-    <mergeCell ref="C1044:E1044"/>
-    <mergeCell ref="C1061:E1061"/>
-    <mergeCell ref="C874:E874"/>
-    <mergeCell ref="C891:E891"/>
-    <mergeCell ref="C908:E908"/>
-    <mergeCell ref="C925:E925"/>
-    <mergeCell ref="C942:E942"/>
-    <mergeCell ref="C959:E959"/>
-    <mergeCell ref="C788:E788"/>
-    <mergeCell ref="C805:E805"/>
-    <mergeCell ref="C822:E822"/>
-    <mergeCell ref="C823:E823"/>
-    <mergeCell ref="C840:E840"/>
-    <mergeCell ref="C857:E857"/>
-    <mergeCell ref="C686:E686"/>
-    <mergeCell ref="C703:E703"/>
-    <mergeCell ref="C720:E720"/>
-    <mergeCell ref="C737:E737"/>
-    <mergeCell ref="C754:E754"/>
-    <mergeCell ref="C771:E771"/>
-    <mergeCell ref="C584:E584"/>
-    <mergeCell ref="C601:E601"/>
-    <mergeCell ref="C618:E618"/>
-    <mergeCell ref="C635:E635"/>
-    <mergeCell ref="C652:E652"/>
-    <mergeCell ref="C669:E669"/>
-    <mergeCell ref="C498:E498"/>
-    <mergeCell ref="C515:E515"/>
-    <mergeCell ref="C532:E532"/>
-    <mergeCell ref="C549:E549"/>
-    <mergeCell ref="C550:E550"/>
-    <mergeCell ref="C567:E567"/>
-    <mergeCell ref="C396:E396"/>
-    <mergeCell ref="C413:E413"/>
-    <mergeCell ref="C430:E430"/>
-    <mergeCell ref="C447:E447"/>
-    <mergeCell ref="C464:E464"/>
-    <mergeCell ref="C481:E481"/>
-    <mergeCell ref="C294:E294"/>
-    <mergeCell ref="C311:E311"/>
-    <mergeCell ref="C328:E328"/>
-    <mergeCell ref="C345:E345"/>
-    <mergeCell ref="C362:E362"/>
-    <mergeCell ref="C379:E379"/>
-    <mergeCell ref="C225:E225"/>
-    <mergeCell ref="C242:E242"/>
-    <mergeCell ref="C259:E259"/>
-    <mergeCell ref="C276:E276"/>
-    <mergeCell ref="C277:E277"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="C174:E174"/>
-    <mergeCell ref="C191:E191"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C2034:E2034"/>
+    <mergeCell ref="C2051:E2051"/>
+    <mergeCell ref="C2068:E2068"/>
+    <mergeCell ref="C2085:E2085"/>
+    <mergeCell ref="C2170:E2170"/>
+    <mergeCell ref="C2102:E2102"/>
+    <mergeCell ref="C2119:E2119"/>
+    <mergeCell ref="C2136:E2136"/>
+    <mergeCell ref="C2153:E2153"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -24377,51 +24408,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" thickBot="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="188" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="188"/>
+      <c r="L1" s="188"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" thickBot="1">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="185" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="186"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="187"/>
     </row>
     <row r="3" spans="1:12" s="31" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="182" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="183"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="184"/>
     </row>
     <row r="4" spans="1:12" s="27" customFormat="1">
       <c r="A4" s="28" t="s">
@@ -24638,19 +24669,19 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="181" t="s">
+      <c r="A20" s="182" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="182"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="182"/>
-      <c r="F20" s="182"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="182"/>
-      <c r="K20" s="183"/>
+      <c r="B20" s="183"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="183"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="184"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="28" t="s">
@@ -24867,19 +24898,19 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A37" s="181" t="s">
+      <c r="A37" s="182" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="182"/>
-      <c r="C37" s="182"/>
-      <c r="D37" s="182"/>
-      <c r="E37" s="182"/>
-      <c r="F37" s="182"/>
-      <c r="G37" s="182"/>
-      <c r="H37" s="182"/>
-      <c r="I37" s="182"/>
-      <c r="J37" s="182"/>
-      <c r="K37" s="183"/>
+      <c r="B37" s="183"/>
+      <c r="C37" s="183"/>
+      <c r="D37" s="183"/>
+      <c r="E37" s="183"/>
+      <c r="F37" s="183"/>
+      <c r="G37" s="183"/>
+      <c r="H37" s="183"/>
+      <c r="I37" s="183"/>
+      <c r="J37" s="183"/>
+      <c r="K37" s="184"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="28" t="s">
@@ -25103,7 +25134,7 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A20:K20"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -25137,28 +25168,28 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="188"/>
+      <c r="A3" s="189"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="189"/>
+      <c r="A4" s="190"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="189"/>
+      <c r="A5" s="190"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="189"/>
+      <c r="A6" s="190"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="189"/>
+      <c r="A7" s="190"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="189"/>
+      <c r="A8" s="190"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="189"/>
+      <c r="A9" s="190"/>
     </row>
     <row r="10" spans="1:1" ht="13.5" thickBot="1">
-      <c r="A10" s="190"/>
+      <c r="A10" s="191"/>
     </row>
     <row r="11" spans="1:1" ht="27" customHeight="1">
       <c r="A11" s="22" t="s">
@@ -25314,7 +25345,7 @@
   <mergeCells count="1">
     <mergeCell ref="A3:A10"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -25341,10 +25372,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B1" s="191" t="s">
+      <c r="B1" s="192" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="192"/>
+      <c r="C1" s="193"/>
       <c r="D1" s="92"/>
       <c r="E1" s="32"/>
     </row>
@@ -25355,7 +25386,7 @@
       <c r="E2" s="119"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="194" t="s">
         <v>210</v>
       </c>
       <c r="B3" s="131" t="s">
@@ -25369,7 +25400,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="194"/>
+      <c r="A4" s="195"/>
       <c r="B4" s="128" t="s">
         <v>159</v>
       </c>
@@ -25381,7 +25412,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="194"/>
+      <c r="A5" s="195"/>
       <c r="B5" s="128" t="s">
         <v>160</v>
       </c>
@@ -25390,7 +25421,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="194"/>
+      <c r="A6" s="195"/>
       <c r="B6" s="139" t="s">
         <v>212</v>
       </c>
@@ -25402,7 +25433,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="194"/>
+      <c r="A7" s="195"/>
       <c r="B7" s="128" t="s">
         <v>178</v>
       </c>
@@ -25414,7 +25445,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="194"/>
+      <c r="A8" s="195"/>
       <c r="B8" s="128" t="s">
         <v>179</v>
       </c>
@@ -25423,7 +25454,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A9" s="195"/>
+      <c r="A9" s="196"/>
       <c r="B9" s="136" t="s">
         <v>161</v>
       </c>
@@ -25438,7 +25469,7 @@
       <c r="E10" s="94"/>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A11" s="193" t="s">
+      <c r="A11" s="194" t="s">
         <v>211</v>
       </c>
       <c r="B11" s="131" t="s">
@@ -25452,7 +25483,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="194"/>
+      <c r="A12" s="195"/>
       <c r="B12" s="128" t="s">
         <v>159</v>
       </c>
@@ -25464,7 +25495,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="194"/>
+      <c r="A13" s="195"/>
       <c r="B13" s="128" t="s">
         <v>160</v>
       </c>
@@ -25473,7 +25504,7 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="194"/>
+      <c r="A14" s="195"/>
       <c r="B14" s="139" t="s">
         <v>212</v>
       </c>
@@ -25485,7 +25516,7 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="194"/>
+      <c r="A15" s="195"/>
       <c r="B15" s="128" t="s">
         <v>178</v>
       </c>
@@ -25497,7 +25528,7 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="194"/>
+      <c r="A16" s="195"/>
       <c r="B16" s="128" t="s">
         <v>179</v>
       </c>
@@ -25506,7 +25537,7 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A17" s="195"/>
+      <c r="A17" s="196"/>
       <c r="B17" s="136" t="s">
         <v>161</v>
       </c>
@@ -25521,7 +25552,7 @@
       <c r="E18" s="94"/>
     </row>
     <row r="19" spans="1:5" collapsed="1">
-      <c r="A19" s="193" t="s">
+      <c r="A19" s="194" t="s">
         <v>211</v>
       </c>
       <c r="B19" s="131" t="s">
@@ -25530,7 +25561,7 @@
       <c r="C19" s="130"/>
     </row>
     <row r="20" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A20" s="194"/>
+      <c r="A20" s="195"/>
       <c r="B20" s="128" t="s">
         <v>159</v>
       </c>
@@ -25540,14 +25571,14 @@
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A21" s="194"/>
+      <c r="A21" s="195"/>
       <c r="B21" s="128" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="133"/>
     </row>
     <row r="22" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A22" s="194"/>
+      <c r="A22" s="195"/>
       <c r="B22" s="139" t="s">
         <v>212</v>
       </c>
@@ -25557,7 +25588,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A23" s="194"/>
+      <c r="A23" s="195"/>
       <c r="B23" s="128" t="s">
         <v>178</v>
       </c>
@@ -25567,14 +25598,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A24" s="194"/>
+      <c r="A24" s="195"/>
       <c r="B24" s="128" t="s">
         <v>179</v>
       </c>
       <c r="C24" s="132"/>
     </row>
     <row r="25" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A25" s="195"/>
+      <c r="A25" s="196"/>
       <c r="B25" s="136" t="s">
         <v>161</v>
       </c>
@@ -25587,7 +25618,7 @@
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="A19:A25"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -25618,17 +25649,17 @@
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="203" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="213"/>
+      <c r="B2" s="204"/>
       <c r="C2" s="120"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="214" t="s">
+      <c r="A3" s="205" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="213"/>
+      <c r="B3" s="204"/>
       <c r="C3" s="120"/>
     </row>
     <row r="4" spans="1:5">
@@ -25644,115 +25675,128 @@
       <c r="C5" s="120"/>
     </row>
     <row r="7" spans="1:5" ht="18.75">
-      <c r="A7" s="200" t="s">
+      <c r="A7" s="214" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="201"/>
+      <c r="B7" s="215"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="120"/>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="39" customHeight="1">
-      <c r="A9" s="202" t="s">
+      <c r="A9" s="212" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="203"/>
+      <c r="B9" s="213"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="204"/>
-      <c r="B10" s="205"/>
+      <c r="A10" s="199"/>
+      <c r="B10" s="200"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="196" t="s">
+      <c r="A11" s="201" t="s">
         <v>196</v>
       </c>
-      <c r="B11" s="197"/>
+      <c r="B11" s="202"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="196" t="s">
+      <c r="A12" s="201" t="s">
         <v>197</v>
       </c>
-      <c r="B12" s="197"/>
+      <c r="B12" s="202"/>
     </row>
     <row r="13" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A13" s="196" t="s">
+      <c r="A13" s="201" t="s">
         <v>198</v>
       </c>
-      <c r="B13" s="197"/>
+      <c r="B13" s="202"/>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A14" s="196" t="s">
+      <c r="A14" s="201" t="s">
         <v>199</v>
       </c>
-      <c r="B14" s="197"/>
+      <c r="B14" s="202"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
-      <c r="A15" s="196" t="s">
+      <c r="A15" s="201" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="197"/>
+      <c r="B15" s="202"/>
     </row>
     <row r="16" spans="1:5" ht="21" customHeight="1">
-      <c r="A16" s="196" t="s">
+      <c r="A16" s="201" t="s">
         <v>201</v>
       </c>
-      <c r="B16" s="197"/>
+      <c r="B16" s="202"/>
     </row>
     <row r="17" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A17" s="198" t="s">
+      <c r="A17" s="197" t="s">
         <v>203</v>
       </c>
-      <c r="B17" s="199"/>
+      <c r="B17" s="198"/>
     </row>
     <row r="19" spans="1:2" ht="18.75">
-      <c r="A19" s="200" t="s">
+      <c r="A19" s="214" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="201"/>
+      <c r="B19" s="215"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="120"/>
       <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="202" t="s">
+      <c r="A21" s="212" t="s">
         <v>206</v>
       </c>
-      <c r="B21" s="203"/>
+      <c r="B21" s="213"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="204"/>
-      <c r="B22" s="205"/>
+      <c r="A22" s="199"/>
+      <c r="B22" s="200"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="196" t="s">
+      <c r="A23" s="201" t="s">
         <v>207</v>
       </c>
-      <c r="B23" s="197"/>
+      <c r="B23" s="202"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="196"/>
-      <c r="B24" s="197"/>
+      <c r="A24" s="201"/>
+      <c r="B24" s="202"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="196" t="s">
+      <c r="A25" s="201" t="s">
         <v>208</v>
       </c>
-      <c r="B25" s="197"/>
+      <c r="B25" s="202"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="196" t="s">
+      <c r="A26" s="201" t="s">
         <v>209</v>
       </c>
-      <c r="B26" s="197"/>
+      <c r="B26" s="202"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="198"/>
-      <c r="B27" s="199"/>
+      <c r="A27" s="197"/>
+      <c r="B27" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -25763,19 +25807,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
